--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>83900</v>
+        <v>81800</v>
       </c>
       <c r="E8" s="3">
-        <v>74900</v>
+        <v>73000</v>
       </c>
       <c r="F8" s="3">
-        <v>64300</v>
+        <v>62700</v>
       </c>
       <c r="G8" s="3">
-        <v>73300</v>
+        <v>71500</v>
       </c>
       <c r="H8" s="3">
-        <v>51900</v>
+        <v>50700</v>
       </c>
       <c r="I8" s="3">
-        <v>42600</v>
+        <v>41500</v>
       </c>
       <c r="J8" s="3">
-        <v>35000</v>
+        <v>34100</v>
       </c>
       <c r="K8" s="3">
         <v>29200</v>
@@ -748,25 +748,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51500</v>
+        <v>50300</v>
       </c>
       <c r="E9" s="3">
-        <v>39400</v>
+        <v>38400</v>
       </c>
       <c r="F9" s="3">
-        <v>32600</v>
+        <v>31800</v>
       </c>
       <c r="G9" s="3">
-        <v>52000</v>
+        <v>50800</v>
       </c>
       <c r="H9" s="3">
-        <v>37900</v>
+        <v>37000</v>
       </c>
       <c r="I9" s="3">
-        <v>23800</v>
+        <v>23200</v>
       </c>
       <c r="J9" s="3">
-        <v>18900</v>
+        <v>18400</v>
       </c>
       <c r="K9" s="3">
         <v>25000</v>
@@ -777,25 +777,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32400</v>
+        <v>31600</v>
       </c>
       <c r="E10" s="3">
-        <v>35500</v>
+        <v>34600</v>
       </c>
       <c r="F10" s="3">
-        <v>31800</v>
+        <v>31000</v>
       </c>
       <c r="G10" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="H10" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="I10" s="3">
-        <v>18700</v>
+        <v>18300</v>
       </c>
       <c r="J10" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="K10" s="3">
         <v>4200</v>
@@ -819,25 +819,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>28500</v>
+        <v>27800</v>
       </c>
       <c r="E12" s="3">
-        <v>22700</v>
+        <v>22100</v>
       </c>
       <c r="F12" s="3">
-        <v>36000</v>
+        <v>35200</v>
       </c>
       <c r="G12" s="3">
-        <v>30100</v>
+        <v>29300</v>
       </c>
       <c r="H12" s="3">
-        <v>17500</v>
+        <v>17100</v>
       </c>
       <c r="I12" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="J12" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="K12" s="3">
         <v>19900</v>
@@ -909,10 +909,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="F15" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>11</v>
@@ -921,10 +921,10 @@
         <v>11</v>
       </c>
       <c r="I15" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="J15" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>11</v>
@@ -945,25 +945,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>127700</v>
+        <v>124600</v>
       </c>
       <c r="E17" s="3">
-        <v>125700</v>
+        <v>122600</v>
       </c>
       <c r="F17" s="3">
-        <v>130400</v>
+        <v>127200</v>
       </c>
       <c r="G17" s="3">
-        <v>150600</v>
+        <v>146900</v>
       </c>
       <c r="H17" s="3">
-        <v>90400</v>
+        <v>88100</v>
       </c>
       <c r="I17" s="3">
-        <v>67100</v>
+        <v>65500</v>
       </c>
       <c r="J17" s="3">
-        <v>54600</v>
+        <v>53300</v>
       </c>
       <c r="K17" s="3">
         <v>62100</v>
@@ -974,25 +974,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-43800</v>
+        <v>-42700</v>
       </c>
       <c r="E18" s="3">
-        <v>-50800</v>
+        <v>-49600</v>
       </c>
       <c r="F18" s="3">
-        <v>-66000</v>
+        <v>-64400</v>
       </c>
       <c r="G18" s="3">
-        <v>-77300</v>
+        <v>-75400</v>
       </c>
       <c r="H18" s="3">
-        <v>-38400</v>
+        <v>-37500</v>
       </c>
       <c r="I18" s="3">
-        <v>-24600</v>
+        <v>-24000</v>
       </c>
       <c r="J18" s="3">
-        <v>-19600</v>
+        <v>-19100</v>
       </c>
       <c r="K18" s="3">
         <v>-32900</v>
@@ -1022,16 +1022,16 @@
         <v>-2200</v>
       </c>
       <c r="F20" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G20" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J20" s="3">
         <v>900</v>
@@ -1045,25 +1045,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-50400</v>
+        <v>-49200</v>
       </c>
       <c r="E21" s="3">
-        <v>-52600</v>
+        <v>-51300</v>
       </c>
       <c r="F21" s="3">
-        <v>-43300</v>
+        <v>-42200</v>
       </c>
       <c r="G21" s="3">
-        <v>-71400</v>
+        <v>-69600</v>
       </c>
       <c r="H21" s="3">
-        <v>-39100</v>
+        <v>-38100</v>
       </c>
       <c r="I21" s="3">
-        <v>-25500</v>
+        <v>-24800</v>
       </c>
       <c r="J21" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>11</v>
@@ -1080,10 +1080,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G22" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>11</v>
@@ -1103,25 +1103,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-46600</v>
+        <v>-45500</v>
       </c>
       <c r="E23" s="3">
-        <v>-53000</v>
+        <v>-51700</v>
       </c>
       <c r="F23" s="3">
-        <v>-68800</v>
+        <v>-67100</v>
       </c>
       <c r="G23" s="3">
-        <v>-78900</v>
+        <v>-76900</v>
       </c>
       <c r="H23" s="3">
-        <v>-40900</v>
+        <v>-39900</v>
       </c>
       <c r="I23" s="3">
-        <v>-26800</v>
+        <v>-26200</v>
       </c>
       <c r="J23" s="3">
-        <v>-20400</v>
+        <v>-19900</v>
       </c>
       <c r="K23" s="3">
         <v>-37100</v>
@@ -1132,25 +1132,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="E24" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="F24" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="G24" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="H24" s="3">
-        <v>-9500</v>
+        <v>-9300</v>
       </c>
       <c r="I24" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="J24" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="K24" s="3">
         <v>-9200</v>
@@ -1190,25 +1190,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-41800</v>
+        <v>-40700</v>
       </c>
       <c r="E26" s="3">
-        <v>-48900</v>
+        <v>-47700</v>
       </c>
       <c r="F26" s="3">
-        <v>-59800</v>
+        <v>-58300</v>
       </c>
       <c r="G26" s="3">
-        <v>-87700</v>
+        <v>-85600</v>
       </c>
       <c r="H26" s="3">
-        <v>-31400</v>
+        <v>-30600</v>
       </c>
       <c r="I26" s="3">
-        <v>-36100</v>
+        <v>-35200</v>
       </c>
       <c r="J26" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="K26" s="3">
         <v>-27900</v>
@@ -1219,25 +1219,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-41100</v>
+        <v>-40100</v>
       </c>
       <c r="E27" s="3">
-        <v>-48700</v>
+        <v>-47500</v>
       </c>
       <c r="F27" s="3">
-        <v>-59600</v>
+        <v>-58100</v>
       </c>
       <c r="G27" s="3">
-        <v>-89100</v>
+        <v>-86900</v>
       </c>
       <c r="H27" s="3">
-        <v>-30800</v>
+        <v>-30000</v>
       </c>
       <c r="I27" s="3">
-        <v>-36100</v>
+        <v>-35200</v>
       </c>
       <c r="J27" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="K27" s="3">
         <v>-27900</v>
@@ -1370,16 +1370,16 @@
         <v>2200</v>
       </c>
       <c r="F32" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="G32" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="H32" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I32" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J32" s="3">
         <v>-900</v>
@@ -1393,25 +1393,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-41100</v>
+        <v>-40100</v>
       </c>
       <c r="E33" s="3">
-        <v>-48700</v>
+        <v>-47500</v>
       </c>
       <c r="F33" s="3">
-        <v>-59600</v>
+        <v>-58100</v>
       </c>
       <c r="G33" s="3">
-        <v>-89100</v>
+        <v>-86900</v>
       </c>
       <c r="H33" s="3">
-        <v>-30800</v>
+        <v>-30000</v>
       </c>
       <c r="I33" s="3">
-        <v>-36100</v>
+        <v>-35200</v>
       </c>
       <c r="J33" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="K33" s="3">
         <v>-27900</v>
@@ -1451,25 +1451,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-41100</v>
+        <v>-40100</v>
       </c>
       <c r="E35" s="3">
-        <v>-48700</v>
+        <v>-47500</v>
       </c>
       <c r="F35" s="3">
-        <v>-59600</v>
+        <v>-58100</v>
       </c>
       <c r="G35" s="3">
-        <v>-89100</v>
+        <v>-86900</v>
       </c>
       <c r="H35" s="3">
-        <v>-30800</v>
+        <v>-30000</v>
       </c>
       <c r="I35" s="3">
-        <v>-36100</v>
+        <v>-35200</v>
       </c>
       <c r="J35" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="K35" s="3">
         <v>-27900</v>
@@ -1540,13 +1540,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>131300</v>
+        <v>128100</v>
       </c>
       <c r="E41" s="3">
-        <v>150500</v>
+        <v>146800</v>
       </c>
       <c r="F41" s="3">
-        <v>426800</v>
+        <v>416300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>11</v>
@@ -1569,13 +1569,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>80500</v>
+        <v>78500</v>
       </c>
       <c r="E42" s="3">
-        <v>151200</v>
+        <v>147500</v>
       </c>
       <c r="F42" s="3">
-        <v>94600</v>
+        <v>92300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>11</v>
@@ -1598,13 +1598,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>161800</v>
+        <v>157800</v>
       </c>
       <c r="E43" s="3">
-        <v>143200</v>
+        <v>139700</v>
       </c>
       <c r="F43" s="3">
-        <v>111700</v>
+        <v>108900</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>11</v>
@@ -1656,13 +1656,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>515000</v>
+        <v>502400</v>
       </c>
       <c r="E45" s="3">
-        <v>494000</v>
+        <v>481900</v>
       </c>
       <c r="F45" s="3">
-        <v>584700</v>
+        <v>570400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>11</v>
@@ -1685,13 +1685,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>888600</v>
+        <v>866800</v>
       </c>
       <c r="E46" s="3">
-        <v>938900</v>
+        <v>915900</v>
       </c>
       <c r="F46" s="3">
-        <v>1217800</v>
+        <v>1187900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>11</v>
@@ -1714,13 +1714,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26700</v>
+        <v>26100</v>
       </c>
       <c r="E47" s="3">
-        <v>29200</v>
+        <v>28500</v>
       </c>
       <c r="F47" s="3">
-        <v>30700</v>
+        <v>29900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>11</v>
@@ -1743,13 +1743,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>51900</v>
+        <v>50600</v>
       </c>
       <c r="E48" s="3">
-        <v>50000</v>
+        <v>48800</v>
       </c>
       <c r="F48" s="3">
-        <v>42500</v>
+        <v>41400</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>11</v>
@@ -1772,13 +1772,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>137000</v>
+        <v>133600</v>
       </c>
       <c r="E49" s="3">
-        <v>100200</v>
+        <v>97700</v>
       </c>
       <c r="F49" s="3">
-        <v>98100</v>
+        <v>95700</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>11</v>
@@ -1859,13 +1859,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68100</v>
+        <v>66400</v>
       </c>
       <c r="E52" s="3">
-        <v>63600</v>
+        <v>62000</v>
       </c>
       <c r="F52" s="3">
-        <v>58700</v>
+        <v>57300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>11</v>
@@ -1917,13 +1917,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1172300</v>
+        <v>1143500</v>
       </c>
       <c r="E54" s="3">
-        <v>1182000</v>
+        <v>1153000</v>
       </c>
       <c r="F54" s="3">
-        <v>1447700</v>
+        <v>1412200</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>11</v>
@@ -1972,13 +1972,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="E57" s="3">
-        <v>21100</v>
+        <v>20600</v>
       </c>
       <c r="F57" s="3">
-        <v>35900</v>
+        <v>35100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>11</v>
@@ -2001,13 +2001,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>437800</v>
+        <v>427000</v>
       </c>
       <c r="E58" s="3">
-        <v>422300</v>
+        <v>411900</v>
       </c>
       <c r="F58" s="3">
-        <v>668500</v>
+        <v>652100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>11</v>
@@ -2030,13 +2030,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>209000</v>
+        <v>203900</v>
       </c>
       <c r="E59" s="3">
-        <v>210000</v>
+        <v>204800</v>
       </c>
       <c r="F59" s="3">
-        <v>194500</v>
+        <v>189700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>11</v>
@@ -2059,13 +2059,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>656600</v>
+        <v>640500</v>
       </c>
       <c r="E60" s="3">
-        <v>653400</v>
+        <v>637300</v>
       </c>
       <c r="F60" s="3">
-        <v>898900</v>
+        <v>876800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>11</v>
@@ -2117,13 +2117,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>72200</v>
+        <v>70400</v>
       </c>
       <c r="E62" s="3">
-        <v>67400</v>
+        <v>65700</v>
       </c>
       <c r="F62" s="3">
-        <v>59600</v>
+        <v>58100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>11</v>
@@ -2233,13 +2233,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>753200</v>
+        <v>734700</v>
       </c>
       <c r="E66" s="3">
-        <v>745500</v>
+        <v>727200</v>
       </c>
       <c r="F66" s="3">
-        <v>974100</v>
+        <v>950200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>11</v>
@@ -2391,13 +2391,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>419100</v>
+        <v>408800</v>
       </c>
       <c r="E72" s="3">
-        <v>436500</v>
+        <v>425800</v>
       </c>
       <c r="F72" s="3">
-        <v>473600</v>
+        <v>462000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>11</v>
@@ -2507,13 +2507,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>419100</v>
+        <v>408800</v>
       </c>
       <c r="E76" s="3">
-        <v>436500</v>
+        <v>425800</v>
       </c>
       <c r="F76" s="3">
-        <v>473600</v>
+        <v>462000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>11</v>
@@ -2599,25 +2599,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-41100</v>
+        <v>-40100</v>
       </c>
       <c r="E81" s="3">
-        <v>-48700</v>
+        <v>-47500</v>
       </c>
       <c r="F81" s="3">
-        <v>-59600</v>
+        <v>-58100</v>
       </c>
       <c r="G81" s="3">
-        <v>-89100</v>
+        <v>-86900</v>
       </c>
       <c r="H81" s="3">
-        <v>-30800</v>
+        <v>-30000</v>
       </c>
       <c r="I81" s="3">
-        <v>-36100</v>
+        <v>-35200</v>
       </c>
       <c r="J81" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="K81" s="3">
         <v>-27900</v>
@@ -2815,25 +2815,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-64000</v>
+        <v>-62400</v>
       </c>
       <c r="E89" s="3">
-        <v>-60800</v>
+        <v>-59300</v>
       </c>
       <c r="F89" s="3">
-        <v>-86600</v>
+        <v>-84400</v>
       </c>
       <c r="G89" s="3">
-        <v>-50500</v>
+        <v>-49300</v>
       </c>
       <c r="H89" s="3">
-        <v>30600</v>
+        <v>29800</v>
       </c>
       <c r="I89" s="3">
-        <v>-40700</v>
+        <v>-39700</v>
       </c>
       <c r="J89" s="3">
-        <v>-9500</v>
+        <v>-9300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>11</v>
@@ -2857,25 +2857,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E91" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="F91" s="3">
         <v>-700</v>
       </c>
       <c r="G91" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="H91" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="I91" s="3">
         <v>-600</v>
       </c>
       <c r="J91" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>11</v>
@@ -2944,25 +2944,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>37400</v>
+        <v>36500</v>
       </c>
       <c r="E94" s="3">
-        <v>31800</v>
+        <v>31000</v>
       </c>
       <c r="F94" s="3">
-        <v>259000</v>
+        <v>252600</v>
       </c>
       <c r="G94" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="H94" s="3">
-        <v>191200</v>
+        <v>186500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1005800</v>
+        <v>-981100</v>
       </c>
       <c r="J94" s="3">
-        <v>-14400</v>
+        <v>-14000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>11</v>
@@ -3102,25 +3102,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="E100" s="3">
-        <v>-249400</v>
+        <v>-243300</v>
       </c>
       <c r="F100" s="3">
-        <v>174400</v>
+        <v>170100</v>
       </c>
       <c r="G100" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H100" s="3">
-        <v>-148100</v>
+        <v>-144500</v>
       </c>
       <c r="I100" s="3">
-        <v>580900</v>
+        <v>566600</v>
       </c>
       <c r="J100" s="3">
-        <v>425200</v>
+        <v>414700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>11</v>
@@ -3134,7 +3134,7 @@
         <v>-1800</v>
       </c>
       <c r="E101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F101" s="3">
         <v>-1100</v>
@@ -3146,10 +3146,10 @@
         <v>3200</v>
       </c>
       <c r="I101" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="J101" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>11</v>
@@ -3160,25 +3160,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19200</v>
+        <v>-18700</v>
       </c>
       <c r="E102" s="3">
-        <v>-276300</v>
+        <v>-269500</v>
       </c>
       <c r="F102" s="3">
-        <v>345700</v>
+        <v>337200</v>
       </c>
       <c r="G102" s="3">
-        <v>-51600</v>
+        <v>-50300</v>
       </c>
       <c r="H102" s="3">
-        <v>76900</v>
+        <v>75000</v>
       </c>
       <c r="I102" s="3">
-        <v>-460000</v>
+        <v>-448700</v>
       </c>
       <c r="J102" s="3">
-        <v>394100</v>
+        <v>384400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>11</v>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>81800</v>
+        <v>84300</v>
       </c>
       <c r="E8" s="3">
-        <v>73000</v>
+        <v>112200</v>
       </c>
       <c r="F8" s="3">
-        <v>62700</v>
+        <v>84900</v>
       </c>
       <c r="G8" s="3">
-        <v>71500</v>
+        <v>75800</v>
       </c>
       <c r="H8" s="3">
-        <v>50700</v>
+        <v>65100</v>
       </c>
       <c r="I8" s="3">
+        <v>74200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K8" s="3">
         <v>41500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>34100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>50300</v>
+        <v>55000</v>
       </c>
       <c r="E9" s="3">
+        <v>74500</v>
+      </c>
+      <c r="F9" s="3">
+        <v>52200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>39900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>33000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>52700</v>
+      </c>
+      <c r="J9" s="3">
         <v>38400</v>
       </c>
-      <c r="F9" s="3">
-        <v>31800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>50800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>37000</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>23200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>18400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31600</v>
+        <v>29300</v>
       </c>
       <c r="E10" s="3">
-        <v>34600</v>
+        <v>37700</v>
       </c>
       <c r="F10" s="3">
-        <v>31000</v>
+        <v>32800</v>
       </c>
       <c r="G10" s="3">
-        <v>20700</v>
+        <v>35900</v>
       </c>
       <c r="H10" s="3">
-        <v>13700</v>
+        <v>32200</v>
       </c>
       <c r="I10" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K10" s="3">
         <v>18300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>15700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>27800</v>
+        <v>34800</v>
       </c>
       <c r="E12" s="3">
-        <v>22100</v>
+        <v>45000</v>
       </c>
       <c r="F12" s="3">
-        <v>35200</v>
+        <v>28800</v>
       </c>
       <c r="G12" s="3">
-        <v>29300</v>
+        <v>23000</v>
       </c>
       <c r="H12" s="3">
-        <v>17100</v>
+        <v>36500</v>
       </c>
       <c r="I12" s="3">
+        <v>30400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K12" s="3">
         <v>6900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>6600</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -909,28 +954,34 @@
         <v>11</v>
       </c>
       <c r="E15" s="3">
-        <v>14100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>14100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
         <v>8300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>8100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>124600</v>
+        <v>149000</v>
       </c>
       <c r="E17" s="3">
-        <v>122600</v>
+        <v>196700</v>
       </c>
       <c r="F17" s="3">
+        <v>129200</v>
+      </c>
+      <c r="G17" s="3">
         <v>127200</v>
       </c>
-      <c r="G17" s="3">
-        <v>146900</v>
-      </c>
       <c r="H17" s="3">
-        <v>88100</v>
+        <v>132000</v>
       </c>
       <c r="I17" s="3">
+        <v>152400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>91500</v>
+      </c>
+      <c r="K17" s="3">
         <v>65500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>53300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-42700</v>
+        <v>-64700</v>
       </c>
       <c r="E18" s="3">
-        <v>-49600</v>
+        <v>-84400</v>
       </c>
       <c r="F18" s="3">
-        <v>-64400</v>
+        <v>-44300</v>
       </c>
       <c r="G18" s="3">
-        <v>-75400</v>
+        <v>-51400</v>
       </c>
       <c r="H18" s="3">
-        <v>-37500</v>
+        <v>-66900</v>
       </c>
       <c r="I18" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-24000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-19100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="E20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-49200</v>
+        <v>-58400</v>
       </c>
       <c r="E21" s="3">
-        <v>-51300</v>
+        <v>-81000</v>
       </c>
       <c r="F21" s="3">
-        <v>-42200</v>
+        <v>-45100</v>
       </c>
       <c r="G21" s="3">
-        <v>-69600</v>
+        <v>-47300</v>
       </c>
       <c r="H21" s="3">
-        <v>-38100</v>
+        <v>-43800</v>
       </c>
       <c r="I21" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-24800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-7800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
+      <c r="E22" s="3">
+        <v>6100</v>
       </c>
       <c r="F22" s="3">
-        <v>6800</v>
+        <v>5900</v>
       </c>
       <c r="G22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-45500</v>
+        <v>-67800</v>
       </c>
       <c r="E23" s="3">
-        <v>-51700</v>
+        <v>-85500</v>
       </c>
       <c r="F23" s="3">
-        <v>-67100</v>
+        <v>-47200</v>
       </c>
       <c r="G23" s="3">
-        <v>-76900</v>
+        <v>-53700</v>
       </c>
       <c r="H23" s="3">
-        <v>-39900</v>
+        <v>-69600</v>
       </c>
       <c r="I23" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-26200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-19900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-37100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="E24" s="3">
-        <v>-4000</v>
+        <v>7200</v>
       </c>
       <c r="F24" s="3">
-        <v>-8700</v>
+        <v>-4900</v>
       </c>
       <c r="G24" s="3">
-        <v>8600</v>
+        <v>-4200</v>
       </c>
       <c r="H24" s="3">
-        <v>-9300</v>
+        <v>-9100</v>
       </c>
       <c r="I24" s="3">
         <v>9000</v>
       </c>
       <c r="J24" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L24" s="3">
         <v>-4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-40700</v>
+        <v>-62900</v>
       </c>
       <c r="E26" s="3">
-        <v>-47700</v>
+        <v>-92700</v>
       </c>
       <c r="F26" s="3">
-        <v>-58300</v>
+        <v>-42300</v>
       </c>
       <c r="G26" s="3">
-        <v>-85600</v>
+        <v>-49500</v>
       </c>
       <c r="H26" s="3">
-        <v>-30600</v>
+        <v>-60500</v>
       </c>
       <c r="I26" s="3">
+        <v>-88800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-35200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-15200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-40100</v>
+        <v>-60200</v>
       </c>
       <c r="E27" s="3">
-        <v>-47500</v>
+        <v>-90000</v>
       </c>
       <c r="F27" s="3">
-        <v>-58100</v>
+        <v>-41600</v>
       </c>
       <c r="G27" s="3">
-        <v>-86900</v>
+        <v>-49300</v>
       </c>
       <c r="H27" s="3">
-        <v>-30000</v>
+        <v>-60300</v>
       </c>
       <c r="I27" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-35200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-15200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="E32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-40100</v>
+        <v>-60200</v>
       </c>
       <c r="E33" s="3">
-        <v>-47500</v>
+        <v>-90000</v>
       </c>
       <c r="F33" s="3">
-        <v>-58100</v>
+        <v>-41600</v>
       </c>
       <c r="G33" s="3">
-        <v>-86900</v>
+        <v>-49300</v>
       </c>
       <c r="H33" s="3">
-        <v>-30000</v>
+        <v>-60300</v>
       </c>
       <c r="I33" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-35200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-15200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-40100</v>
+        <v>-60200</v>
       </c>
       <c r="E35" s="3">
-        <v>-47500</v>
+        <v>-90000</v>
       </c>
       <c r="F35" s="3">
-        <v>-58100</v>
+        <v>-41600</v>
       </c>
       <c r="G35" s="3">
-        <v>-86900</v>
+        <v>-49300</v>
       </c>
       <c r="H35" s="3">
-        <v>-30000</v>
+        <v>-60300</v>
       </c>
       <c r="I35" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-35200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-15200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,25 +1705,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>128100</v>
+        <v>227000</v>
       </c>
       <c r="E41" s="3">
-        <v>146800</v>
+        <v>156500</v>
       </c>
       <c r="F41" s="3">
-        <v>416300</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>11</v>
+        <v>132900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>152300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>432000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>11</v>
@@ -1563,25 +1736,31 @@
       <c r="K41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>78500</v>
+        <v>146000</v>
       </c>
       <c r="E42" s="3">
-        <v>147500</v>
+        <v>245600</v>
       </c>
       <c r="F42" s="3">
-        <v>92300</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>11</v>
+        <v>81500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>153000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>95800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>11</v>
@@ -1592,25 +1771,31 @@
       <c r="K42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>157800</v>
+        <v>156900</v>
       </c>
       <c r="E43" s="3">
-        <v>139700</v>
+        <v>166200</v>
       </c>
       <c r="F43" s="3">
-        <v>108900</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>11</v>
+        <v>163800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>144900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>113000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>11</v>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,25 +1841,31 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>502400</v>
+        <v>429200</v>
       </c>
       <c r="E45" s="3">
-        <v>481900</v>
+        <v>543900</v>
       </c>
       <c r="F45" s="3">
-        <v>570400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>11</v>
+        <v>521300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>500100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>591800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>11</v>
@@ -1679,25 +1876,31 @@
       <c r="K45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>866800</v>
+        <v>959000</v>
       </c>
       <c r="E46" s="3">
-        <v>915900</v>
+        <v>1112300</v>
       </c>
       <c r="F46" s="3">
-        <v>1187900</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>11</v>
+        <v>899400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>950400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1232600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>11</v>
@@ -1708,25 +1911,31 @@
       <c r="K46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26100</v>
+        <v>84000</v>
       </c>
       <c r="E47" s="3">
-        <v>28500</v>
+        <v>80400</v>
       </c>
       <c r="F47" s="3">
-        <v>29900</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>11</v>
+        <v>27000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>29600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>31000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>11</v>
@@ -1737,25 +1946,31 @@
       <c r="K47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50600</v>
+        <v>40500</v>
       </c>
       <c r="E48" s="3">
-        <v>48800</v>
+        <v>45700</v>
       </c>
       <c r="F48" s="3">
-        <v>41400</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>11</v>
+        <v>52500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>50700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>43000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>11</v>
@@ -1766,25 +1981,31 @@
       <c r="K48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>133600</v>
+        <v>136900</v>
       </c>
       <c r="E49" s="3">
-        <v>97700</v>
+        <v>141900</v>
       </c>
       <c r="F49" s="3">
-        <v>95700</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>11</v>
+        <v>138600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>101400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>99300</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>11</v>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,25 +2086,31 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66400</v>
+        <v>66200</v>
       </c>
       <c r="E52" s="3">
-        <v>62000</v>
+        <v>61500</v>
       </c>
       <c r="F52" s="3">
-        <v>57300</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>11</v>
+        <v>68900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>64400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>59400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>11</v>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,25 +2156,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1143500</v>
+        <v>1286700</v>
       </c>
       <c r="E54" s="3">
-        <v>1153000</v>
+        <v>1441700</v>
       </c>
       <c r="F54" s="3">
-        <v>1412200</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>11</v>
+        <v>1186600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1196400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1465400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>11</v>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,25 +2225,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9700</v>
+        <v>163000</v>
       </c>
       <c r="E57" s="3">
-        <v>20600</v>
+        <v>50400</v>
       </c>
       <c r="F57" s="3">
-        <v>35100</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>11</v>
+        <v>10000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>21400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>36400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>11</v>
@@ -1995,25 +2256,31 @@
       <c r="K57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>427000</v>
+        <v>345900</v>
       </c>
       <c r="E58" s="3">
-        <v>411900</v>
+        <v>482200</v>
       </c>
       <c r="F58" s="3">
-        <v>652100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>11</v>
+        <v>443100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>427400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>676600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
@@ -2024,25 +2291,31 @@
       <c r="K58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>203900</v>
+        <v>65300</v>
       </c>
       <c r="E59" s="3">
-        <v>204800</v>
+        <v>184800</v>
       </c>
       <c r="F59" s="3">
-        <v>189700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>11</v>
+        <v>211500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>212500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>196800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>11</v>
@@ -2053,25 +2326,31 @@
       <c r="K59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>640500</v>
+        <v>574200</v>
       </c>
       <c r="E60" s="3">
-        <v>637300</v>
+        <v>717400</v>
       </c>
       <c r="F60" s="3">
-        <v>876800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>11</v>
+        <v>664700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>661300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>909800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>11</v>
@@ -2082,8 +2361,14 @@
       <c r="K60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2091,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2111,25 +2396,31 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>70400</v>
+        <v>65800</v>
       </c>
       <c r="E62" s="3">
-        <v>65700</v>
+        <v>55100</v>
       </c>
       <c r="F62" s="3">
-        <v>58100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>11</v>
+        <v>73100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>68200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>60300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>11</v>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,25 +2536,31 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>734700</v>
+        <v>659200</v>
       </c>
       <c r="E66" s="3">
-        <v>727200</v>
+        <v>807100</v>
       </c>
       <c r="F66" s="3">
-        <v>950200</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>11</v>
+        <v>762400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>754600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>986000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>11</v>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,25 +2726,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>408800</v>
+        <v>627400</v>
       </c>
       <c r="E72" s="3">
-        <v>425800</v>
+        <v>634700</v>
       </c>
       <c r="F72" s="3">
-        <v>462000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>11</v>
+        <v>424200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>441800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>479300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>11</v>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,25 +2866,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>408800</v>
+        <v>627400</v>
       </c>
       <c r="E76" s="3">
-        <v>425800</v>
+        <v>634700</v>
       </c>
       <c r="F76" s="3">
-        <v>462000</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>11</v>
+        <v>424200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>441800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>479400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>11</v>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-40100</v>
+        <v>-60200</v>
       </c>
       <c r="E81" s="3">
-        <v>-47500</v>
+        <v>-90000</v>
       </c>
       <c r="F81" s="3">
-        <v>-58100</v>
+        <v>-41600</v>
       </c>
       <c r="G81" s="3">
-        <v>-86900</v>
+        <v>-49300</v>
       </c>
       <c r="H81" s="3">
-        <v>-30000</v>
+        <v>-60300</v>
       </c>
       <c r="I81" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-35200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-15200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-62400</v>
+        <v>-85500</v>
       </c>
       <c r="E89" s="3">
-        <v>-59300</v>
+        <v>-50000</v>
       </c>
       <c r="F89" s="3">
-        <v>-84400</v>
+        <v>-64800</v>
       </c>
       <c r="G89" s="3">
-        <v>-49300</v>
+        <v>-61600</v>
       </c>
       <c r="H89" s="3">
-        <v>29800</v>
+        <v>-87600</v>
       </c>
       <c r="I89" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-39700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-3400</v>
+      <c r="D91" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E91" s="3">
-        <v>-7100</v>
+        <v>-2600</v>
       </c>
       <c r="F91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3100</v>
-      </c>
       <c r="I91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>36500</v>
+        <v>248600</v>
       </c>
       <c r="E94" s="3">
-        <v>31000</v>
+        <v>-249300</v>
       </c>
       <c r="F94" s="3">
-        <v>252600</v>
+        <v>37900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3900</v>
+        <v>32200</v>
       </c>
       <c r="H94" s="3">
-        <v>186500</v>
+        <v>262100</v>
       </c>
       <c r="I94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>193500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-981100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9000</v>
+        <v>-96800</v>
       </c>
       <c r="E100" s="3">
-        <v>-243300</v>
+        <v>321400</v>
       </c>
       <c r="F100" s="3">
-        <v>170100</v>
+        <v>9300</v>
       </c>
       <c r="G100" s="3">
-        <v>2800</v>
+        <v>-252500</v>
       </c>
       <c r="H100" s="3">
-        <v>-144500</v>
+        <v>176500</v>
       </c>
       <c r="I100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-149900</v>
+      </c>
+      <c r="K100" s="3">
         <v>566600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>414700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1800</v>
+        <v>4100</v>
       </c>
       <c r="E101" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="F101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K101" s="3">
         <v>5500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-7000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-18700</v>
+        <v>70400</v>
       </c>
       <c r="E102" s="3">
-        <v>-269500</v>
+        <v>23600</v>
       </c>
       <c r="F102" s="3">
-        <v>337200</v>
+        <v>-19400</v>
       </c>
       <c r="G102" s="3">
-        <v>-50300</v>
+        <v>-279700</v>
       </c>
       <c r="H102" s="3">
-        <v>75000</v>
+        <v>349900</v>
       </c>
       <c r="I102" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-448700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>384400</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>84300</v>
+        <v>88400</v>
       </c>
       <c r="E8" s="3">
-        <v>112200</v>
+        <v>117600</v>
       </c>
       <c r="F8" s="3">
-        <v>84900</v>
+        <v>88900</v>
       </c>
       <c r="G8" s="3">
-        <v>75800</v>
+        <v>79400</v>
       </c>
       <c r="H8" s="3">
-        <v>65100</v>
+        <v>68200</v>
       </c>
       <c r="I8" s="3">
-        <v>74200</v>
+        <v>77700</v>
       </c>
       <c r="J8" s="3">
-        <v>52600</v>
+        <v>55100</v>
       </c>
       <c r="K8" s="3">
         <v>41500</v>
@@ -761,25 +761,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>55000</v>
+        <v>57600</v>
       </c>
       <c r="E9" s="3">
-        <v>74500</v>
+        <v>78000</v>
       </c>
       <c r="F9" s="3">
-        <v>52200</v>
+        <v>54600</v>
       </c>
       <c r="G9" s="3">
-        <v>39900</v>
+        <v>41800</v>
       </c>
       <c r="H9" s="3">
-        <v>33000</v>
+        <v>34500</v>
       </c>
       <c r="I9" s="3">
-        <v>52700</v>
+        <v>55200</v>
       </c>
       <c r="J9" s="3">
-        <v>38400</v>
+        <v>40200</v>
       </c>
       <c r="K9" s="3">
         <v>23200</v>
@@ -796,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29300</v>
+        <v>30700</v>
       </c>
       <c r="E10" s="3">
-        <v>37700</v>
+        <v>39500</v>
       </c>
       <c r="F10" s="3">
-        <v>32800</v>
+        <v>34300</v>
       </c>
       <c r="G10" s="3">
-        <v>35900</v>
+        <v>37600</v>
       </c>
       <c r="H10" s="3">
-        <v>32200</v>
+        <v>33700</v>
       </c>
       <c r="I10" s="3">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="J10" s="3">
-        <v>14200</v>
+        <v>14900</v>
       </c>
       <c r="K10" s="3">
         <v>18300</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>34800</v>
+        <v>36400</v>
       </c>
       <c r="E12" s="3">
-        <v>45000</v>
+        <v>47200</v>
       </c>
       <c r="F12" s="3">
-        <v>28800</v>
+        <v>30200</v>
       </c>
       <c r="G12" s="3">
-        <v>23000</v>
+        <v>24100</v>
       </c>
       <c r="H12" s="3">
-        <v>36500</v>
+        <v>38200</v>
       </c>
       <c r="I12" s="3">
-        <v>30400</v>
+        <v>31900</v>
       </c>
       <c r="J12" s="3">
-        <v>17700</v>
+        <v>18600</v>
       </c>
       <c r="K12" s="3">
         <v>6900</v>
@@ -916,10 +916,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="E14" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
@@ -954,16 +954,16 @@
         <v>11</v>
       </c>
       <c r="E15" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="3">
-        <v>14700</v>
+        <v>15400</v>
       </c>
       <c r="H15" s="3">
-        <v>14700</v>
+        <v>15400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>11</v>
@@ -998,25 +998,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>149000</v>
+        <v>156100</v>
       </c>
       <c r="E17" s="3">
-        <v>196700</v>
+        <v>206000</v>
       </c>
       <c r="F17" s="3">
-        <v>129200</v>
+        <v>135400</v>
       </c>
       <c r="G17" s="3">
-        <v>127200</v>
+        <v>133300</v>
       </c>
       <c r="H17" s="3">
-        <v>132000</v>
+        <v>138200</v>
       </c>
       <c r="I17" s="3">
-        <v>152400</v>
+        <v>159700</v>
       </c>
       <c r="J17" s="3">
-        <v>91500</v>
+        <v>95800</v>
       </c>
       <c r="K17" s="3">
         <v>65500</v>
@@ -1033,25 +1033,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-64700</v>
+        <v>-67800</v>
       </c>
       <c r="E18" s="3">
-        <v>-84400</v>
+        <v>-88400</v>
       </c>
       <c r="F18" s="3">
-        <v>-44300</v>
+        <v>-46400</v>
       </c>
       <c r="G18" s="3">
-        <v>-51400</v>
+        <v>-53900</v>
       </c>
       <c r="H18" s="3">
-        <v>-66900</v>
+        <v>-70000</v>
       </c>
       <c r="I18" s="3">
-        <v>-78200</v>
+        <v>-81900</v>
       </c>
       <c r="J18" s="3">
-        <v>-38900</v>
+        <v>-40700</v>
       </c>
       <c r="K18" s="3">
         <v>-24000</v>
@@ -1083,25 +1083,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="E20" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="F20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G20" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H20" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I20" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="J20" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K20" s="3">
         <v>-2200</v>
@@ -1118,25 +1118,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-58400</v>
+        <v>-61200</v>
       </c>
       <c r="E21" s="3">
-        <v>-81000</v>
+        <v>-84800</v>
       </c>
       <c r="F21" s="3">
-        <v>-45100</v>
+        <v>-47200</v>
       </c>
       <c r="G21" s="3">
-        <v>-47300</v>
+        <v>-49600</v>
       </c>
       <c r="H21" s="3">
-        <v>-43800</v>
+        <v>-45900</v>
       </c>
       <c r="I21" s="3">
-        <v>-72300</v>
+        <v>-75700</v>
       </c>
       <c r="J21" s="3">
-        <v>-39600</v>
+        <v>-41400</v>
       </c>
       <c r="K21" s="3">
         <v>-24800</v>
@@ -1156,19 +1156,19 @@
         <v>11</v>
       </c>
       <c r="E22" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="F22" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="G22" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="H22" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="I22" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>11</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-67800</v>
+        <v>-71000</v>
       </c>
       <c r="E23" s="3">
-        <v>-85500</v>
+        <v>-89500</v>
       </c>
       <c r="F23" s="3">
-        <v>-47200</v>
+        <v>-49400</v>
       </c>
       <c r="G23" s="3">
-        <v>-53700</v>
+        <v>-56200</v>
       </c>
       <c r="H23" s="3">
-        <v>-69600</v>
+        <v>-72900</v>
       </c>
       <c r="I23" s="3">
-        <v>-79800</v>
+        <v>-83600</v>
       </c>
       <c r="J23" s="3">
-        <v>-41400</v>
+        <v>-43400</v>
       </c>
       <c r="K23" s="3">
         <v>-26200</v>
@@ -1223,25 +1223,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4900</v>
+        <v>-5100</v>
       </c>
       <c r="E24" s="3">
-        <v>7200</v>
+        <v>7600</v>
       </c>
       <c r="F24" s="3">
-        <v>-4900</v>
+        <v>-5100</v>
       </c>
       <c r="G24" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="H24" s="3">
-        <v>-9100</v>
+        <v>-9500</v>
       </c>
       <c r="I24" s="3">
-        <v>9000</v>
+        <v>9400</v>
       </c>
       <c r="J24" s="3">
-        <v>-9600</v>
+        <v>-10100</v>
       </c>
       <c r="K24" s="3">
         <v>9000</v>
@@ -1293,25 +1293,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-62900</v>
+        <v>-65900</v>
       </c>
       <c r="E26" s="3">
-        <v>-92700</v>
+        <v>-97100</v>
       </c>
       <c r="F26" s="3">
-        <v>-42300</v>
+        <v>-44300</v>
       </c>
       <c r="G26" s="3">
-        <v>-49500</v>
+        <v>-51900</v>
       </c>
       <c r="H26" s="3">
-        <v>-60500</v>
+        <v>-63400</v>
       </c>
       <c r="I26" s="3">
-        <v>-88800</v>
+        <v>-93000</v>
       </c>
       <c r="J26" s="3">
-        <v>-31800</v>
+        <v>-33300</v>
       </c>
       <c r="K26" s="3">
         <v>-35200</v>
@@ -1328,25 +1328,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-60200</v>
+        <v>-63100</v>
       </c>
       <c r="E27" s="3">
-        <v>-90000</v>
+        <v>-94200</v>
       </c>
       <c r="F27" s="3">
-        <v>-41600</v>
+        <v>-43600</v>
       </c>
       <c r="G27" s="3">
-        <v>-49300</v>
+        <v>-51700</v>
       </c>
       <c r="H27" s="3">
-        <v>-60300</v>
+        <v>-63200</v>
       </c>
       <c r="I27" s="3">
-        <v>-90200</v>
+        <v>-94500</v>
       </c>
       <c r="J27" s="3">
-        <v>-31200</v>
+        <v>-32600</v>
       </c>
       <c r="K27" s="3">
         <v>-35200</v>
@@ -1503,25 +1503,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E32" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="F32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G32" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="H32" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="I32" s="3">
-        <v>-5500</v>
+        <v>-5800</v>
       </c>
       <c r="J32" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K32" s="3">
         <v>2200</v>
@@ -1538,25 +1538,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-60200</v>
+        <v>-63100</v>
       </c>
       <c r="E33" s="3">
-        <v>-90000</v>
+        <v>-94200</v>
       </c>
       <c r="F33" s="3">
-        <v>-41600</v>
+        <v>-43600</v>
       </c>
       <c r="G33" s="3">
-        <v>-49300</v>
+        <v>-51700</v>
       </c>
       <c r="H33" s="3">
-        <v>-60300</v>
+        <v>-63200</v>
       </c>
       <c r="I33" s="3">
-        <v>-90200</v>
+        <v>-94500</v>
       </c>
       <c r="J33" s="3">
-        <v>-31200</v>
+        <v>-32600</v>
       </c>
       <c r="K33" s="3">
         <v>-35200</v>
@@ -1608,25 +1608,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-60200</v>
+        <v>-63100</v>
       </c>
       <c r="E35" s="3">
-        <v>-90000</v>
+        <v>-94200</v>
       </c>
       <c r="F35" s="3">
-        <v>-41600</v>
+        <v>-43600</v>
       </c>
       <c r="G35" s="3">
-        <v>-49300</v>
+        <v>-51700</v>
       </c>
       <c r="H35" s="3">
-        <v>-60300</v>
+        <v>-63200</v>
       </c>
       <c r="I35" s="3">
-        <v>-90200</v>
+        <v>-94500</v>
       </c>
       <c r="J35" s="3">
-        <v>-31200</v>
+        <v>-32600</v>
       </c>
       <c r="K35" s="3">
         <v>-35200</v>
@@ -1713,19 +1713,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>227000</v>
+        <v>237700</v>
       </c>
       <c r="E41" s="3">
-        <v>156500</v>
+        <v>164000</v>
       </c>
       <c r="F41" s="3">
-        <v>132900</v>
+        <v>139200</v>
       </c>
       <c r="G41" s="3">
-        <v>152300</v>
+        <v>159600</v>
       </c>
       <c r="H41" s="3">
-        <v>432000</v>
+        <v>452500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>11</v>
@@ -1748,19 +1748,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>146000</v>
+        <v>152900</v>
       </c>
       <c r="E42" s="3">
-        <v>245600</v>
+        <v>257200</v>
       </c>
       <c r="F42" s="3">
-        <v>81500</v>
+        <v>85300</v>
       </c>
       <c r="G42" s="3">
-        <v>153000</v>
+        <v>160300</v>
       </c>
       <c r="H42" s="3">
-        <v>95800</v>
+        <v>100300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>11</v>
@@ -1783,19 +1783,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>156900</v>
+        <v>164300</v>
       </c>
       <c r="E43" s="3">
-        <v>166200</v>
+        <v>174100</v>
       </c>
       <c r="F43" s="3">
-        <v>163800</v>
+        <v>171600</v>
       </c>
       <c r="G43" s="3">
-        <v>144900</v>
+        <v>151800</v>
       </c>
       <c r="H43" s="3">
-        <v>113000</v>
+        <v>118400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>11</v>
@@ -1853,19 +1853,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>429200</v>
+        <v>449600</v>
       </c>
       <c r="E45" s="3">
-        <v>543900</v>
+        <v>569700</v>
       </c>
       <c r="F45" s="3">
-        <v>521300</v>
+        <v>546000</v>
       </c>
       <c r="G45" s="3">
-        <v>500100</v>
+        <v>523800</v>
       </c>
       <c r="H45" s="3">
-        <v>591800</v>
+        <v>619900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>11</v>
@@ -1888,19 +1888,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>959000</v>
+        <v>1004500</v>
       </c>
       <c r="E46" s="3">
-        <v>1112300</v>
+        <v>1165100</v>
       </c>
       <c r="F46" s="3">
-        <v>899400</v>
+        <v>942100</v>
       </c>
       <c r="G46" s="3">
-        <v>950400</v>
+        <v>995500</v>
       </c>
       <c r="H46" s="3">
-        <v>1232600</v>
+        <v>1291100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>11</v>
@@ -1923,19 +1923,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>84000</v>
+        <v>88000</v>
       </c>
       <c r="E47" s="3">
-        <v>80400</v>
+        <v>84200</v>
       </c>
       <c r="F47" s="3">
-        <v>27000</v>
+        <v>28300</v>
       </c>
       <c r="G47" s="3">
-        <v>29600</v>
+        <v>31000</v>
       </c>
       <c r="H47" s="3">
-        <v>31000</v>
+        <v>32500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>11</v>
@@ -1958,19 +1958,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40500</v>
+        <v>42400</v>
       </c>
       <c r="E48" s="3">
-        <v>45700</v>
+        <v>47800</v>
       </c>
       <c r="F48" s="3">
-        <v>52500</v>
+        <v>55000</v>
       </c>
       <c r="G48" s="3">
-        <v>50700</v>
+        <v>53100</v>
       </c>
       <c r="H48" s="3">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>11</v>
@@ -1993,19 +1993,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>136900</v>
+        <v>143400</v>
       </c>
       <c r="E49" s="3">
-        <v>141900</v>
+        <v>148600</v>
       </c>
       <c r="F49" s="3">
-        <v>138600</v>
+        <v>145200</v>
       </c>
       <c r="G49" s="3">
-        <v>101400</v>
+        <v>106200</v>
       </c>
       <c r="H49" s="3">
-        <v>99300</v>
+        <v>104000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>11</v>
@@ -2098,19 +2098,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>66200</v>
+        <v>69300</v>
       </c>
       <c r="E52" s="3">
-        <v>61500</v>
+        <v>64500</v>
       </c>
       <c r="F52" s="3">
-        <v>68900</v>
+        <v>72200</v>
       </c>
       <c r="G52" s="3">
-        <v>64400</v>
+        <v>67400</v>
       </c>
       <c r="H52" s="3">
-        <v>59400</v>
+        <v>62300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>11</v>
@@ -2168,19 +2168,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1286700</v>
+        <v>1347700</v>
       </c>
       <c r="E54" s="3">
-        <v>1441700</v>
+        <v>1510100</v>
       </c>
       <c r="F54" s="3">
-        <v>1186600</v>
+        <v>1242900</v>
       </c>
       <c r="G54" s="3">
-        <v>1196400</v>
+        <v>1253200</v>
       </c>
       <c r="H54" s="3">
-        <v>1465400</v>
+        <v>1534900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>11</v>
@@ -2233,19 +2233,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>163000</v>
+        <v>170700</v>
       </c>
       <c r="E57" s="3">
-        <v>50400</v>
+        <v>52800</v>
       </c>
       <c r="F57" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="G57" s="3">
-        <v>21400</v>
+        <v>22400</v>
       </c>
       <c r="H57" s="3">
-        <v>36400</v>
+        <v>38100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>11</v>
@@ -2268,19 +2268,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>345900</v>
+        <v>362300</v>
       </c>
       <c r="E58" s="3">
-        <v>482200</v>
+        <v>505100</v>
       </c>
       <c r="F58" s="3">
-        <v>443100</v>
+        <v>464100</v>
       </c>
       <c r="G58" s="3">
-        <v>427400</v>
+        <v>447700</v>
       </c>
       <c r="H58" s="3">
-        <v>676600</v>
+        <v>708700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>11</v>
@@ -2303,19 +2303,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65300</v>
+        <v>68400</v>
       </c>
       <c r="E59" s="3">
-        <v>184800</v>
+        <v>193600</v>
       </c>
       <c r="F59" s="3">
-        <v>211500</v>
+        <v>221600</v>
       </c>
       <c r="G59" s="3">
-        <v>212500</v>
+        <v>222600</v>
       </c>
       <c r="H59" s="3">
-        <v>196800</v>
+        <v>206200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>11</v>
@@ -2338,19 +2338,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>574200</v>
+        <v>601500</v>
       </c>
       <c r="E60" s="3">
-        <v>717400</v>
+        <v>751500</v>
       </c>
       <c r="F60" s="3">
-        <v>664700</v>
+        <v>696200</v>
       </c>
       <c r="G60" s="3">
-        <v>661300</v>
+        <v>692700</v>
       </c>
       <c r="H60" s="3">
-        <v>909800</v>
+        <v>953000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>11</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>12800</v>
+        <v>13400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2408,19 +2408,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65800</v>
+        <v>68900</v>
       </c>
       <c r="E62" s="3">
-        <v>55100</v>
+        <v>57700</v>
       </c>
       <c r="F62" s="3">
-        <v>73100</v>
+        <v>76600</v>
       </c>
       <c r="G62" s="3">
-        <v>68200</v>
+        <v>71400</v>
       </c>
       <c r="H62" s="3">
-        <v>60300</v>
+        <v>63200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>11</v>
@@ -2548,19 +2548,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>659200</v>
+        <v>690500</v>
       </c>
       <c r="E66" s="3">
-        <v>807100</v>
+        <v>845400</v>
       </c>
       <c r="F66" s="3">
-        <v>762400</v>
+        <v>798500</v>
       </c>
       <c r="G66" s="3">
-        <v>754600</v>
+        <v>790400</v>
       </c>
       <c r="H66" s="3">
-        <v>986000</v>
+        <v>1032800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>11</v>
@@ -2738,19 +2738,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>627400</v>
+        <v>657200</v>
       </c>
       <c r="E72" s="3">
-        <v>634700</v>
+        <v>664800</v>
       </c>
       <c r="F72" s="3">
-        <v>424200</v>
+        <v>444300</v>
       </c>
       <c r="G72" s="3">
-        <v>441800</v>
+        <v>462700</v>
       </c>
       <c r="H72" s="3">
-        <v>479300</v>
+        <v>502100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>11</v>
@@ -2878,19 +2878,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>627400</v>
+        <v>657200</v>
       </c>
       <c r="E76" s="3">
-        <v>634700</v>
+        <v>664800</v>
       </c>
       <c r="F76" s="3">
-        <v>424200</v>
+        <v>444300</v>
       </c>
       <c r="G76" s="3">
-        <v>441800</v>
+        <v>462800</v>
       </c>
       <c r="H76" s="3">
-        <v>479400</v>
+        <v>502100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>11</v>
@@ -2988,25 +2988,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-60200</v>
+        <v>-63100</v>
       </c>
       <c r="E81" s="3">
-        <v>-90000</v>
+        <v>-94200</v>
       </c>
       <c r="F81" s="3">
-        <v>-41600</v>
+        <v>-43600</v>
       </c>
       <c r="G81" s="3">
-        <v>-49300</v>
+        <v>-51700</v>
       </c>
       <c r="H81" s="3">
-        <v>-60300</v>
+        <v>-63200</v>
       </c>
       <c r="I81" s="3">
-        <v>-90200</v>
+        <v>-94500</v>
       </c>
       <c r="J81" s="3">
-        <v>-31200</v>
+        <v>-32600</v>
       </c>
       <c r="K81" s="3">
         <v>-35200</v>
@@ -3248,25 +3248,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-85500</v>
+        <v>-89500</v>
       </c>
       <c r="E89" s="3">
-        <v>-50000</v>
+        <v>-52400</v>
       </c>
       <c r="F89" s="3">
-        <v>-64800</v>
+        <v>-67900</v>
       </c>
       <c r="G89" s="3">
-        <v>-61600</v>
+        <v>-64500</v>
       </c>
       <c r="H89" s="3">
-        <v>-87600</v>
+        <v>-91800</v>
       </c>
       <c r="I89" s="3">
-        <v>-51200</v>
+        <v>-53600</v>
       </c>
       <c r="J89" s="3">
-        <v>31000</v>
+        <v>32400</v>
       </c>
       <c r="K89" s="3">
         <v>-39700</v>
@@ -3301,22 +3301,22 @@
         <v>11</v>
       </c>
       <c r="E91" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F91" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="G91" s="3">
-        <v>-7300</v>
+        <v>-7700</v>
       </c>
       <c r="H91" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I91" s="3">
-        <v>-7800</v>
+        <v>-8100</v>
       </c>
       <c r="J91" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="K91" s="3">
         <v>-600</v>
@@ -3403,25 +3403,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>248600</v>
+        <v>260300</v>
       </c>
       <c r="E94" s="3">
-        <v>-249300</v>
+        <v>-261100</v>
       </c>
       <c r="F94" s="3">
-        <v>37900</v>
+        <v>39700</v>
       </c>
       <c r="G94" s="3">
-        <v>32200</v>
+        <v>33700</v>
       </c>
       <c r="H94" s="3">
-        <v>262100</v>
+        <v>274600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="J94" s="3">
-        <v>193500</v>
+        <v>202700</v>
       </c>
       <c r="K94" s="3">
         <v>-981100</v>
@@ -3593,25 +3593,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-96800</v>
+        <v>-101400</v>
       </c>
       <c r="E100" s="3">
-        <v>321400</v>
+        <v>336700</v>
       </c>
       <c r="F100" s="3">
-        <v>9300</v>
+        <v>9800</v>
       </c>
       <c r="G100" s="3">
-        <v>-252500</v>
+        <v>-264400</v>
       </c>
       <c r="H100" s="3">
-        <v>176500</v>
+        <v>184900</v>
       </c>
       <c r="I100" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="J100" s="3">
-        <v>-149900</v>
+        <v>-157100</v>
       </c>
       <c r="K100" s="3">
         <v>566600</v>
@@ -3628,25 +3628,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E101" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K101" s="3">
         <v>5500</v>
@@ -3663,25 +3663,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>70400</v>
+        <v>73800</v>
       </c>
       <c r="E102" s="3">
-        <v>23600</v>
+        <v>24800</v>
       </c>
       <c r="F102" s="3">
-        <v>-19400</v>
+        <v>-20300</v>
       </c>
       <c r="G102" s="3">
-        <v>-279700</v>
+        <v>-292900</v>
       </c>
       <c r="H102" s="3">
-        <v>349900</v>
+        <v>366500</v>
       </c>
       <c r="I102" s="3">
-        <v>-52200</v>
+        <v>-54700</v>
       </c>
       <c r="J102" s="3">
-        <v>77800</v>
+        <v>81500</v>
       </c>
       <c r="K102" s="3">
         <v>-448700</v>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,194 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>88400</v>
+        <v>134700</v>
       </c>
       <c r="E8" s="3">
-        <v>117600</v>
+        <v>118300</v>
       </c>
       <c r="F8" s="3">
-        <v>88900</v>
+        <v>88700</v>
       </c>
       <c r="G8" s="3">
-        <v>79400</v>
+        <v>118100</v>
       </c>
       <c r="H8" s="3">
-        <v>68200</v>
+        <v>89300</v>
       </c>
       <c r="I8" s="3">
+        <v>79700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K8" s="3">
         <v>77700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>55100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>41500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>34100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>57600</v>
+        <v>77200</v>
       </c>
       <c r="E9" s="3">
-        <v>78000</v>
+        <v>72900</v>
       </c>
       <c r="F9" s="3">
-        <v>54600</v>
+        <v>57900</v>
       </c>
       <c r="G9" s="3">
-        <v>41800</v>
+        <v>78400</v>
       </c>
       <c r="H9" s="3">
-        <v>34500</v>
+        <v>54900</v>
       </c>
       <c r="I9" s="3">
+        <v>41900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K9" s="3">
         <v>55200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>40200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>23200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>18400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30700</v>
+        <v>57400</v>
       </c>
       <c r="E10" s="3">
-        <v>39500</v>
+        <v>45400</v>
       </c>
       <c r="F10" s="3">
-        <v>34300</v>
+        <v>30800</v>
       </c>
       <c r="G10" s="3">
-        <v>37600</v>
+        <v>39700</v>
       </c>
       <c r="H10" s="3">
-        <v>33700</v>
+        <v>34500</v>
       </c>
       <c r="I10" s="3">
+        <v>37800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K10" s="3">
         <v>22500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>14900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>18300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>15700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +866,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36400</v>
+        <v>45200</v>
       </c>
       <c r="E12" s="3">
-        <v>47200</v>
+        <v>44100</v>
       </c>
       <c r="F12" s="3">
-        <v>30200</v>
+        <v>36600</v>
       </c>
       <c r="G12" s="3">
-        <v>24100</v>
+        <v>47400</v>
       </c>
       <c r="H12" s="3">
-        <v>38200</v>
+        <v>30300</v>
       </c>
       <c r="I12" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K12" s="3">
         <v>31900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>18600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,23 +944,29 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F14" s="3">
         <v>3200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>6900</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
@@ -936,52 +976,64 @@
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
         <v>5100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3">
         <v>15400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>15400</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3">
         <v>8300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>8100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>156100</v>
+        <v>172900</v>
       </c>
       <c r="E17" s="3">
-        <v>206000</v>
+        <v>173400</v>
       </c>
       <c r="F17" s="3">
-        <v>135400</v>
+        <v>156800</v>
       </c>
       <c r="G17" s="3">
-        <v>133300</v>
+        <v>206900</v>
       </c>
       <c r="H17" s="3">
-        <v>138200</v>
+        <v>136000</v>
       </c>
       <c r="I17" s="3">
+        <v>133800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>138800</v>
+      </c>
+      <c r="K17" s="3">
         <v>159700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>95800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>65500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>53300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-67800</v>
+        <v>-38300</v>
       </c>
       <c r="E18" s="3">
-        <v>-88400</v>
+        <v>-55100</v>
       </c>
       <c r="F18" s="3">
-        <v>-46400</v>
+        <v>-68100</v>
       </c>
       <c r="G18" s="3">
-        <v>-53900</v>
+        <v>-88800</v>
       </c>
       <c r="H18" s="3">
-        <v>-70000</v>
+        <v>-46600</v>
       </c>
       <c r="I18" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-81900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-40700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-24000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-19100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1143,215 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>5800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-61200</v>
+        <v>-40600</v>
       </c>
       <c r="E21" s="3">
-        <v>-84800</v>
+        <v>-58300</v>
       </c>
       <c r="F21" s="3">
-        <v>-47200</v>
+        <v>-61400</v>
       </c>
       <c r="G21" s="3">
-        <v>-49600</v>
+        <v>-85200</v>
       </c>
       <c r="H21" s="3">
-        <v>-45900</v>
+        <v>-47400</v>
       </c>
       <c r="I21" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-75700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-41400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-24800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-7800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3">
         <v>6400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I22" s="3">
         <v>6200</v>
       </c>
-      <c r="G22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K22" s="3">
         <v>7400</v>
       </c>
-      <c r="I22" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-71000</v>
+        <v>-40800</v>
       </c>
       <c r="E23" s="3">
-        <v>-89500</v>
+        <v>-59100</v>
       </c>
       <c r="F23" s="3">
-        <v>-49400</v>
+        <v>-71300</v>
       </c>
       <c r="G23" s="3">
-        <v>-56200</v>
+        <v>-89900</v>
       </c>
       <c r="H23" s="3">
-        <v>-72900</v>
+        <v>-49600</v>
       </c>
       <c r="I23" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-83600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-43400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-26200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-19900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-37100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5100</v>
+        <v>-2800</v>
       </c>
       <c r="E24" s="3">
-        <v>7600</v>
+        <v>-6400</v>
       </c>
       <c r="F24" s="3">
         <v>-5100</v>
       </c>
       <c r="G24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I24" s="3">
         <v>-4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-9500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>9400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-10100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-65900</v>
+        <v>-38000</v>
       </c>
       <c r="E26" s="3">
-        <v>-97100</v>
+        <v>-52800</v>
       </c>
       <c r="F26" s="3">
-        <v>-44300</v>
+        <v>-66200</v>
       </c>
       <c r="G26" s="3">
-        <v>-51900</v>
+        <v>-97600</v>
       </c>
       <c r="H26" s="3">
-        <v>-63400</v>
+        <v>-44500</v>
       </c>
       <c r="I26" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-93000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-33300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-35200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-15200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-63100</v>
+        <v>-37100</v>
       </c>
       <c r="E27" s="3">
-        <v>-94200</v>
+        <v>-50600</v>
       </c>
       <c r="F27" s="3">
-        <v>-43600</v>
+        <v>-63400</v>
       </c>
       <c r="G27" s="3">
-        <v>-51700</v>
+        <v>-94600</v>
       </c>
       <c r="H27" s="3">
-        <v>-63200</v>
+        <v>-43700</v>
       </c>
       <c r="I27" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-94500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-32600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-35200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-15200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-5800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-63100</v>
+        <v>-37100</v>
       </c>
       <c r="E33" s="3">
-        <v>-94200</v>
+        <v>-50600</v>
       </c>
       <c r="F33" s="3">
-        <v>-43600</v>
+        <v>-63400</v>
       </c>
       <c r="G33" s="3">
-        <v>-51700</v>
+        <v>-94600</v>
       </c>
       <c r="H33" s="3">
-        <v>-63200</v>
+        <v>-43700</v>
       </c>
       <c r="I33" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-94500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-32600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-35200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-15200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-63100</v>
+        <v>-37100</v>
       </c>
       <c r="E35" s="3">
-        <v>-94200</v>
+        <v>-50600</v>
       </c>
       <c r="F35" s="3">
-        <v>-43600</v>
+        <v>-63400</v>
       </c>
       <c r="G35" s="3">
-        <v>-51700</v>
+        <v>-94600</v>
       </c>
       <c r="H35" s="3">
-        <v>-63200</v>
+        <v>-43700</v>
       </c>
       <c r="I35" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-94500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-32600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-35200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-15200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,31 +1879,33 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>237700</v>
+        <v>317800</v>
       </c>
       <c r="E41" s="3">
-        <v>164000</v>
+        <v>81800</v>
       </c>
       <c r="F41" s="3">
-        <v>139200</v>
+        <v>238800</v>
       </c>
       <c r="G41" s="3">
-        <v>159600</v>
+        <v>164700</v>
       </c>
       <c r="H41" s="3">
-        <v>452500</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>11</v>
+        <v>139800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>160300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>454400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>11</v>
@@ -1742,31 +1916,37 @@
       <c r="M41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>152900</v>
+        <v>419500</v>
       </c>
       <c r="E42" s="3">
-        <v>257200</v>
+        <v>347300</v>
       </c>
       <c r="F42" s="3">
-        <v>85300</v>
+        <v>153600</v>
       </c>
       <c r="G42" s="3">
-        <v>160300</v>
+        <v>258300</v>
       </c>
       <c r="H42" s="3">
-        <v>100300</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>11</v>
+        <v>85700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>161000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>100800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>11</v>
@@ -1777,31 +1957,37 @@
       <c r="M42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>164300</v>
+        <v>224000</v>
       </c>
       <c r="E43" s="3">
-        <v>174100</v>
+        <v>188600</v>
       </c>
       <c r="F43" s="3">
-        <v>171600</v>
+        <v>165000</v>
       </c>
       <c r="G43" s="3">
-        <v>151800</v>
+        <v>174900</v>
       </c>
       <c r="H43" s="3">
-        <v>118400</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>11</v>
+        <v>172300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>152500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>118900</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>11</v>
@@ -1812,8 +1998,14 @@
       <c r="M43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,31 +2039,37 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>449600</v>
+        <v>455100</v>
       </c>
       <c r="E45" s="3">
-        <v>569700</v>
+        <v>457100</v>
       </c>
       <c r="F45" s="3">
-        <v>546000</v>
+        <v>451500</v>
       </c>
       <c r="G45" s="3">
-        <v>523800</v>
+        <v>572200</v>
       </c>
       <c r="H45" s="3">
-        <v>619900</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>11</v>
+        <v>548400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>526100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>622600</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>11</v>
@@ -1882,31 +2080,37 @@
       <c r="M45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1004500</v>
+        <v>1416500</v>
       </c>
       <c r="E46" s="3">
-        <v>1165100</v>
+        <v>1074700</v>
       </c>
       <c r="F46" s="3">
-        <v>942100</v>
+        <v>1008900</v>
       </c>
       <c r="G46" s="3">
-        <v>995500</v>
+        <v>1170100</v>
       </c>
       <c r="H46" s="3">
-        <v>1291100</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>11</v>
+        <v>946200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>999800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1296700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>11</v>
@@ -1917,31 +2121,37 @@
       <c r="M46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>88000</v>
+        <v>36300</v>
       </c>
       <c r="E47" s="3">
-        <v>84200</v>
+        <v>34600</v>
       </c>
       <c r="F47" s="3">
-        <v>28300</v>
+        <v>88400</v>
       </c>
       <c r="G47" s="3">
-        <v>31000</v>
+        <v>84500</v>
       </c>
       <c r="H47" s="3">
-        <v>32500</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>11</v>
+        <v>28400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>32700</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>11</v>
@@ -1952,31 +2162,37 @@
       <c r="M47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42400</v>
+        <v>34500</v>
       </c>
       <c r="E48" s="3">
-        <v>47800</v>
+        <v>38400</v>
       </c>
       <c r="F48" s="3">
-        <v>55000</v>
+        <v>42600</v>
       </c>
       <c r="G48" s="3">
-        <v>53100</v>
+        <v>48100</v>
       </c>
       <c r="H48" s="3">
-        <v>45000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>11</v>
+        <v>55200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>53300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>45200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>11</v>
@@ -1987,31 +2203,37 @@
       <c r="M48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>143400</v>
+        <v>135200</v>
       </c>
       <c r="E49" s="3">
-        <v>148600</v>
+        <v>138400</v>
       </c>
       <c r="F49" s="3">
-        <v>145200</v>
+        <v>144100</v>
       </c>
       <c r="G49" s="3">
-        <v>106200</v>
+        <v>149300</v>
       </c>
       <c r="H49" s="3">
-        <v>104000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>11</v>
+        <v>145800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>106700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>104400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>11</v>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,31 +2326,37 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69300</v>
+        <v>79100</v>
       </c>
       <c r="E52" s="3">
-        <v>64500</v>
+        <v>75900</v>
       </c>
       <c r="F52" s="3">
-        <v>72200</v>
+        <v>69600</v>
       </c>
       <c r="G52" s="3">
-        <v>67400</v>
+        <v>64700</v>
       </c>
       <c r="H52" s="3">
-        <v>62300</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>11</v>
+        <v>72500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>67700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>62500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>11</v>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,31 +2408,37 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1347700</v>
+        <v>1701500</v>
       </c>
       <c r="E54" s="3">
-        <v>1510100</v>
+        <v>1361900</v>
       </c>
       <c r="F54" s="3">
-        <v>1242900</v>
+        <v>1353600</v>
       </c>
       <c r="G54" s="3">
-        <v>1253200</v>
+        <v>1516700</v>
       </c>
       <c r="H54" s="3">
-        <v>1534900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>11</v>
+        <v>1248300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1258600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1541600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>11</v>
@@ -2197,8 +2449,14 @@
       <c r="M54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,31 +2487,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>170700</v>
+        <v>219400</v>
       </c>
       <c r="E57" s="3">
-        <v>52800</v>
+        <v>220400</v>
       </c>
       <c r="F57" s="3">
-        <v>10500</v>
+        <v>171500</v>
       </c>
       <c r="G57" s="3">
-        <v>22400</v>
+        <v>53000</v>
       </c>
       <c r="H57" s="3">
-        <v>38100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
+        <v>10600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>38300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>11</v>
@@ -2262,31 +2524,37 @@
       <c r="M57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>362300</v>
+        <v>374600</v>
       </c>
       <c r="E58" s="3">
-        <v>505100</v>
+        <v>372600</v>
       </c>
       <c r="F58" s="3">
-        <v>464100</v>
+        <v>363900</v>
       </c>
       <c r="G58" s="3">
-        <v>447700</v>
+        <v>507300</v>
       </c>
       <c r="H58" s="3">
-        <v>708700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>11</v>
+        <v>466100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>449600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>711800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>11</v>
@@ -2297,31 +2565,37 @@
       <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>68400</v>
+        <v>131800</v>
       </c>
       <c r="E59" s="3">
-        <v>193600</v>
+        <v>86100</v>
       </c>
       <c r="F59" s="3">
-        <v>221600</v>
+        <v>68700</v>
       </c>
       <c r="G59" s="3">
-        <v>222600</v>
+        <v>194400</v>
       </c>
       <c r="H59" s="3">
-        <v>206200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>11</v>
+        <v>222500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>223600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>207100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>11</v>
@@ -2332,31 +2606,37 @@
       <c r="M59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>601500</v>
+        <v>725700</v>
       </c>
       <c r="E60" s="3">
-        <v>751500</v>
+        <v>679100</v>
       </c>
       <c r="F60" s="3">
-        <v>696200</v>
+        <v>604100</v>
       </c>
       <c r="G60" s="3">
-        <v>692700</v>
+        <v>754700</v>
       </c>
       <c r="H60" s="3">
-        <v>953000</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>11</v>
+        <v>699200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>695700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>957100</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>11</v>
@@ -2367,8 +2647,14 @@
       <c r="M60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2376,14 +2662,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>13400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2402,31 +2688,37 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>68900</v>
+        <v>49800</v>
       </c>
       <c r="E62" s="3">
-        <v>57700</v>
+        <v>52900</v>
       </c>
       <c r="F62" s="3">
-        <v>76600</v>
+        <v>69200</v>
       </c>
       <c r="G62" s="3">
-        <v>71400</v>
+        <v>57900</v>
       </c>
       <c r="H62" s="3">
-        <v>63200</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>11</v>
+        <v>76900</v>
+      </c>
+      <c r="I62" s="3">
+        <v>71700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>63500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>11</v>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,31 +2852,37 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>690500</v>
+        <v>792600</v>
       </c>
       <c r="E66" s="3">
-        <v>845400</v>
+        <v>750000</v>
       </c>
       <c r="F66" s="3">
-        <v>798500</v>
+        <v>693500</v>
       </c>
       <c r="G66" s="3">
-        <v>790400</v>
+        <v>849000</v>
       </c>
       <c r="H66" s="3">
-        <v>1032800</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>11</v>
+        <v>802000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>793800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1037300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>11</v>
@@ -2577,8 +2893,14 @@
       <c r="M66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,31 +3074,37 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>657200</v>
+        <v>908900</v>
       </c>
       <c r="E72" s="3">
-        <v>664800</v>
+        <v>611900</v>
       </c>
       <c r="F72" s="3">
-        <v>444300</v>
+        <v>660100</v>
       </c>
       <c r="G72" s="3">
-        <v>462700</v>
+        <v>667700</v>
       </c>
       <c r="H72" s="3">
-        <v>502100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>11</v>
+        <v>446200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>464800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>504300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>11</v>
@@ -2767,8 +3115,14 @@
       <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,31 +3238,37 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>657200</v>
+        <v>908900</v>
       </c>
       <c r="E76" s="3">
-        <v>664800</v>
+        <v>611900</v>
       </c>
       <c r="F76" s="3">
-        <v>444300</v>
+        <v>660100</v>
       </c>
       <c r="G76" s="3">
-        <v>462800</v>
+        <v>667700</v>
       </c>
       <c r="H76" s="3">
-        <v>502100</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>11</v>
+        <v>446300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>464800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>504300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>11</v>
@@ -2907,8 +3279,14 @@
       <c r="M76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-63100</v>
+        <v>-37100</v>
       </c>
       <c r="E81" s="3">
-        <v>-94200</v>
+        <v>-50600</v>
       </c>
       <c r="F81" s="3">
-        <v>-43600</v>
+        <v>-63400</v>
       </c>
       <c r="G81" s="3">
-        <v>-51700</v>
+        <v>-94600</v>
       </c>
       <c r="H81" s="3">
-        <v>-63200</v>
+        <v>-43700</v>
       </c>
       <c r="I81" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-94500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-32600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-35200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-15200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3465,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-89500</v>
+        <v>123800</v>
       </c>
       <c r="E89" s="3">
-        <v>-52400</v>
+        <v>-81400</v>
       </c>
       <c r="F89" s="3">
-        <v>-67900</v>
+        <v>-89900</v>
       </c>
       <c r="G89" s="3">
-        <v>-64500</v>
+        <v>-52600</v>
       </c>
       <c r="H89" s="3">
-        <v>-91800</v>
+        <v>-68100</v>
       </c>
       <c r="I89" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-53600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>32400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-39700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-9300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3732,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3851,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>260300</v>
+        <v>-270300</v>
       </c>
       <c r="E94" s="3">
-        <v>-261100</v>
+        <v>-71700</v>
       </c>
       <c r="F94" s="3">
-        <v>39700</v>
+        <v>261500</v>
       </c>
       <c r="G94" s="3">
-        <v>33700</v>
+        <v>-262300</v>
       </c>
       <c r="H94" s="3">
-        <v>274600</v>
+        <v>39900</v>
       </c>
       <c r="I94" s="3">
+        <v>33900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>275700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>202700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-981100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-14000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +4073,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-101400</v>
+        <v>474100</v>
       </c>
       <c r="E100" s="3">
-        <v>336700</v>
+        <v>-800</v>
       </c>
       <c r="F100" s="3">
+        <v>-101800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>338100</v>
+      </c>
+      <c r="H100" s="3">
         <v>9800</v>
       </c>
-      <c r="G100" s="3">
-        <v>-264400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>184900</v>
-      </c>
       <c r="I100" s="3">
+        <v>-265600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>185700</v>
+      </c>
+      <c r="K100" s="3">
         <v>3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-157100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>566600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>414700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4300</v>
+        <v>-8600</v>
       </c>
       <c r="E101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>5500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-7000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>73800</v>
+        <v>319000</v>
       </c>
       <c r="E102" s="3">
-        <v>24800</v>
+        <v>-157000</v>
       </c>
       <c r="F102" s="3">
-        <v>-20300</v>
+        <v>74100</v>
       </c>
       <c r="G102" s="3">
-        <v>-292900</v>
+        <v>24900</v>
       </c>
       <c r="H102" s="3">
-        <v>366500</v>
+        <v>-20400</v>
       </c>
       <c r="I102" s="3">
+        <v>-294200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>368100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-54700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>81500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-448700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>384400</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,219 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>134700</v>
+        <v>127900</v>
       </c>
       <c r="E8" s="3">
-        <v>118300</v>
+        <v>167800</v>
       </c>
       <c r="F8" s="3">
-        <v>88700</v>
+        <v>137500</v>
       </c>
       <c r="G8" s="3">
-        <v>118100</v>
+        <v>120800</v>
       </c>
       <c r="H8" s="3">
-        <v>89300</v>
+        <v>90600</v>
       </c>
       <c r="I8" s="3">
+        <v>120600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K8" s="3">
         <v>79700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>68500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>77700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>55100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>41500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>34100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>77200</v>
+        <v>84400</v>
       </c>
       <c r="E9" s="3">
-        <v>72900</v>
+        <v>110400</v>
       </c>
       <c r="F9" s="3">
-        <v>57900</v>
+        <v>78900</v>
       </c>
       <c r="G9" s="3">
-        <v>78400</v>
+        <v>74400</v>
       </c>
       <c r="H9" s="3">
-        <v>54900</v>
+        <v>59100</v>
       </c>
       <c r="I9" s="3">
+        <v>80000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>56000</v>
+      </c>
+      <c r="K9" s="3">
         <v>41900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>34700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>55200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>40200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>23200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>18400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>57400</v>
+        <v>43500</v>
       </c>
       <c r="E10" s="3">
-        <v>45400</v>
+        <v>57500</v>
       </c>
       <c r="F10" s="3">
-        <v>30800</v>
+        <v>58600</v>
       </c>
       <c r="G10" s="3">
-        <v>39700</v>
+        <v>46400</v>
       </c>
       <c r="H10" s="3">
-        <v>34500</v>
+        <v>31500</v>
       </c>
       <c r="I10" s="3">
+        <v>40500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K10" s="3">
         <v>37800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>33800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>22500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>14900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>18300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>15700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,49 +893,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>45200</v>
+        <v>43900</v>
       </c>
       <c r="E12" s="3">
-        <v>44100</v>
+        <v>54500</v>
       </c>
       <c r="F12" s="3">
-        <v>36600</v>
+        <v>46100</v>
       </c>
       <c r="G12" s="3">
-        <v>47400</v>
+        <v>45100</v>
       </c>
       <c r="H12" s="3">
-        <v>30300</v>
+        <v>37400</v>
       </c>
       <c r="I12" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K12" s="3">
         <v>24200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>38400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>31900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>18600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,28 +983,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="E14" s="3">
-        <v>5700</v>
+        <v>9800</v>
       </c>
       <c r="F14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H14" s="3">
         <v>3200</v>
       </c>
-      <c r="G14" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>11</v>
+      <c r="I14" s="3">
+        <v>7000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>11</v>
@@ -982,17 +1021,23 @@
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,35 +1050,41 @@
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3">
-        <v>5100</v>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
         <v>15400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>15400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="3">
         <v>8300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>8100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>172900</v>
+        <v>181900</v>
       </c>
       <c r="E17" s="3">
-        <v>173400</v>
+        <v>232400</v>
       </c>
       <c r="F17" s="3">
-        <v>156800</v>
+        <v>176600</v>
       </c>
       <c r="G17" s="3">
-        <v>206900</v>
+        <v>177100</v>
       </c>
       <c r="H17" s="3">
-        <v>136000</v>
+        <v>160100</v>
       </c>
       <c r="I17" s="3">
-        <v>133800</v>
+        <v>211300</v>
       </c>
       <c r="J17" s="3">
         <v>138800</v>
       </c>
       <c r="K17" s="3">
+        <v>133800</v>
+      </c>
+      <c r="L17" s="3">
+        <v>138800</v>
+      </c>
+      <c r="M17" s="3">
         <v>159700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>95800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>65500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>53300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-38300</v>
+        <v>-54000</v>
       </c>
       <c r="E18" s="3">
-        <v>-55100</v>
+        <v>-64600</v>
       </c>
       <c r="F18" s="3">
-        <v>-68100</v>
+        <v>-39100</v>
       </c>
       <c r="G18" s="3">
-        <v>-88800</v>
+        <v>-56300</v>
       </c>
       <c r="H18" s="3">
-        <v>-46600</v>
+        <v>-69500</v>
       </c>
       <c r="I18" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-54100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-70300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-81900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-40700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-24000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-19100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1210,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2500</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5300</v>
-      </c>
       <c r="H20" s="3">
-        <v>3200</v>
+        <v>-3300</v>
       </c>
       <c r="I20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K20" s="3">
         <v>3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-40600</v>
+        <v>-42500</v>
       </c>
       <c r="E21" s="3">
-        <v>-58300</v>
+        <v>-67000</v>
       </c>
       <c r="F21" s="3">
-        <v>-61400</v>
+        <v>-41500</v>
       </c>
       <c r="G21" s="3">
-        <v>-85200</v>
+        <v>-59500</v>
       </c>
       <c r="H21" s="3">
-        <v>-47400</v>
+        <v>-62700</v>
       </c>
       <c r="I21" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-49800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-46100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-75700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-41400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-24800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-7800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1241,117 +1320,135 @@
       <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J22" s="3">
         <v>6400</v>
       </c>
-      <c r="H22" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>6200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-40800</v>
+        <v>-54600</v>
       </c>
       <c r="E23" s="3">
-        <v>-59100</v>
+        <v>-67200</v>
       </c>
       <c r="F23" s="3">
-        <v>-71300</v>
+        <v>-41700</v>
       </c>
       <c r="G23" s="3">
-        <v>-89900</v>
+        <v>-60400</v>
       </c>
       <c r="H23" s="3">
-        <v>-49600</v>
+        <v>-72800</v>
       </c>
       <c r="I23" s="3">
+        <v>-91800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-56500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-73200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-83600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-43400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-26200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-19900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-37100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2800</v>
       </c>
-      <c r="E24" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-5100</v>
-      </c>
       <c r="G24" s="3">
-        <v>7600</v>
+        <v>-6500</v>
       </c>
       <c r="H24" s="3">
         <v>-5200</v>
       </c>
       <c r="I24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-9500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>9400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-10100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>9000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-38000</v>
+        <v>-50400</v>
       </c>
       <c r="E26" s="3">
-        <v>-52800</v>
+        <v>-60400</v>
       </c>
       <c r="F26" s="3">
-        <v>-66200</v>
+        <v>-38800</v>
       </c>
       <c r="G26" s="3">
-        <v>-97600</v>
+        <v>-53900</v>
       </c>
       <c r="H26" s="3">
-        <v>-44500</v>
+        <v>-67600</v>
       </c>
       <c r="I26" s="3">
+        <v>-99600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-52100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-63700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-93000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-33300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-35200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-15200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-37100</v>
+        <v>-47500</v>
       </c>
       <c r="E27" s="3">
-        <v>-50600</v>
+        <v>-56900</v>
       </c>
       <c r="F27" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="L27" s="3">
         <v>-63400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-94600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-63400</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-94500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-32600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-35200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-15200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G32" s="3">
         <v>4100</v>
       </c>
-      <c r="F32" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H32" s="3">
-        <v>-3200</v>
+        <v>3300</v>
       </c>
       <c r="I32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-37100</v>
+        <v>-47500</v>
       </c>
       <c r="E33" s="3">
-        <v>-50600</v>
+        <v>-56900</v>
       </c>
       <c r="F33" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="L33" s="3">
         <v>-63400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-94600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-63400</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-94500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-32600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-35200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-15200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-37100</v>
+        <v>-47500</v>
       </c>
       <c r="E35" s="3">
-        <v>-50600</v>
+        <v>-56900</v>
       </c>
       <c r="F35" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="L35" s="3">
         <v>-63400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-94600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-63400</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-94500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-32600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-35200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-15200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,38 +2052,40 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>317800</v>
+        <v>368300</v>
       </c>
       <c r="E41" s="3">
-        <v>81800</v>
+        <v>476600</v>
       </c>
       <c r="F41" s="3">
-        <v>238800</v>
+        <v>324600</v>
       </c>
       <c r="G41" s="3">
-        <v>164700</v>
+        <v>83500</v>
       </c>
       <c r="H41" s="3">
-        <v>139800</v>
+        <v>243800</v>
       </c>
       <c r="I41" s="3">
+        <v>168200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K41" s="3">
         <v>160300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>454400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1922,38 +2095,44 @@
       <c r="O41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>419500</v>
+        <v>323400</v>
       </c>
       <c r="E42" s="3">
-        <v>347300</v>
+        <v>322000</v>
       </c>
       <c r="F42" s="3">
-        <v>153600</v>
+        <v>428300</v>
       </c>
       <c r="G42" s="3">
-        <v>258300</v>
+        <v>354600</v>
       </c>
       <c r="H42" s="3">
-        <v>85700</v>
+        <v>156800</v>
       </c>
       <c r="I42" s="3">
+        <v>263800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>87500</v>
+      </c>
+      <c r="K42" s="3">
         <v>161000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>100800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>11</v>
       </c>
@@ -1963,38 +2142,44 @@
       <c r="O42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>224000</v>
+        <v>188900</v>
       </c>
       <c r="E43" s="3">
-        <v>188600</v>
+        <v>171100</v>
       </c>
       <c r="F43" s="3">
-        <v>165000</v>
+        <v>228800</v>
       </c>
       <c r="G43" s="3">
-        <v>174900</v>
+        <v>192600</v>
       </c>
       <c r="H43" s="3">
-        <v>172300</v>
+        <v>168500</v>
       </c>
       <c r="I43" s="3">
+        <v>178600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K43" s="3">
         <v>152500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>118900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,38 +2236,44 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>455100</v>
+        <v>248600</v>
       </c>
       <c r="E45" s="3">
-        <v>457100</v>
+        <v>424900</v>
       </c>
       <c r="F45" s="3">
-        <v>451500</v>
+        <v>464700</v>
       </c>
       <c r="G45" s="3">
-        <v>572200</v>
+        <v>466700</v>
       </c>
       <c r="H45" s="3">
-        <v>548400</v>
+        <v>461100</v>
       </c>
       <c r="I45" s="3">
+        <v>584300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>560000</v>
+      </c>
+      <c r="K45" s="3">
         <v>526100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>622600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2086,38 +2283,44 @@
       <c r="O45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1416500</v>
+        <v>1129200</v>
       </c>
       <c r="E46" s="3">
-        <v>1074700</v>
+        <v>1394700</v>
       </c>
       <c r="F46" s="3">
-        <v>1008900</v>
+        <v>1446400</v>
       </c>
       <c r="G46" s="3">
-        <v>1170100</v>
+        <v>1097400</v>
       </c>
       <c r="H46" s="3">
-        <v>946200</v>
+        <v>1030200</v>
       </c>
       <c r="I46" s="3">
+        <v>1194900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>966200</v>
+      </c>
+      <c r="K46" s="3">
         <v>999800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1296700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2127,38 +2330,44 @@
       <c r="O46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36300</v>
+        <v>41000</v>
       </c>
       <c r="E47" s="3">
-        <v>34600</v>
+        <v>37400</v>
       </c>
       <c r="F47" s="3">
-        <v>88400</v>
+        <v>37000</v>
       </c>
       <c r="G47" s="3">
-        <v>84500</v>
+        <v>35400</v>
       </c>
       <c r="H47" s="3">
-        <v>28400</v>
+        <v>90200</v>
       </c>
       <c r="I47" s="3">
+        <v>86300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K47" s="3">
         <v>31100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>32700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2168,38 +2377,44 @@
       <c r="O47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34500</v>
+        <v>29700</v>
       </c>
       <c r="E48" s="3">
-        <v>38400</v>
+        <v>35000</v>
       </c>
       <c r="F48" s="3">
-        <v>42600</v>
+        <v>35200</v>
       </c>
       <c r="G48" s="3">
-        <v>48100</v>
+        <v>39200</v>
       </c>
       <c r="H48" s="3">
-        <v>55200</v>
+        <v>43500</v>
       </c>
       <c r="I48" s="3">
+        <v>49100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K48" s="3">
         <v>53300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>45200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2209,38 +2424,44 @@
       <c r="O48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>135200</v>
+        <v>136100</v>
       </c>
       <c r="E49" s="3">
-        <v>138400</v>
+        <v>143100</v>
       </c>
       <c r="F49" s="3">
-        <v>144100</v>
+        <v>138000</v>
       </c>
       <c r="G49" s="3">
-        <v>149300</v>
+        <v>141300</v>
       </c>
       <c r="H49" s="3">
-        <v>145800</v>
+        <v>147100</v>
       </c>
       <c r="I49" s="3">
+        <v>152400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>148900</v>
+      </c>
+      <c r="K49" s="3">
         <v>106700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>104400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,38 +2565,44 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>79100</v>
+        <v>92300</v>
       </c>
       <c r="E52" s="3">
-        <v>75900</v>
+        <v>88100</v>
       </c>
       <c r="F52" s="3">
-        <v>69600</v>
+        <v>80800</v>
       </c>
       <c r="G52" s="3">
-        <v>64700</v>
+        <v>77500</v>
       </c>
       <c r="H52" s="3">
-        <v>72500</v>
+        <v>71100</v>
       </c>
       <c r="I52" s="3">
+        <v>66100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K52" s="3">
         <v>67700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>62500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,38 +2659,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1701500</v>
+        <v>1428300</v>
       </c>
       <c r="E54" s="3">
-        <v>1361900</v>
+        <v>1698200</v>
       </c>
       <c r="F54" s="3">
-        <v>1353600</v>
+        <v>1737400</v>
       </c>
       <c r="G54" s="3">
-        <v>1516700</v>
+        <v>1390700</v>
       </c>
       <c r="H54" s="3">
-        <v>1248300</v>
+        <v>1382200</v>
       </c>
       <c r="I54" s="3">
+        <v>1548800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1274600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1258600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1541600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2455,8 +2706,14 @@
       <c r="O54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,38 +2748,40 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>219400</v>
+        <v>248500</v>
       </c>
       <c r="E57" s="3">
-        <v>220400</v>
+        <v>241500</v>
       </c>
       <c r="F57" s="3">
-        <v>171500</v>
+        <v>224000</v>
       </c>
       <c r="G57" s="3">
-        <v>53000</v>
+        <v>225100</v>
       </c>
       <c r="H57" s="3">
-        <v>10600</v>
+        <v>175100</v>
       </c>
       <c r="I57" s="3">
+        <v>54100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K57" s="3">
         <v>22500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>38300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2530,38 +2791,44 @@
       <c r="O57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>374600</v>
+        <v>165100</v>
       </c>
       <c r="E58" s="3">
-        <v>372600</v>
+        <v>356200</v>
       </c>
       <c r="F58" s="3">
-        <v>363900</v>
+        <v>382500</v>
       </c>
       <c r="G58" s="3">
-        <v>507300</v>
+        <v>380400</v>
       </c>
       <c r="H58" s="3">
-        <v>466100</v>
+        <v>371600</v>
       </c>
       <c r="I58" s="3">
+        <v>518000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>476000</v>
+      </c>
+      <c r="K58" s="3">
         <v>449600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>711800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>11</v>
       </c>
@@ -2571,38 +2838,44 @@
       <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>131800</v>
+        <v>179700</v>
       </c>
       <c r="E59" s="3">
-        <v>86100</v>
+        <v>208400</v>
       </c>
       <c r="F59" s="3">
-        <v>68700</v>
+        <v>134500</v>
       </c>
       <c r="G59" s="3">
-        <v>194400</v>
+        <v>87900</v>
       </c>
       <c r="H59" s="3">
-        <v>222500</v>
+        <v>70200</v>
       </c>
       <c r="I59" s="3">
+        <v>198500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>227200</v>
+      </c>
+      <c r="K59" s="3">
         <v>223600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>207100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2612,38 +2885,44 @@
       <c r="O59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>725700</v>
+        <v>593300</v>
       </c>
       <c r="E60" s="3">
-        <v>679100</v>
+        <v>806100</v>
       </c>
       <c r="F60" s="3">
-        <v>604100</v>
+        <v>741000</v>
       </c>
       <c r="G60" s="3">
-        <v>754700</v>
+        <v>693500</v>
       </c>
       <c r="H60" s="3">
-        <v>699200</v>
+        <v>616900</v>
       </c>
       <c r="I60" s="3">
+        <v>770700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>714000</v>
+      </c>
+      <c r="K60" s="3">
         <v>695700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>957100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2653,8 +2932,14 @@
       <c r="O60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2668,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>13400</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2694,38 +2979,44 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49800</v>
+        <v>51300</v>
       </c>
       <c r="E62" s="3">
-        <v>52900</v>
+        <v>67600</v>
       </c>
       <c r="F62" s="3">
-        <v>69200</v>
+        <v>50900</v>
       </c>
       <c r="G62" s="3">
-        <v>57900</v>
+        <v>54000</v>
       </c>
       <c r="H62" s="3">
-        <v>76900</v>
+        <v>70700</v>
       </c>
       <c r="I62" s="3">
+        <v>59100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K62" s="3">
         <v>71700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>63500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>11</v>
       </c>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,38 +3167,44 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>792600</v>
+        <v>655800</v>
       </c>
       <c r="E66" s="3">
-        <v>750000</v>
+        <v>887700</v>
       </c>
       <c r="F66" s="3">
-        <v>693500</v>
+        <v>809400</v>
       </c>
       <c r="G66" s="3">
-        <v>849000</v>
+        <v>765900</v>
       </c>
       <c r="H66" s="3">
-        <v>802000</v>
+        <v>708200</v>
       </c>
       <c r="I66" s="3">
+        <v>867000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>819000</v>
+      </c>
+      <c r="K66" s="3">
         <v>793800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1037300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>11</v>
       </c>
@@ -2899,8 +3214,14 @@
       <c r="O66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,38 +3421,44 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>908900</v>
+        <v>772500</v>
       </c>
       <c r="E72" s="3">
-        <v>611900</v>
+        <v>810500</v>
       </c>
       <c r="F72" s="3">
-        <v>660100</v>
+        <v>928100</v>
       </c>
       <c r="G72" s="3">
-        <v>667700</v>
+        <v>624800</v>
       </c>
       <c r="H72" s="3">
-        <v>446200</v>
+        <v>674000</v>
       </c>
       <c r="I72" s="3">
+        <v>681800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>455700</v>
+      </c>
+      <c r="K72" s="3">
         <v>464800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>504300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3121,8 +3468,14 @@
       <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,38 +3609,44 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>908900</v>
+        <v>772500</v>
       </c>
       <c r="E76" s="3">
-        <v>611900</v>
+        <v>810500</v>
       </c>
       <c r="F76" s="3">
-        <v>660100</v>
+        <v>928100</v>
       </c>
       <c r="G76" s="3">
-        <v>667700</v>
+        <v>624800</v>
       </c>
       <c r="H76" s="3">
-        <v>446300</v>
+        <v>674000</v>
       </c>
       <c r="I76" s="3">
+        <v>681800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>455700</v>
+      </c>
+      <c r="K76" s="3">
         <v>464800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>504300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3285,8 +3656,14 @@
       <c r="O76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-37100</v>
+        <v>-47500</v>
       </c>
       <c r="E81" s="3">
-        <v>-50600</v>
+        <v>-56900</v>
       </c>
       <c r="F81" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="L81" s="3">
         <v>-63400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-94600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-63400</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-94500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-32600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-35200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-15200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>123800</v>
+        <v>-71900</v>
       </c>
       <c r="E89" s="3">
-        <v>-81400</v>
+        <v>-61400</v>
       </c>
       <c r="F89" s="3">
-        <v>-89900</v>
+        <v>126400</v>
       </c>
       <c r="G89" s="3">
-        <v>-52600</v>
+        <v>-83100</v>
       </c>
       <c r="H89" s="3">
-        <v>-68100</v>
+        <v>-91800</v>
       </c>
       <c r="I89" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-64800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-92200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-53600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>32400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-39700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-9300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3748,35 +4189,41 @@
       <c r="F91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3700</v>
+      <c r="G91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-270300</v>
+        <v>160400</v>
       </c>
       <c r="E94" s="3">
-        <v>-71700</v>
+        <v>287500</v>
       </c>
       <c r="F94" s="3">
-        <v>261500</v>
+        <v>-276000</v>
       </c>
       <c r="G94" s="3">
-        <v>-262300</v>
+        <v>-73300</v>
       </c>
       <c r="H94" s="3">
-        <v>39900</v>
+        <v>267000</v>
       </c>
       <c r="I94" s="3">
+        <v>-267800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K94" s="3">
         <v>33900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>275700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>202700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-981100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-14000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4564,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>474100</v>
+        <v>-197300</v>
       </c>
       <c r="E100" s="3">
-        <v>-800</v>
+        <v>-140000</v>
       </c>
       <c r="F100" s="3">
-        <v>-101800</v>
+        <v>484100</v>
       </c>
       <c r="G100" s="3">
-        <v>338100</v>
+        <v>-900</v>
       </c>
       <c r="H100" s="3">
-        <v>9800</v>
+        <v>-104000</v>
       </c>
       <c r="I100" s="3">
+        <v>345300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-265600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>185700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-157100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>566600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>414700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8600</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="F101" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I101" s="3">
         <v>1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>5500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-7000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>319000</v>
+        <v>-108300</v>
       </c>
       <c r="E102" s="3">
-        <v>-157000</v>
+        <v>67400</v>
       </c>
       <c r="F102" s="3">
-        <v>74100</v>
+        <v>325800</v>
       </c>
       <c r="G102" s="3">
-        <v>24900</v>
+        <v>-160300</v>
       </c>
       <c r="H102" s="3">
-        <v>-20400</v>
+        <v>75700</v>
       </c>
       <c r="I102" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-294200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>368100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-54700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>81500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-448700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>384400</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>127900</v>
+        <v>149000</v>
       </c>
       <c r="E8" s="3">
-        <v>167800</v>
+        <v>126200</v>
       </c>
       <c r="F8" s="3">
-        <v>137500</v>
+        <v>165600</v>
       </c>
       <c r="G8" s="3">
-        <v>120800</v>
+        <v>135700</v>
       </c>
       <c r="H8" s="3">
-        <v>90600</v>
+        <v>119200</v>
       </c>
       <c r="I8" s="3">
-        <v>120600</v>
+        <v>89400</v>
       </c>
       <c r="J8" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K8" s="3">
         <v>91200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>77700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>55100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>84400</v>
+        <v>98300</v>
       </c>
       <c r="E9" s="3">
-        <v>110400</v>
+        <v>83300</v>
       </c>
       <c r="F9" s="3">
-        <v>78900</v>
+        <v>108900</v>
       </c>
       <c r="G9" s="3">
-        <v>74400</v>
+        <v>77800</v>
       </c>
       <c r="H9" s="3">
-        <v>59100</v>
+        <v>73500</v>
       </c>
       <c r="I9" s="3">
-        <v>80000</v>
+        <v>58400</v>
       </c>
       <c r="J9" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K9" s="3">
         <v>56000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>55200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>43500</v>
+        <v>50700</v>
       </c>
       <c r="E10" s="3">
-        <v>57500</v>
+        <v>42900</v>
       </c>
       <c r="F10" s="3">
-        <v>58600</v>
+        <v>56700</v>
       </c>
       <c r="G10" s="3">
-        <v>46400</v>
+        <v>57900</v>
       </c>
       <c r="H10" s="3">
-        <v>31500</v>
+        <v>45800</v>
       </c>
       <c r="I10" s="3">
-        <v>40500</v>
+        <v>31100</v>
       </c>
       <c r="J10" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K10" s="3">
         <v>35200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>15700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>43900</v>
+        <v>55200</v>
       </c>
       <c r="E12" s="3">
-        <v>54500</v>
+        <v>43300</v>
       </c>
       <c r="F12" s="3">
-        <v>46100</v>
+        <v>53800</v>
       </c>
       <c r="G12" s="3">
-        <v>45100</v>
+        <v>45500</v>
       </c>
       <c r="H12" s="3">
-        <v>37400</v>
+        <v>44500</v>
       </c>
       <c r="I12" s="3">
-        <v>48400</v>
+        <v>36900</v>
       </c>
       <c r="J12" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K12" s="3">
         <v>31000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>38400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>31900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,32 +1006,35 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
-        <v>9800</v>
-      </c>
       <c r="F14" s="3">
-        <v>2100</v>
+        <v>9700</v>
       </c>
       <c r="G14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="3">
         <v>5800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1047,8 @@
       <c r="N14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,35 +1079,38 @@
       <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3">
-        <v>15400</v>
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L15" s="3">
         <v>15400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
+      <c r="M15" s="3">
+        <v>15400</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="3">
         <v>8300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>181900</v>
+        <v>209900</v>
       </c>
       <c r="E17" s="3">
-        <v>232400</v>
+        <v>179500</v>
       </c>
       <c r="F17" s="3">
-        <v>176600</v>
+        <v>229400</v>
       </c>
       <c r="G17" s="3">
-        <v>177100</v>
+        <v>174300</v>
       </c>
       <c r="H17" s="3">
-        <v>160100</v>
+        <v>174700</v>
       </c>
       <c r="I17" s="3">
-        <v>211300</v>
+        <v>158000</v>
       </c>
       <c r="J17" s="3">
+        <v>208500</v>
+      </c>
+      <c r="K17" s="3">
         <v>138800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>133800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>138800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>159700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>95800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>65500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>53300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-54000</v>
+        <v>-60900</v>
       </c>
       <c r="E18" s="3">
-        <v>-64600</v>
+        <v>-53300</v>
       </c>
       <c r="F18" s="3">
-        <v>-39100</v>
+        <v>-63700</v>
       </c>
       <c r="G18" s="3">
-        <v>-56300</v>
+        <v>-38600</v>
       </c>
       <c r="H18" s="3">
-        <v>-69500</v>
+        <v>-55500</v>
       </c>
       <c r="I18" s="3">
-        <v>-90700</v>
+        <v>-68600</v>
       </c>
       <c r="J18" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-47600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-54100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-70300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-81900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-40700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-24000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2600</v>
+        <v>-500</v>
       </c>
       <c r="F20" s="3">
         <v>-2600</v>
       </c>
       <c r="G20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-4100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-3300</v>
-      </c>
       <c r="I20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J20" s="3">
         <v>5400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-42500</v>
+        <v>-61600</v>
       </c>
       <c r="E21" s="3">
-        <v>-67000</v>
+        <v>-41900</v>
       </c>
       <c r="F21" s="3">
-        <v>-41500</v>
+        <v>-66100</v>
       </c>
       <c r="G21" s="3">
-        <v>-59500</v>
+        <v>-40900</v>
       </c>
       <c r="H21" s="3">
-        <v>-62700</v>
+        <v>-58700</v>
       </c>
       <c r="I21" s="3">
-        <v>-87000</v>
+        <v>-61900</v>
       </c>
       <c r="J21" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-48400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-49800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-46100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-75700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-41400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-24800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1326,129 +1366,138 @@
       <c r="H22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="3">
-        <v>6600</v>
+      <c r="I22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K22" s="3">
         <v>6400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-54600</v>
+        <v>-62100</v>
       </c>
       <c r="E23" s="3">
-        <v>-67200</v>
+        <v>-53800</v>
       </c>
       <c r="F23" s="3">
-        <v>-41700</v>
+        <v>-66300</v>
       </c>
       <c r="G23" s="3">
-        <v>-60400</v>
+        <v>-41100</v>
       </c>
       <c r="H23" s="3">
-        <v>-72800</v>
+        <v>-59600</v>
       </c>
       <c r="I23" s="3">
-        <v>-91800</v>
+        <v>-71800</v>
       </c>
       <c r="J23" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-50700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-56500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-73200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-83600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-43400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-37100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="E24" s="3">
-        <v>-6800</v>
+        <v>-4100</v>
       </c>
       <c r="F24" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2800</v>
       </c>
-      <c r="G24" s="3">
-        <v>-6500</v>
-      </c>
       <c r="H24" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I24" s="3">
         <v>-5200</v>
       </c>
-      <c r="I24" s="3">
-        <v>7800</v>
-      </c>
       <c r="J24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-10100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-50400</v>
+        <v>-57700</v>
       </c>
       <c r="E26" s="3">
-        <v>-60400</v>
+        <v>-49700</v>
       </c>
       <c r="F26" s="3">
-        <v>-38800</v>
+        <v>-59600</v>
       </c>
       <c r="G26" s="3">
-        <v>-53900</v>
+        <v>-38300</v>
       </c>
       <c r="H26" s="3">
-        <v>-67600</v>
+        <v>-53200</v>
       </c>
       <c r="I26" s="3">
-        <v>-99600</v>
+        <v>-66700</v>
       </c>
       <c r="J26" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-45400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-52100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-63700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-93000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-33300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-35200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-47500</v>
+        <v>-53700</v>
       </c>
       <c r="E27" s="3">
-        <v>-56900</v>
+        <v>-46900</v>
       </c>
       <c r="F27" s="3">
-        <v>-37900</v>
+        <v>-56200</v>
       </c>
       <c r="G27" s="3">
-        <v>-51600</v>
+        <v>-37400</v>
       </c>
       <c r="H27" s="3">
-        <v>-64700</v>
+        <v>-51000</v>
       </c>
       <c r="I27" s="3">
-        <v>-96600</v>
+        <v>-63900</v>
       </c>
       <c r="J27" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-44700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-51900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-63400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-94500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-32600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-35200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
-        <v>2600</v>
+        <v>500</v>
       </c>
       <c r="F32" s="3">
         <v>2600</v>
       </c>
       <c r="G32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H32" s="3">
         <v>4100</v>
       </c>
-      <c r="H32" s="3">
-        <v>3300</v>
-      </c>
       <c r="I32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-5400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-47500</v>
+        <v>-53700</v>
       </c>
       <c r="E33" s="3">
-        <v>-56900</v>
+        <v>-46900</v>
       </c>
       <c r="F33" s="3">
-        <v>-37900</v>
+        <v>-56200</v>
       </c>
       <c r="G33" s="3">
-        <v>-51600</v>
+        <v>-37400</v>
       </c>
       <c r="H33" s="3">
-        <v>-64700</v>
+        <v>-51000</v>
       </c>
       <c r="I33" s="3">
-        <v>-96600</v>
+        <v>-63900</v>
       </c>
       <c r="J33" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-44700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-51900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-63400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-94500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-32600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-35200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-47500</v>
+        <v>-53700</v>
       </c>
       <c r="E35" s="3">
-        <v>-56900</v>
+        <v>-46900</v>
       </c>
       <c r="F35" s="3">
-        <v>-37900</v>
+        <v>-56200</v>
       </c>
       <c r="G35" s="3">
-        <v>-51600</v>
+        <v>-37400</v>
       </c>
       <c r="H35" s="3">
-        <v>-64700</v>
+        <v>-51000</v>
       </c>
       <c r="I35" s="3">
-        <v>-96600</v>
+        <v>-63900</v>
       </c>
       <c r="J35" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-44700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-51900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-63400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-94500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-32600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-35200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>368300</v>
+        <v>141800</v>
       </c>
       <c r="E41" s="3">
-        <v>476600</v>
+        <v>363500</v>
       </c>
       <c r="F41" s="3">
-        <v>324600</v>
+        <v>470400</v>
       </c>
       <c r="G41" s="3">
-        <v>83500</v>
+        <v>320300</v>
       </c>
       <c r="H41" s="3">
-        <v>243800</v>
+        <v>82400</v>
       </c>
       <c r="I41" s="3">
-        <v>168200</v>
+        <v>240600</v>
       </c>
       <c r="J41" s="3">
+        <v>166000</v>
+      </c>
+      <c r="K41" s="3">
         <v>142800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>160300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>454400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2101,41 +2188,44 @@
       <c r="Q41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>323400</v>
+        <v>378300</v>
       </c>
       <c r="E42" s="3">
-        <v>322000</v>
+        <v>319200</v>
       </c>
       <c r="F42" s="3">
-        <v>428300</v>
+        <v>317800</v>
       </c>
       <c r="G42" s="3">
-        <v>354600</v>
+        <v>422800</v>
       </c>
       <c r="H42" s="3">
-        <v>156800</v>
+        <v>350000</v>
       </c>
       <c r="I42" s="3">
-        <v>263800</v>
+        <v>154800</v>
       </c>
       <c r="J42" s="3">
+        <v>260400</v>
+      </c>
+      <c r="K42" s="3">
         <v>87500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>161000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>100800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2148,41 +2238,44 @@
       <c r="Q42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>188900</v>
+        <v>235200</v>
       </c>
       <c r="E43" s="3">
-        <v>171100</v>
+        <v>186500</v>
       </c>
       <c r="F43" s="3">
-        <v>228800</v>
+        <v>168800</v>
       </c>
       <c r="G43" s="3">
-        <v>192600</v>
+        <v>225800</v>
       </c>
       <c r="H43" s="3">
-        <v>168500</v>
+        <v>190100</v>
       </c>
       <c r="I43" s="3">
-        <v>178600</v>
+        <v>166300</v>
       </c>
       <c r="J43" s="3">
+        <v>176300</v>
+      </c>
+      <c r="K43" s="3">
         <v>175900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>152500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>118900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,41 +2338,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>248600</v>
+        <v>304400</v>
       </c>
       <c r="E45" s="3">
-        <v>424900</v>
+        <v>245300</v>
       </c>
       <c r="F45" s="3">
-        <v>464700</v>
+        <v>419400</v>
       </c>
       <c r="G45" s="3">
-        <v>466700</v>
+        <v>458700</v>
       </c>
       <c r="H45" s="3">
-        <v>461100</v>
+        <v>460600</v>
       </c>
       <c r="I45" s="3">
-        <v>584300</v>
+        <v>455100</v>
       </c>
       <c r="J45" s="3">
+        <v>576700</v>
+      </c>
+      <c r="K45" s="3">
         <v>560000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>526100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>622600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2289,41 +2388,44 @@
       <c r="Q45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1129200</v>
+        <v>1059600</v>
       </c>
       <c r="E46" s="3">
-        <v>1394700</v>
+        <v>1114500</v>
       </c>
       <c r="F46" s="3">
-        <v>1446400</v>
+        <v>1376500</v>
       </c>
       <c r="G46" s="3">
-        <v>1097400</v>
+        <v>1427600</v>
       </c>
       <c r="H46" s="3">
-        <v>1030200</v>
+        <v>1083100</v>
       </c>
       <c r="I46" s="3">
-        <v>1194900</v>
+        <v>1016800</v>
       </c>
       <c r="J46" s="3">
+        <v>1179300</v>
+      </c>
+      <c r="K46" s="3">
         <v>966200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>999800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1296700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2336,41 +2438,44 @@
       <c r="Q46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41000</v>
+        <v>63300</v>
       </c>
       <c r="E47" s="3">
-        <v>37400</v>
+        <v>40500</v>
       </c>
       <c r="F47" s="3">
-        <v>37000</v>
+        <v>36900</v>
       </c>
       <c r="G47" s="3">
-        <v>35400</v>
+        <v>36500</v>
       </c>
       <c r="H47" s="3">
-        <v>90200</v>
+        <v>34900</v>
       </c>
       <c r="I47" s="3">
-        <v>86300</v>
+        <v>89100</v>
       </c>
       <c r="J47" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K47" s="3">
         <v>29000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2383,41 +2488,44 @@
       <c r="Q47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29700</v>
+        <v>26000</v>
       </c>
       <c r="E48" s="3">
-        <v>35000</v>
+        <v>29400</v>
       </c>
       <c r="F48" s="3">
-        <v>35200</v>
+        <v>34500</v>
       </c>
       <c r="G48" s="3">
-        <v>39200</v>
+        <v>34700</v>
       </c>
       <c r="H48" s="3">
-        <v>43500</v>
+        <v>38700</v>
       </c>
       <c r="I48" s="3">
-        <v>49100</v>
+        <v>42900</v>
       </c>
       <c r="J48" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K48" s="3">
         <v>56400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2430,41 +2538,44 @@
       <c r="Q48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>136100</v>
+        <v>123400</v>
       </c>
       <c r="E49" s="3">
-        <v>143100</v>
+        <v>134300</v>
       </c>
       <c r="F49" s="3">
-        <v>138000</v>
+        <v>141200</v>
       </c>
       <c r="G49" s="3">
-        <v>141300</v>
+        <v>136300</v>
       </c>
       <c r="H49" s="3">
-        <v>147100</v>
+        <v>139500</v>
       </c>
       <c r="I49" s="3">
-        <v>152400</v>
+        <v>145200</v>
       </c>
       <c r="J49" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K49" s="3">
         <v>148900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>106700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>104400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2688,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>92300</v>
+        <v>96000</v>
       </c>
       <c r="E52" s="3">
-        <v>88100</v>
+        <v>91100</v>
       </c>
       <c r="F52" s="3">
-        <v>80800</v>
+        <v>86900</v>
       </c>
       <c r="G52" s="3">
-        <v>77500</v>
+        <v>79700</v>
       </c>
       <c r="H52" s="3">
-        <v>71100</v>
+        <v>76400</v>
       </c>
       <c r="I52" s="3">
-        <v>66100</v>
+        <v>70200</v>
       </c>
       <c r="J52" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K52" s="3">
         <v>74000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1428300</v>
+        <v>1368400</v>
       </c>
       <c r="E54" s="3">
-        <v>1698200</v>
+        <v>1409700</v>
       </c>
       <c r="F54" s="3">
-        <v>1737400</v>
+        <v>1676100</v>
       </c>
       <c r="G54" s="3">
-        <v>1390700</v>
+        <v>1714800</v>
       </c>
       <c r="H54" s="3">
-        <v>1382200</v>
+        <v>1372600</v>
       </c>
       <c r="I54" s="3">
-        <v>1548800</v>
+        <v>1364200</v>
       </c>
       <c r="J54" s="3">
+        <v>1528600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1274600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1258600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1541600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +2880,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>248500</v>
+        <v>254700</v>
       </c>
       <c r="E57" s="3">
-        <v>241500</v>
+        <v>245200</v>
       </c>
       <c r="F57" s="3">
-        <v>224000</v>
+        <v>238300</v>
       </c>
       <c r="G57" s="3">
-        <v>225100</v>
+        <v>221100</v>
       </c>
       <c r="H57" s="3">
-        <v>175100</v>
+        <v>222200</v>
       </c>
       <c r="I57" s="3">
-        <v>54100</v>
+        <v>172800</v>
       </c>
       <c r="J57" s="3">
+        <v>53400</v>
+      </c>
+      <c r="K57" s="3">
         <v>10800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2797,41 +2928,44 @@
       <c r="Q57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>165100</v>
+        <v>178400</v>
       </c>
       <c r="E58" s="3">
-        <v>356200</v>
+        <v>163000</v>
       </c>
       <c r="F58" s="3">
-        <v>382500</v>
+        <v>351600</v>
       </c>
       <c r="G58" s="3">
-        <v>380400</v>
+        <v>377500</v>
       </c>
       <c r="H58" s="3">
-        <v>371600</v>
+        <v>375500</v>
       </c>
       <c r="I58" s="3">
-        <v>518000</v>
+        <v>366800</v>
       </c>
       <c r="J58" s="3">
+        <v>511300</v>
+      </c>
+      <c r="K58" s="3">
         <v>476000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>449600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>711800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>11</v>
       </c>
@@ -2844,41 +2978,44 @@
       <c r="Q58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>179700</v>
+        <v>187600</v>
       </c>
       <c r="E59" s="3">
-        <v>208400</v>
+        <v>177400</v>
       </c>
       <c r="F59" s="3">
-        <v>134500</v>
+        <v>205700</v>
       </c>
       <c r="G59" s="3">
-        <v>87900</v>
+        <v>132800</v>
       </c>
       <c r="H59" s="3">
-        <v>70200</v>
+        <v>86800</v>
       </c>
       <c r="I59" s="3">
-        <v>198500</v>
+        <v>69300</v>
       </c>
       <c r="J59" s="3">
+        <v>195900</v>
+      </c>
+      <c r="K59" s="3">
         <v>227200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>223600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>207100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>11</v>
       </c>
@@ -2891,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>593300</v>
+        <v>620700</v>
       </c>
       <c r="E60" s="3">
-        <v>806100</v>
+        <v>585600</v>
       </c>
       <c r="F60" s="3">
-        <v>741000</v>
+        <v>795600</v>
       </c>
       <c r="G60" s="3">
-        <v>693500</v>
+        <v>731400</v>
       </c>
       <c r="H60" s="3">
-        <v>616900</v>
+        <v>684500</v>
       </c>
       <c r="I60" s="3">
-        <v>770700</v>
+        <v>608800</v>
       </c>
       <c r="J60" s="3">
+        <v>760600</v>
+      </c>
+      <c r="K60" s="3">
         <v>714000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>695700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>957100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>11</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2959,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>13700</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2985,41 +3128,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51300</v>
+        <v>49500</v>
       </c>
       <c r="E62" s="3">
-        <v>67600</v>
+        <v>50600</v>
       </c>
       <c r="F62" s="3">
-        <v>50900</v>
+        <v>66700</v>
       </c>
       <c r="G62" s="3">
-        <v>54000</v>
+        <v>50200</v>
       </c>
       <c r="H62" s="3">
-        <v>70700</v>
+        <v>53300</v>
       </c>
       <c r="I62" s="3">
-        <v>59100</v>
+        <v>69800</v>
       </c>
       <c r="J62" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K62" s="3">
         <v>78500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>71700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>63500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>655800</v>
+        <v>677300</v>
       </c>
       <c r="E66" s="3">
-        <v>887700</v>
+        <v>647300</v>
       </c>
       <c r="F66" s="3">
-        <v>809400</v>
+        <v>876100</v>
       </c>
       <c r="G66" s="3">
-        <v>765900</v>
+        <v>798800</v>
       </c>
       <c r="H66" s="3">
-        <v>708200</v>
+        <v>755900</v>
       </c>
       <c r="I66" s="3">
-        <v>867000</v>
+        <v>699000</v>
       </c>
       <c r="J66" s="3">
+        <v>855700</v>
+      </c>
+      <c r="K66" s="3">
         <v>819000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>793800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1037300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>772500</v>
+        <v>691000</v>
       </c>
       <c r="E72" s="3">
-        <v>810500</v>
+        <v>762500</v>
       </c>
       <c r="F72" s="3">
-        <v>928100</v>
+        <v>800000</v>
       </c>
       <c r="G72" s="3">
-        <v>624800</v>
+        <v>916000</v>
       </c>
       <c r="H72" s="3">
-        <v>674000</v>
+        <v>616700</v>
       </c>
       <c r="I72" s="3">
-        <v>681800</v>
+        <v>665200</v>
       </c>
       <c r="J72" s="3">
+        <v>672900</v>
+      </c>
+      <c r="K72" s="3">
         <v>455700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>464800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>504300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>772500</v>
+        <v>691000</v>
       </c>
       <c r="E76" s="3">
-        <v>810500</v>
+        <v>762500</v>
       </c>
       <c r="F76" s="3">
-        <v>928100</v>
+        <v>800000</v>
       </c>
       <c r="G76" s="3">
-        <v>624800</v>
+        <v>916000</v>
       </c>
       <c r="H76" s="3">
-        <v>674000</v>
+        <v>616700</v>
       </c>
       <c r="I76" s="3">
-        <v>681800</v>
+        <v>665200</v>
       </c>
       <c r="J76" s="3">
+        <v>672900</v>
+      </c>
+      <c r="K76" s="3">
         <v>455700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>464800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>504300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-47500</v>
+        <v>-53700</v>
       </c>
       <c r="E81" s="3">
-        <v>-56900</v>
+        <v>-46900</v>
       </c>
       <c r="F81" s="3">
-        <v>-37900</v>
+        <v>-56200</v>
       </c>
       <c r="G81" s="3">
-        <v>-51600</v>
+        <v>-37400</v>
       </c>
       <c r="H81" s="3">
-        <v>-64700</v>
+        <v>-51000</v>
       </c>
       <c r="I81" s="3">
-        <v>-96600</v>
+        <v>-63900</v>
       </c>
       <c r="J81" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-44700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-51900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-63400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-94500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-32600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-35200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-71900</v>
+        <v>-118200</v>
       </c>
       <c r="E89" s="3">
-        <v>-61400</v>
+        <v>-71000</v>
       </c>
       <c r="F89" s="3">
-        <v>126400</v>
+        <v>-60600</v>
       </c>
       <c r="G89" s="3">
-        <v>-83100</v>
+        <v>124800</v>
       </c>
       <c r="H89" s="3">
-        <v>-91800</v>
+        <v>-82000</v>
       </c>
       <c r="I89" s="3">
-        <v>-53700</v>
+        <v>-90600</v>
       </c>
       <c r="J89" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-69600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-64800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-92200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-53600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-39700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4195,35 +4416,38 @@
       <c r="H91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-600</v>
       </c>
       <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>160400</v>
+        <v>-110300</v>
       </c>
       <c r="E94" s="3">
-        <v>287500</v>
+        <v>158400</v>
       </c>
       <c r="F94" s="3">
-        <v>-276000</v>
+        <v>283800</v>
       </c>
       <c r="G94" s="3">
-        <v>-73300</v>
+        <v>-272400</v>
       </c>
       <c r="H94" s="3">
-        <v>267000</v>
+        <v>-72300</v>
       </c>
       <c r="I94" s="3">
-        <v>-267800</v>
+        <v>263500</v>
       </c>
       <c r="J94" s="3">
+        <v>-264300</v>
+      </c>
+      <c r="K94" s="3">
         <v>40700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>33900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>275700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>202700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-981100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-197300</v>
+        <v>9400</v>
       </c>
       <c r="E100" s="3">
-        <v>-140000</v>
+        <v>-194700</v>
       </c>
       <c r="F100" s="3">
-        <v>484100</v>
+        <v>-138200</v>
       </c>
       <c r="G100" s="3">
-        <v>-900</v>
+        <v>477800</v>
       </c>
       <c r="H100" s="3">
-        <v>-104000</v>
+        <v>-800</v>
       </c>
       <c r="I100" s="3">
-        <v>345300</v>
+        <v>-102600</v>
       </c>
       <c r="J100" s="3">
+        <v>340800</v>
+      </c>
+      <c r="K100" s="3">
         <v>10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-265600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>185700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-157100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>566600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>414700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-18800</v>
-      </c>
       <c r="F101" s="3">
-        <v>-8800</v>
+        <v>-18500</v>
       </c>
       <c r="G101" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
-        <v>4500</v>
-      </c>
       <c r="I101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J101" s="3">
         <v>1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-108300</v>
+        <v>-221700</v>
       </c>
       <c r="E102" s="3">
-        <v>67400</v>
+        <v>-106900</v>
       </c>
       <c r="F102" s="3">
-        <v>325800</v>
+        <v>66500</v>
       </c>
       <c r="G102" s="3">
-        <v>-160300</v>
+        <v>321500</v>
       </c>
       <c r="H102" s="3">
-        <v>75700</v>
+        <v>-158200</v>
       </c>
       <c r="I102" s="3">
-        <v>25400</v>
+        <v>74700</v>
       </c>
       <c r="J102" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-294200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>368100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-54700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>81500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-448700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>384400</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>149000</v>
+        <v>166700</v>
       </c>
       <c r="E8" s="3">
-        <v>126200</v>
+        <v>151500</v>
       </c>
       <c r="F8" s="3">
-        <v>165600</v>
+        <v>128300</v>
       </c>
       <c r="G8" s="3">
-        <v>135700</v>
+        <v>168400</v>
       </c>
       <c r="H8" s="3">
-        <v>119200</v>
+        <v>138000</v>
       </c>
       <c r="I8" s="3">
-        <v>89400</v>
+        <v>121200</v>
       </c>
       <c r="J8" s="3">
+        <v>90900</v>
+      </c>
+      <c r="K8" s="3">
         <v>119000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>91200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>79700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>68500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>77700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>55100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>41500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>34100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>98300</v>
+        <v>107400</v>
       </c>
       <c r="E9" s="3">
-        <v>83300</v>
+        <v>99900</v>
       </c>
       <c r="F9" s="3">
-        <v>108900</v>
+        <v>84700</v>
       </c>
       <c r="G9" s="3">
-        <v>77800</v>
+        <v>110700</v>
       </c>
       <c r="H9" s="3">
-        <v>73500</v>
+        <v>79100</v>
       </c>
       <c r="I9" s="3">
-        <v>58400</v>
+        <v>74700</v>
       </c>
       <c r="J9" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K9" s="3">
         <v>79000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>56000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>55200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>50700</v>
+        <v>59200</v>
       </c>
       <c r="E10" s="3">
-        <v>42900</v>
+        <v>51600</v>
       </c>
       <c r="F10" s="3">
-        <v>56700</v>
+        <v>43600</v>
       </c>
       <c r="G10" s="3">
-        <v>57900</v>
+        <v>57700</v>
       </c>
       <c r="H10" s="3">
-        <v>45800</v>
+        <v>58900</v>
       </c>
       <c r="I10" s="3">
-        <v>31100</v>
+        <v>46500</v>
       </c>
       <c r="J10" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K10" s="3">
         <v>40000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>55200</v>
+        <v>50600</v>
       </c>
       <c r="E12" s="3">
-        <v>43300</v>
+        <v>56200</v>
       </c>
       <c r="F12" s="3">
-        <v>53800</v>
+        <v>44000</v>
       </c>
       <c r="G12" s="3">
-        <v>45500</v>
+        <v>54700</v>
       </c>
       <c r="H12" s="3">
-        <v>44500</v>
+        <v>46300</v>
       </c>
       <c r="I12" s="3">
-        <v>36900</v>
+        <v>45200</v>
       </c>
       <c r="J12" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K12" s="3">
         <v>47700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>38400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>31900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,35 +1026,38 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5800</v>
+        <v>2900</v>
       </c>
       <c r="E14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>9700</v>
-      </c>
       <c r="G14" s="3">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="H14" s="3">
-        <v>5800</v>
+        <v>2100</v>
       </c>
       <c r="I14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J14" s="3">
         <v>3200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1050,8 +1070,8 @@
       <c r="O14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,35 +1105,38 @@
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
         <v>5100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="3">
-        <v>15400</v>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M15" s="3">
         <v>15400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>11</v>
+      <c r="N15" s="3">
+        <v>15400</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="3">
         <v>8300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>209900</v>
+        <v>211000</v>
       </c>
       <c r="E17" s="3">
-        <v>179500</v>
+        <v>213400</v>
       </c>
       <c r="F17" s="3">
-        <v>229400</v>
+        <v>182500</v>
       </c>
       <c r="G17" s="3">
-        <v>174300</v>
+        <v>233200</v>
       </c>
       <c r="H17" s="3">
-        <v>174700</v>
+        <v>177200</v>
       </c>
       <c r="I17" s="3">
-        <v>158000</v>
+        <v>177700</v>
       </c>
       <c r="J17" s="3">
+        <v>160700</v>
+      </c>
+      <c r="K17" s="3">
         <v>208500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>138800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>133800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>138800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>159700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>95800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>65500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>53300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-60900</v>
+        <v>-44300</v>
       </c>
       <c r="E18" s="3">
-        <v>-53300</v>
+        <v>-61900</v>
       </c>
       <c r="F18" s="3">
-        <v>-63700</v>
+        <v>-54200</v>
       </c>
       <c r="G18" s="3">
-        <v>-38600</v>
+        <v>-64800</v>
       </c>
       <c r="H18" s="3">
-        <v>-55500</v>
+        <v>-39200</v>
       </c>
       <c r="I18" s="3">
-        <v>-68600</v>
+        <v>-56500</v>
       </c>
       <c r="J18" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-89500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-47600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-54100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-70300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-81900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-40700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>-500</v>
-      </c>
       <c r="F20" s="3">
-        <v>-2600</v>
+        <v>-600</v>
       </c>
       <c r="G20" s="3">
         <v>-2600</v>
       </c>
       <c r="H20" s="3">
-        <v>-4100</v>
+        <v>-2600</v>
       </c>
       <c r="I20" s="3">
-        <v>-3200</v>
+        <v>-4200</v>
       </c>
       <c r="J20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K20" s="3">
         <v>5400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-61600</v>
+        <v>-48000</v>
       </c>
       <c r="E21" s="3">
-        <v>-41900</v>
+        <v>-62600</v>
       </c>
       <c r="F21" s="3">
-        <v>-66100</v>
+        <v>-42600</v>
       </c>
       <c r="G21" s="3">
-        <v>-40900</v>
+        <v>-67200</v>
       </c>
       <c r="H21" s="3">
-        <v>-58700</v>
+        <v>-41600</v>
       </c>
       <c r="I21" s="3">
-        <v>-61900</v>
+        <v>-59700</v>
       </c>
       <c r="J21" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-85900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-48400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-49800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-46100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-75700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-41400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1369,135 +1409,144 @@
       <c r="I22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="3">
         <v>6500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-62100</v>
+        <v>-46500</v>
       </c>
       <c r="E23" s="3">
-        <v>-53800</v>
+        <v>-63100</v>
       </c>
       <c r="F23" s="3">
-        <v>-66300</v>
+        <v>-54700</v>
       </c>
       <c r="G23" s="3">
-        <v>-41100</v>
+        <v>-67400</v>
       </c>
       <c r="H23" s="3">
-        <v>-59600</v>
+        <v>-41800</v>
       </c>
       <c r="I23" s="3">
-        <v>-71800</v>
+        <v>-60600</v>
       </c>
       <c r="J23" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-90600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-50700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-56500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-73200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-83600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-43400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-37100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="M24" s="3">
         <v>-4400</v>
       </c>
-      <c r="E24" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-10100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-57700</v>
+        <v>-42300</v>
       </c>
       <c r="E26" s="3">
-        <v>-49700</v>
+        <v>-58600</v>
       </c>
       <c r="F26" s="3">
-        <v>-59600</v>
+        <v>-50500</v>
       </c>
       <c r="G26" s="3">
-        <v>-38300</v>
+        <v>-60600</v>
       </c>
       <c r="H26" s="3">
-        <v>-53200</v>
+        <v>-39000</v>
       </c>
       <c r="I26" s="3">
-        <v>-66700</v>
+        <v>-54100</v>
       </c>
       <c r="J26" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-98300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-45400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-52100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-63700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-93000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-33300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-53700</v>
+        <v>-42200</v>
       </c>
       <c r="E27" s="3">
-        <v>-46900</v>
+        <v>-54600</v>
       </c>
       <c r="F27" s="3">
-        <v>-56200</v>
+        <v>-47700</v>
       </c>
       <c r="G27" s="3">
-        <v>-37400</v>
+        <v>-57100</v>
       </c>
       <c r="H27" s="3">
-        <v>-51000</v>
+        <v>-38000</v>
       </c>
       <c r="I27" s="3">
-        <v>-63900</v>
+        <v>-51800</v>
       </c>
       <c r="J27" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-95400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-44700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-51900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-63400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-94500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-32600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>500</v>
-      </c>
       <c r="F32" s="3">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="G32" s="3">
         <v>2600</v>
       </c>
       <c r="H32" s="3">
-        <v>4100</v>
+        <v>2600</v>
       </c>
       <c r="I32" s="3">
-        <v>3200</v>
+        <v>4200</v>
       </c>
       <c r="J32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-53700</v>
+        <v>-42200</v>
       </c>
       <c r="E33" s="3">
-        <v>-46900</v>
+        <v>-54600</v>
       </c>
       <c r="F33" s="3">
-        <v>-56200</v>
+        <v>-47700</v>
       </c>
       <c r="G33" s="3">
-        <v>-37400</v>
+        <v>-57100</v>
       </c>
       <c r="H33" s="3">
-        <v>-51000</v>
+        <v>-38000</v>
       </c>
       <c r="I33" s="3">
-        <v>-63900</v>
+        <v>-51800</v>
       </c>
       <c r="J33" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-95400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-44700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-51900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-63400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-94500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-32600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-53700</v>
+        <v>-42200</v>
       </c>
       <c r="E35" s="3">
-        <v>-46900</v>
+        <v>-54600</v>
       </c>
       <c r="F35" s="3">
-        <v>-56200</v>
+        <v>-47700</v>
       </c>
       <c r="G35" s="3">
-        <v>-37400</v>
+        <v>-57100</v>
       </c>
       <c r="H35" s="3">
-        <v>-51000</v>
+        <v>-38000</v>
       </c>
       <c r="I35" s="3">
-        <v>-63900</v>
+        <v>-51800</v>
       </c>
       <c r="J35" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-95400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-44700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-51900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-63400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-94500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-32600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2227,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>141800</v>
+        <v>296500</v>
       </c>
       <c r="E41" s="3">
-        <v>363500</v>
+        <v>144200</v>
       </c>
       <c r="F41" s="3">
-        <v>470400</v>
+        <v>369600</v>
       </c>
       <c r="G41" s="3">
-        <v>320300</v>
+        <v>478300</v>
       </c>
       <c r="H41" s="3">
-        <v>82400</v>
+        <v>325700</v>
       </c>
       <c r="I41" s="3">
-        <v>240600</v>
+        <v>83800</v>
       </c>
       <c r="J41" s="3">
+        <v>244700</v>
+      </c>
+      <c r="K41" s="3">
         <v>166000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>142800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>160300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>454400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2191,44 +2278,47 @@
       <c r="R41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>378300</v>
+        <v>303100</v>
       </c>
       <c r="E42" s="3">
-        <v>319200</v>
+        <v>384600</v>
       </c>
       <c r="F42" s="3">
-        <v>317800</v>
+        <v>324500</v>
       </c>
       <c r="G42" s="3">
-        <v>422800</v>
+        <v>323200</v>
       </c>
       <c r="H42" s="3">
-        <v>350000</v>
+        <v>429800</v>
       </c>
       <c r="I42" s="3">
-        <v>154800</v>
+        <v>355900</v>
       </c>
       <c r="J42" s="3">
+        <v>157400</v>
+      </c>
+      <c r="K42" s="3">
         <v>260400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>87500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>161000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>100800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2241,44 +2331,47 @@
       <c r="R42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>235200</v>
+        <v>264500</v>
       </c>
       <c r="E43" s="3">
-        <v>186500</v>
+        <v>239200</v>
       </c>
       <c r="F43" s="3">
-        <v>168800</v>
+        <v>189600</v>
       </c>
       <c r="G43" s="3">
-        <v>225800</v>
+        <v>171700</v>
       </c>
       <c r="H43" s="3">
-        <v>190100</v>
+        <v>229600</v>
       </c>
       <c r="I43" s="3">
-        <v>166300</v>
+        <v>193300</v>
       </c>
       <c r="J43" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K43" s="3">
         <v>176300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>175900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>152500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>118900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,44 +2437,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>304400</v>
+        <v>320200</v>
       </c>
       <c r="E45" s="3">
-        <v>245300</v>
+        <v>309500</v>
       </c>
       <c r="F45" s="3">
-        <v>419400</v>
+        <v>249400</v>
       </c>
       <c r="G45" s="3">
-        <v>458700</v>
+        <v>426400</v>
       </c>
       <c r="H45" s="3">
-        <v>460600</v>
+        <v>466400</v>
       </c>
       <c r="I45" s="3">
-        <v>455100</v>
+        <v>468400</v>
       </c>
       <c r="J45" s="3">
+        <v>462700</v>
+      </c>
+      <c r="K45" s="3">
         <v>576700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>560000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>526100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>622600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2391,44 +2490,47 @@
       <c r="R45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1059600</v>
+        <v>1184300</v>
       </c>
       <c r="E46" s="3">
-        <v>1114500</v>
+        <v>1077400</v>
       </c>
       <c r="F46" s="3">
-        <v>1376500</v>
+        <v>1133200</v>
       </c>
       <c r="G46" s="3">
-        <v>1427600</v>
+        <v>1399600</v>
       </c>
       <c r="H46" s="3">
-        <v>1083100</v>
+        <v>1451500</v>
       </c>
       <c r="I46" s="3">
-        <v>1016800</v>
+        <v>1101300</v>
       </c>
       <c r="J46" s="3">
+        <v>1033900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1179300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>966200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>999800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1296700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2441,44 +2543,47 @@
       <c r="R46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>63300</v>
+        <v>99300</v>
       </c>
       <c r="E47" s="3">
-        <v>40500</v>
+        <v>64400</v>
       </c>
       <c r="F47" s="3">
-        <v>36900</v>
+        <v>41200</v>
       </c>
       <c r="G47" s="3">
-        <v>36500</v>
+        <v>37500</v>
       </c>
       <c r="H47" s="3">
-        <v>34900</v>
+        <v>37200</v>
       </c>
       <c r="I47" s="3">
-        <v>89100</v>
+        <v>35500</v>
       </c>
       <c r="J47" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K47" s="3">
         <v>85200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2491,44 +2596,47 @@
       <c r="R47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26000</v>
+        <v>38100</v>
       </c>
       <c r="E48" s="3">
-        <v>29400</v>
+        <v>26500</v>
       </c>
       <c r="F48" s="3">
-        <v>34500</v>
+        <v>29800</v>
       </c>
       <c r="G48" s="3">
-        <v>34700</v>
+        <v>35100</v>
       </c>
       <c r="H48" s="3">
-        <v>38700</v>
+        <v>35300</v>
       </c>
       <c r="I48" s="3">
-        <v>42900</v>
+        <v>39300</v>
       </c>
       <c r="J48" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K48" s="3">
         <v>48400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>56400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>53300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2541,44 +2649,47 @@
       <c r="R48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>123400</v>
+        <v>116700</v>
       </c>
       <c r="E49" s="3">
-        <v>134300</v>
+        <v>125500</v>
       </c>
       <c r="F49" s="3">
-        <v>141200</v>
+        <v>136600</v>
       </c>
       <c r="G49" s="3">
-        <v>136300</v>
+        <v>143600</v>
       </c>
       <c r="H49" s="3">
-        <v>139500</v>
+        <v>138500</v>
       </c>
       <c r="I49" s="3">
-        <v>145200</v>
+        <v>141800</v>
       </c>
       <c r="J49" s="3">
+        <v>147600</v>
+      </c>
+      <c r="K49" s="3">
         <v>150400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>148900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>106700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>104400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,44 +2808,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96000</v>
+        <v>102700</v>
       </c>
       <c r="E52" s="3">
-        <v>91100</v>
+        <v>97600</v>
       </c>
       <c r="F52" s="3">
-        <v>86900</v>
+        <v>92600</v>
       </c>
       <c r="G52" s="3">
-        <v>79700</v>
+        <v>88400</v>
       </c>
       <c r="H52" s="3">
-        <v>76400</v>
+        <v>81100</v>
       </c>
       <c r="I52" s="3">
-        <v>70200</v>
+        <v>77700</v>
       </c>
       <c r="J52" s="3">
+        <v>71400</v>
+      </c>
+      <c r="K52" s="3">
         <v>65300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>74000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>62500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2914,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1368400</v>
+        <v>1541100</v>
       </c>
       <c r="E54" s="3">
-        <v>1409700</v>
+        <v>1391300</v>
       </c>
       <c r="F54" s="3">
-        <v>1676100</v>
+        <v>1433300</v>
       </c>
       <c r="G54" s="3">
-        <v>1714800</v>
+        <v>1704200</v>
       </c>
       <c r="H54" s="3">
-        <v>1372600</v>
+        <v>1743600</v>
       </c>
       <c r="I54" s="3">
-        <v>1364200</v>
+        <v>1395600</v>
       </c>
       <c r="J54" s="3">
+        <v>1387100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1528600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1274600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1258600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1541600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3011,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>254700</v>
+        <v>273200</v>
       </c>
       <c r="E57" s="3">
-        <v>245200</v>
+        <v>258900</v>
       </c>
       <c r="F57" s="3">
-        <v>238300</v>
+        <v>249300</v>
       </c>
       <c r="G57" s="3">
-        <v>221100</v>
+        <v>242300</v>
       </c>
       <c r="H57" s="3">
-        <v>222200</v>
+        <v>224800</v>
       </c>
       <c r="I57" s="3">
-        <v>172800</v>
+        <v>225900</v>
       </c>
       <c r="J57" s="3">
+        <v>175700</v>
+      </c>
+      <c r="K57" s="3">
         <v>53400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>11</v>
       </c>
@@ -2931,44 +3062,47 @@
       <c r="R57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>178400</v>
+        <v>185100</v>
       </c>
       <c r="E58" s="3">
-        <v>163000</v>
+        <v>181400</v>
       </c>
       <c r="F58" s="3">
-        <v>351600</v>
+        <v>165700</v>
       </c>
       <c r="G58" s="3">
-        <v>377500</v>
+        <v>357500</v>
       </c>
       <c r="H58" s="3">
-        <v>375500</v>
+        <v>383800</v>
       </c>
       <c r="I58" s="3">
-        <v>366800</v>
+        <v>381800</v>
       </c>
       <c r="J58" s="3">
+        <v>372900</v>
+      </c>
+      <c r="K58" s="3">
         <v>511300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>476000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>449600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>711800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>11</v>
       </c>
@@ -2981,44 +3115,47 @@
       <c r="R58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>187600</v>
+        <v>350100</v>
       </c>
       <c r="E59" s="3">
-        <v>177400</v>
+        <v>190800</v>
       </c>
       <c r="F59" s="3">
-        <v>205700</v>
+        <v>180300</v>
       </c>
       <c r="G59" s="3">
-        <v>132800</v>
+        <v>209100</v>
       </c>
       <c r="H59" s="3">
-        <v>86800</v>
+        <v>135000</v>
       </c>
       <c r="I59" s="3">
-        <v>69300</v>
+        <v>88200</v>
       </c>
       <c r="J59" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K59" s="3">
         <v>195900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>227200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>223600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>207100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3031,44 +3168,47 @@
       <c r="R59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>620700</v>
+        <v>808400</v>
       </c>
       <c r="E60" s="3">
-        <v>585600</v>
+        <v>631100</v>
       </c>
       <c r="F60" s="3">
-        <v>795600</v>
+        <v>595400</v>
       </c>
       <c r="G60" s="3">
-        <v>731400</v>
+        <v>808900</v>
       </c>
       <c r="H60" s="3">
-        <v>684500</v>
+        <v>743600</v>
       </c>
       <c r="I60" s="3">
-        <v>608800</v>
+        <v>695900</v>
       </c>
       <c r="J60" s="3">
+        <v>619000</v>
+      </c>
+      <c r="K60" s="3">
         <v>760600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>714000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>695700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>957100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3105,11 +3248,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>13500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3131,44 +3274,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49500</v>
+        <v>60500</v>
       </c>
       <c r="E62" s="3">
-        <v>50600</v>
+        <v>50400</v>
       </c>
       <c r="F62" s="3">
-        <v>66700</v>
+        <v>51500</v>
       </c>
       <c r="G62" s="3">
-        <v>50200</v>
+        <v>67800</v>
       </c>
       <c r="H62" s="3">
-        <v>53300</v>
+        <v>51100</v>
       </c>
       <c r="I62" s="3">
-        <v>69800</v>
+        <v>54200</v>
       </c>
       <c r="J62" s="3">
+        <v>70900</v>
+      </c>
+      <c r="K62" s="3">
         <v>58400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>78500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>71700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>63500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3486,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>677300</v>
+        <v>876100</v>
       </c>
       <c r="E66" s="3">
-        <v>647300</v>
+        <v>688700</v>
       </c>
       <c r="F66" s="3">
-        <v>876100</v>
+        <v>658100</v>
       </c>
       <c r="G66" s="3">
-        <v>798800</v>
+        <v>890800</v>
       </c>
       <c r="H66" s="3">
-        <v>755900</v>
+        <v>812200</v>
       </c>
       <c r="I66" s="3">
-        <v>699000</v>
+        <v>768600</v>
       </c>
       <c r="J66" s="3">
+        <v>710700</v>
+      </c>
+      <c r="K66" s="3">
         <v>855700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>819000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>793800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1037300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3772,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>691000</v>
+        <v>665000</v>
       </c>
       <c r="E72" s="3">
-        <v>762500</v>
+        <v>702600</v>
       </c>
       <c r="F72" s="3">
-        <v>800000</v>
+        <v>775200</v>
       </c>
       <c r="G72" s="3">
-        <v>916000</v>
+        <v>813400</v>
       </c>
       <c r="H72" s="3">
-        <v>616700</v>
+        <v>931300</v>
       </c>
       <c r="I72" s="3">
-        <v>665200</v>
+        <v>627000</v>
       </c>
       <c r="J72" s="3">
+        <v>676400</v>
+      </c>
+      <c r="K72" s="3">
         <v>672900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>455700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>464800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>504300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3984,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>691000</v>
+        <v>665000</v>
       </c>
       <c r="E76" s="3">
-        <v>762500</v>
+        <v>702600</v>
       </c>
       <c r="F76" s="3">
-        <v>800000</v>
+        <v>775200</v>
       </c>
       <c r="G76" s="3">
-        <v>916000</v>
+        <v>813400</v>
       </c>
       <c r="H76" s="3">
-        <v>616700</v>
+        <v>931400</v>
       </c>
       <c r="I76" s="3">
-        <v>665200</v>
+        <v>627000</v>
       </c>
       <c r="J76" s="3">
+        <v>676400</v>
+      </c>
+      <c r="K76" s="3">
         <v>672900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>455700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>464800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>504300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>11</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-53700</v>
+        <v>-42200</v>
       </c>
       <c r="E81" s="3">
-        <v>-46900</v>
+        <v>-54600</v>
       </c>
       <c r="F81" s="3">
-        <v>-56200</v>
+        <v>-47700</v>
       </c>
       <c r="G81" s="3">
-        <v>-37400</v>
+        <v>-57100</v>
       </c>
       <c r="H81" s="3">
-        <v>-51000</v>
+        <v>-38000</v>
       </c>
       <c r="I81" s="3">
-        <v>-63900</v>
+        <v>-51800</v>
       </c>
       <c r="J81" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-95400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-44700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-51900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-63400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-94500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-32600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-118200</v>
+        <v>52100</v>
       </c>
       <c r="E89" s="3">
-        <v>-71000</v>
+        <v>-120200</v>
       </c>
       <c r="F89" s="3">
-        <v>-60600</v>
+        <v>-72100</v>
       </c>
       <c r="G89" s="3">
-        <v>124800</v>
+        <v>-61600</v>
       </c>
       <c r="H89" s="3">
-        <v>-82000</v>
+        <v>126900</v>
       </c>
       <c r="I89" s="3">
-        <v>-90600</v>
+        <v>-83400</v>
       </c>
       <c r="J89" s="3">
+        <v>-92100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-53000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-69600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-64800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-92200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-53600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-39700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4419,35 +4640,38 @@
       <c r="I91" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-600</v>
       </c>
       <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-110300</v>
+        <v>102900</v>
       </c>
       <c r="E94" s="3">
-        <v>158400</v>
+        <v>-112100</v>
       </c>
       <c r="F94" s="3">
-        <v>283800</v>
+        <v>161000</v>
       </c>
       <c r="G94" s="3">
-        <v>-272400</v>
+        <v>288500</v>
       </c>
       <c r="H94" s="3">
-        <v>-72300</v>
+        <v>-277000</v>
       </c>
       <c r="I94" s="3">
-        <v>263500</v>
+        <v>-73500</v>
       </c>
       <c r="J94" s="3">
+        <v>267900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-264300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>40700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>33900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>275700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>202700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-981100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9400</v>
+        <v>-3100</v>
       </c>
       <c r="E100" s="3">
-        <v>-194700</v>
+        <v>9600</v>
       </c>
       <c r="F100" s="3">
-        <v>-138200</v>
+        <v>-198000</v>
       </c>
       <c r="G100" s="3">
-        <v>477800</v>
+        <v>-140500</v>
       </c>
       <c r="H100" s="3">
-        <v>-800</v>
+        <v>485800</v>
       </c>
       <c r="I100" s="3">
-        <v>-102600</v>
+        <v>-900</v>
       </c>
       <c r="J100" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="K100" s="3">
         <v>340800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-265600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>185700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-157100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>566600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>414700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2700</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-18500</v>
-      </c>
       <c r="G101" s="3">
-        <v>-8700</v>
+        <v>-18800</v>
       </c>
       <c r="H101" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3100</v>
       </c>
-      <c r="I101" s="3">
-        <v>4400</v>
-      </c>
       <c r="J101" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-221700</v>
+        <v>152300</v>
       </c>
       <c r="E102" s="3">
-        <v>-106900</v>
+        <v>-225500</v>
       </c>
       <c r="F102" s="3">
-        <v>66500</v>
+        <v>-108700</v>
       </c>
       <c r="G102" s="3">
-        <v>321500</v>
+        <v>67600</v>
       </c>
       <c r="H102" s="3">
-        <v>-158200</v>
+        <v>326900</v>
       </c>
       <c r="I102" s="3">
-        <v>74700</v>
+        <v>-160900</v>
       </c>
       <c r="J102" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K102" s="3">
         <v>25100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-294200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>368100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-54700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>81500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-448700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>384400</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>166700</v>
+        <v>202000</v>
       </c>
       <c r="E8" s="3">
-        <v>151500</v>
+        <v>168000</v>
       </c>
       <c r="F8" s="3">
-        <v>128300</v>
+        <v>152700</v>
       </c>
       <c r="G8" s="3">
-        <v>168400</v>
+        <v>129300</v>
       </c>
       <c r="H8" s="3">
-        <v>138000</v>
+        <v>169700</v>
       </c>
       <c r="I8" s="3">
-        <v>121200</v>
+        <v>139000</v>
       </c>
       <c r="J8" s="3">
+        <v>122200</v>
+      </c>
+      <c r="K8" s="3">
         <v>90900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>119000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>91200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>68500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>77700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>55100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>41500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>34100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>107400</v>
+        <v>131000</v>
       </c>
       <c r="E9" s="3">
-        <v>99900</v>
+        <v>108300</v>
       </c>
       <c r="F9" s="3">
-        <v>84700</v>
+        <v>100700</v>
       </c>
       <c r="G9" s="3">
-        <v>110700</v>
+        <v>85400</v>
       </c>
       <c r="H9" s="3">
-        <v>79100</v>
+        <v>111600</v>
       </c>
       <c r="I9" s="3">
-        <v>74700</v>
+        <v>79700</v>
       </c>
       <c r="J9" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K9" s="3">
         <v>59300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>79000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>56000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>34700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>55200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>59200</v>
+        <v>71000</v>
       </c>
       <c r="E10" s="3">
-        <v>51600</v>
+        <v>59700</v>
       </c>
       <c r="F10" s="3">
-        <v>43600</v>
+        <v>52000</v>
       </c>
       <c r="G10" s="3">
-        <v>57700</v>
+        <v>44000</v>
       </c>
       <c r="H10" s="3">
-        <v>58900</v>
+        <v>58100</v>
       </c>
       <c r="I10" s="3">
-        <v>46500</v>
+        <v>59300</v>
       </c>
       <c r="J10" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K10" s="3">
         <v>31600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>40000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>50600</v>
+        <v>61500</v>
       </c>
       <c r="E12" s="3">
-        <v>56200</v>
+        <v>51000</v>
       </c>
       <c r="F12" s="3">
-        <v>44000</v>
+        <v>56600</v>
       </c>
       <c r="G12" s="3">
-        <v>54700</v>
+        <v>44400</v>
       </c>
       <c r="H12" s="3">
-        <v>46300</v>
+        <v>55100</v>
       </c>
       <c r="I12" s="3">
-        <v>45200</v>
+        <v>46600</v>
       </c>
       <c r="J12" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K12" s="3">
         <v>37500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>47700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>31000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>38400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,38 +1045,41 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J14" s="3">
         <v>5900</v>
       </c>
-      <c r="F14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G14" s="3">
-        <v>9900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5900</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1092,8 @@
       <c r="P14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,35 +1130,38 @@
       <c r="J15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="3">
         <v>5100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="3">
-        <v>15400</v>
+      <c r="M15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N15" s="3">
         <v>15400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
+      <c r="O15" s="3">
+        <v>15400</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="3">
         <v>8300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8100</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>211000</v>
+        <v>262000</v>
       </c>
       <c r="E17" s="3">
-        <v>213400</v>
+        <v>212600</v>
       </c>
       <c r="F17" s="3">
-        <v>182500</v>
+        <v>215000</v>
       </c>
       <c r="G17" s="3">
-        <v>233200</v>
+        <v>183900</v>
       </c>
       <c r="H17" s="3">
-        <v>177200</v>
+        <v>235000</v>
       </c>
       <c r="I17" s="3">
-        <v>177700</v>
+        <v>178600</v>
       </c>
       <c r="J17" s="3">
+        <v>179000</v>
+      </c>
+      <c r="K17" s="3">
         <v>160700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>208500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>138800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>133800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>138800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>159700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>95800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>65500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>53300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-44300</v>
+        <v>-60000</v>
       </c>
       <c r="E18" s="3">
-        <v>-61900</v>
+        <v>-44700</v>
       </c>
       <c r="F18" s="3">
-        <v>-54200</v>
+        <v>-62400</v>
       </c>
       <c r="G18" s="3">
-        <v>-64800</v>
+        <v>-54600</v>
       </c>
       <c r="H18" s="3">
-        <v>-39200</v>
+        <v>-65300</v>
       </c>
       <c r="I18" s="3">
-        <v>-56500</v>
+        <v>-39500</v>
       </c>
       <c r="J18" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-69700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-89500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-47600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-54100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-70300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-81900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-40700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-24000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2600</v>
       </c>
       <c r="H20" s="3">
         <v>-2600</v>
       </c>
       <c r="I20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-48000</v>
+        <v>-61800</v>
       </c>
       <c r="E21" s="3">
-        <v>-62600</v>
+        <v>-48300</v>
       </c>
       <c r="F21" s="3">
-        <v>-42600</v>
+        <v>-63100</v>
       </c>
       <c r="G21" s="3">
-        <v>-67200</v>
+        <v>-43000</v>
       </c>
       <c r="H21" s="3">
-        <v>-41600</v>
+        <v>-67700</v>
       </c>
       <c r="I21" s="3">
-        <v>-59700</v>
+        <v>-41900</v>
       </c>
       <c r="J21" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-63000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-85900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-48400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-49800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-46100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-75700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-41400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-24800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1412,141 +1451,150 @@
       <c r="J22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="3">
         <v>6500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-46500</v>
+        <v>-62000</v>
       </c>
       <c r="E23" s="3">
-        <v>-63100</v>
+        <v>-46800</v>
       </c>
       <c r="F23" s="3">
-        <v>-54700</v>
+        <v>-63600</v>
       </c>
       <c r="G23" s="3">
-        <v>-67400</v>
+        <v>-55200</v>
       </c>
       <c r="H23" s="3">
-        <v>-41800</v>
+        <v>-67900</v>
       </c>
       <c r="I23" s="3">
-        <v>-60600</v>
+        <v>-42100</v>
       </c>
       <c r="J23" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-73000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-90600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-50700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-56500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-73200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-83600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-43400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-26200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-37100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4200</v>
       </c>
-      <c r="G24" s="3">
-        <v>-6800</v>
-      </c>
       <c r="H24" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2900</v>
       </c>
-      <c r="I24" s="3">
-        <v>-6500</v>
-      </c>
       <c r="J24" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-9500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42300</v>
+        <v>-57300</v>
       </c>
       <c r="E26" s="3">
-        <v>-58600</v>
+        <v>-42600</v>
       </c>
       <c r="F26" s="3">
-        <v>-50500</v>
+        <v>-59100</v>
       </c>
       <c r="G26" s="3">
-        <v>-60600</v>
+        <v>-50900</v>
       </c>
       <c r="H26" s="3">
-        <v>-39000</v>
+        <v>-61000</v>
       </c>
       <c r="I26" s="3">
-        <v>-54100</v>
+        <v>-39300</v>
       </c>
       <c r="J26" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-67800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-98300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-45400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-52100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-63700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-93000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-33300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-35200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-42200</v>
+        <v>-56500</v>
       </c>
       <c r="E27" s="3">
-        <v>-54600</v>
+        <v>-42500</v>
       </c>
       <c r="F27" s="3">
-        <v>-47700</v>
+        <v>-55100</v>
       </c>
       <c r="G27" s="3">
-        <v>-57100</v>
+        <v>-48100</v>
       </c>
       <c r="H27" s="3">
-        <v>-38000</v>
+        <v>-57600</v>
       </c>
       <c r="I27" s="3">
-        <v>-51800</v>
+        <v>-38300</v>
       </c>
       <c r="J27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-64900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-95400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-44700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-51900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-63400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-94500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-35200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2600</v>
       </c>
       <c r="H32" s="3">
         <v>2600</v>
       </c>
       <c r="I32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-42200</v>
+        <v>-56500</v>
       </c>
       <c r="E33" s="3">
-        <v>-54600</v>
+        <v>-42500</v>
       </c>
       <c r="F33" s="3">
-        <v>-47700</v>
+        <v>-55100</v>
       </c>
       <c r="G33" s="3">
-        <v>-57100</v>
+        <v>-48100</v>
       </c>
       <c r="H33" s="3">
-        <v>-38000</v>
+        <v>-57600</v>
       </c>
       <c r="I33" s="3">
-        <v>-51800</v>
+        <v>-38300</v>
       </c>
       <c r="J33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-64900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-95400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-44700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-51900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-63400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-94500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-35200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-42200</v>
+        <v>-56500</v>
       </c>
       <c r="E35" s="3">
-        <v>-54600</v>
+        <v>-42500</v>
       </c>
       <c r="F35" s="3">
-        <v>-47700</v>
+        <v>-55100</v>
       </c>
       <c r="G35" s="3">
-        <v>-57100</v>
+        <v>-48100</v>
       </c>
       <c r="H35" s="3">
-        <v>-38000</v>
+        <v>-57600</v>
       </c>
       <c r="I35" s="3">
-        <v>-51800</v>
+        <v>-38300</v>
       </c>
       <c r="J35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-64900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-95400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-44700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-51900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-63400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-94500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-35200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>296500</v>
+        <v>220800</v>
       </c>
       <c r="E41" s="3">
-        <v>144200</v>
+        <v>298700</v>
       </c>
       <c r="F41" s="3">
-        <v>369600</v>
+        <v>145300</v>
       </c>
       <c r="G41" s="3">
-        <v>478300</v>
+        <v>372500</v>
       </c>
       <c r="H41" s="3">
-        <v>325700</v>
+        <v>482000</v>
       </c>
       <c r="I41" s="3">
-        <v>83800</v>
+        <v>328200</v>
       </c>
       <c r="J41" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K41" s="3">
         <v>244700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>166000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>142800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>160300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>454400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2281,47 +2367,50 @@
       <c r="S41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>303100</v>
+        <v>405500</v>
       </c>
       <c r="E42" s="3">
-        <v>384600</v>
+        <v>305400</v>
       </c>
       <c r="F42" s="3">
-        <v>324500</v>
+        <v>387600</v>
       </c>
       <c r="G42" s="3">
-        <v>323200</v>
+        <v>327000</v>
       </c>
       <c r="H42" s="3">
-        <v>429800</v>
+        <v>325600</v>
       </c>
       <c r="I42" s="3">
-        <v>355900</v>
+        <v>433100</v>
       </c>
       <c r="J42" s="3">
+        <v>358600</v>
+      </c>
+      <c r="K42" s="3">
         <v>157400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>260400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>87500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>161000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>100800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2334,47 +2423,50 @@
       <c r="S42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>264500</v>
+        <v>176500</v>
       </c>
       <c r="E43" s="3">
-        <v>239200</v>
+        <v>266500</v>
       </c>
       <c r="F43" s="3">
-        <v>189600</v>
+        <v>241000</v>
       </c>
       <c r="G43" s="3">
-        <v>171700</v>
+        <v>191100</v>
       </c>
       <c r="H43" s="3">
-        <v>229600</v>
+        <v>173000</v>
       </c>
       <c r="I43" s="3">
-        <v>193300</v>
+        <v>231300</v>
       </c>
       <c r="J43" s="3">
+        <v>194700</v>
+      </c>
+      <c r="K43" s="3">
         <v>169100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>176300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>175900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>152500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>118900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,47 +2535,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>320200</v>
+        <v>285500</v>
       </c>
       <c r="E45" s="3">
-        <v>309500</v>
+        <v>322700</v>
       </c>
       <c r="F45" s="3">
-        <v>249400</v>
+        <v>311800</v>
       </c>
       <c r="G45" s="3">
-        <v>426400</v>
+        <v>251300</v>
       </c>
       <c r="H45" s="3">
-        <v>466400</v>
+        <v>429700</v>
       </c>
       <c r="I45" s="3">
-        <v>468400</v>
+        <v>470000</v>
       </c>
       <c r="J45" s="3">
+        <v>472000</v>
+      </c>
+      <c r="K45" s="3">
         <v>462700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>576700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>560000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>526100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>622600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2493,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1184300</v>
+        <v>1088300</v>
       </c>
       <c r="E46" s="3">
-        <v>1077400</v>
+        <v>1193300</v>
       </c>
       <c r="F46" s="3">
-        <v>1133200</v>
+        <v>1085700</v>
       </c>
       <c r="G46" s="3">
-        <v>1399600</v>
+        <v>1141900</v>
       </c>
       <c r="H46" s="3">
-        <v>1451500</v>
+        <v>1410300</v>
       </c>
       <c r="I46" s="3">
-        <v>1101300</v>
+        <v>1462600</v>
       </c>
       <c r="J46" s="3">
+        <v>1109700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1033900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1179300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>966200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>999800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1296700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2546,47 +2647,50 @@
       <c r="S46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>99300</v>
+        <v>130500</v>
       </c>
       <c r="E47" s="3">
-        <v>64400</v>
+        <v>100100</v>
       </c>
       <c r="F47" s="3">
-        <v>41200</v>
+        <v>64900</v>
       </c>
       <c r="G47" s="3">
-        <v>37500</v>
+        <v>41500</v>
       </c>
       <c r="H47" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="I47" s="3">
-        <v>35500</v>
+        <v>37400</v>
       </c>
       <c r="J47" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K47" s="3">
         <v>90600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>85200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2599,47 +2703,50 @@
       <c r="S47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38100</v>
+        <v>38600</v>
       </c>
       <c r="E48" s="3">
-        <v>26500</v>
+        <v>38400</v>
       </c>
       <c r="F48" s="3">
-        <v>29800</v>
+        <v>26700</v>
       </c>
       <c r="G48" s="3">
-        <v>35100</v>
+        <v>30100</v>
       </c>
       <c r="H48" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="I48" s="3">
-        <v>39300</v>
+        <v>35600</v>
       </c>
       <c r="J48" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K48" s="3">
         <v>43600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>56400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>53300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>45200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2652,47 +2759,50 @@
       <c r="S48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>116700</v>
+        <v>108400</v>
       </c>
       <c r="E49" s="3">
-        <v>125500</v>
+        <v>117600</v>
       </c>
       <c r="F49" s="3">
-        <v>136600</v>
+        <v>126400</v>
       </c>
       <c r="G49" s="3">
-        <v>143600</v>
+        <v>137600</v>
       </c>
       <c r="H49" s="3">
-        <v>138500</v>
+        <v>144700</v>
       </c>
       <c r="I49" s="3">
-        <v>141800</v>
+        <v>139600</v>
       </c>
       <c r="J49" s="3">
+        <v>142900</v>
+      </c>
+      <c r="K49" s="3">
         <v>147600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>150400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>148900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>106700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>104400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,47 +2927,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>102700</v>
+        <v>107800</v>
       </c>
       <c r="E52" s="3">
-        <v>97600</v>
+        <v>103500</v>
       </c>
       <c r="F52" s="3">
-        <v>92600</v>
+        <v>98300</v>
       </c>
       <c r="G52" s="3">
-        <v>88400</v>
+        <v>93300</v>
       </c>
       <c r="H52" s="3">
-        <v>81100</v>
+        <v>89100</v>
       </c>
       <c r="I52" s="3">
-        <v>77700</v>
+        <v>81700</v>
       </c>
       <c r="J52" s="3">
+        <v>78300</v>
+      </c>
+      <c r="K52" s="3">
         <v>71400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>65300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>74000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>67700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>62500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1541100</v>
+        <v>1473600</v>
       </c>
       <c r="E54" s="3">
-        <v>1391300</v>
+        <v>1553000</v>
       </c>
       <c r="F54" s="3">
-        <v>1433300</v>
+        <v>1402000</v>
       </c>
       <c r="G54" s="3">
-        <v>1704200</v>
+        <v>1444300</v>
       </c>
       <c r="H54" s="3">
-        <v>1743600</v>
+        <v>1717300</v>
       </c>
       <c r="I54" s="3">
-        <v>1395600</v>
+        <v>1756900</v>
       </c>
       <c r="J54" s="3">
+        <v>1406300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1387100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1528600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1274600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1258600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1541600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>11</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>273200</v>
+        <v>337100</v>
       </c>
       <c r="E57" s="3">
-        <v>258900</v>
+        <v>275300</v>
       </c>
       <c r="F57" s="3">
-        <v>249300</v>
+        <v>260900</v>
       </c>
       <c r="G57" s="3">
-        <v>242300</v>
+        <v>251200</v>
       </c>
       <c r="H57" s="3">
-        <v>224800</v>
+        <v>244200</v>
       </c>
       <c r="I57" s="3">
-        <v>225900</v>
+        <v>226500</v>
       </c>
       <c r="J57" s="3">
+        <v>227600</v>
+      </c>
+      <c r="K57" s="3">
         <v>175700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3065,47 +3195,50 @@
       <c r="S57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>185100</v>
+        <v>128600</v>
       </c>
       <c r="E58" s="3">
-        <v>181400</v>
+        <v>186600</v>
       </c>
       <c r="F58" s="3">
-        <v>165700</v>
+        <v>182800</v>
       </c>
       <c r="G58" s="3">
-        <v>357500</v>
+        <v>167000</v>
       </c>
       <c r="H58" s="3">
-        <v>383800</v>
+        <v>360200</v>
       </c>
       <c r="I58" s="3">
-        <v>381800</v>
+        <v>386800</v>
       </c>
       <c r="J58" s="3">
+        <v>384700</v>
+      </c>
+      <c r="K58" s="3">
         <v>372900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>511300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>476000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>449600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>711800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3118,47 +3251,50 @@
       <c r="S58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>350100</v>
+        <v>348700</v>
       </c>
       <c r="E59" s="3">
-        <v>190800</v>
+        <v>352800</v>
       </c>
       <c r="F59" s="3">
-        <v>180300</v>
+        <v>192200</v>
       </c>
       <c r="G59" s="3">
-        <v>209100</v>
+        <v>181700</v>
       </c>
       <c r="H59" s="3">
-        <v>135000</v>
+        <v>210700</v>
       </c>
       <c r="I59" s="3">
-        <v>88200</v>
+        <v>136100</v>
       </c>
       <c r="J59" s="3">
+        <v>88900</v>
+      </c>
+      <c r="K59" s="3">
         <v>70400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>195900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>227200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>223600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>207100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3171,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>808400</v>
+        <v>814400</v>
       </c>
       <c r="E60" s="3">
-        <v>631100</v>
+        <v>814600</v>
       </c>
       <c r="F60" s="3">
-        <v>595400</v>
+        <v>635900</v>
       </c>
       <c r="G60" s="3">
-        <v>808900</v>
+        <v>599900</v>
       </c>
       <c r="H60" s="3">
-        <v>743600</v>
+        <v>815100</v>
       </c>
       <c r="I60" s="3">
-        <v>695900</v>
+        <v>749300</v>
       </c>
       <c r="J60" s="3">
+        <v>701300</v>
+      </c>
+      <c r="K60" s="3">
         <v>619000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>760600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>714000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>695700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>957100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3251,11 +3393,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>13500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3277,47 +3419,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60500</v>
+        <v>54100</v>
       </c>
       <c r="E62" s="3">
-        <v>50400</v>
+        <v>60900</v>
       </c>
       <c r="F62" s="3">
-        <v>51500</v>
+        <v>50800</v>
       </c>
       <c r="G62" s="3">
-        <v>67800</v>
+        <v>51900</v>
       </c>
       <c r="H62" s="3">
-        <v>51100</v>
+        <v>68400</v>
       </c>
       <c r="I62" s="3">
-        <v>54200</v>
+        <v>51400</v>
       </c>
       <c r="J62" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K62" s="3">
         <v>70900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>58400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>78500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>71700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>63500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>876100</v>
+        <v>875000</v>
       </c>
       <c r="E66" s="3">
-        <v>688700</v>
+        <v>882800</v>
       </c>
       <c r="F66" s="3">
-        <v>658100</v>
+        <v>694000</v>
       </c>
       <c r="G66" s="3">
-        <v>890800</v>
+        <v>663100</v>
       </c>
       <c r="H66" s="3">
-        <v>812200</v>
+        <v>897600</v>
       </c>
       <c r="I66" s="3">
-        <v>768600</v>
+        <v>818400</v>
       </c>
       <c r="J66" s="3">
+        <v>774500</v>
+      </c>
+      <c r="K66" s="3">
         <v>710700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>855700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>819000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>793800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1037300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>665000</v>
+        <v>598500</v>
       </c>
       <c r="E72" s="3">
-        <v>702600</v>
+        <v>670100</v>
       </c>
       <c r="F72" s="3">
-        <v>775200</v>
+        <v>708000</v>
       </c>
       <c r="G72" s="3">
-        <v>813400</v>
+        <v>781200</v>
       </c>
       <c r="H72" s="3">
-        <v>931300</v>
+        <v>819600</v>
       </c>
       <c r="I72" s="3">
-        <v>627000</v>
+        <v>938500</v>
       </c>
       <c r="J72" s="3">
+        <v>631800</v>
+      </c>
+      <c r="K72" s="3">
         <v>676400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>672900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>455700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>464800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>504300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>11</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>665000</v>
+        <v>598500</v>
       </c>
       <c r="E76" s="3">
-        <v>702600</v>
+        <v>670100</v>
       </c>
       <c r="F76" s="3">
-        <v>775200</v>
+        <v>708000</v>
       </c>
       <c r="G76" s="3">
-        <v>813400</v>
+        <v>781200</v>
       </c>
       <c r="H76" s="3">
-        <v>931400</v>
+        <v>819600</v>
       </c>
       <c r="I76" s="3">
-        <v>627000</v>
+        <v>938500</v>
       </c>
       <c r="J76" s="3">
+        <v>631800</v>
+      </c>
+      <c r="K76" s="3">
         <v>676400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>672900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>455700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>464800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>504300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-42200</v>
+        <v>-56500</v>
       </c>
       <c r="E81" s="3">
-        <v>-54600</v>
+        <v>-42500</v>
       </c>
       <c r="F81" s="3">
-        <v>-47700</v>
+        <v>-55100</v>
       </c>
       <c r="G81" s="3">
-        <v>-57100</v>
+        <v>-48100</v>
       </c>
       <c r="H81" s="3">
-        <v>-38000</v>
+        <v>-57600</v>
       </c>
       <c r="I81" s="3">
-        <v>-51800</v>
+        <v>-38300</v>
       </c>
       <c r="J81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-64900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-95400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-44700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-51900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-63400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-94500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-35200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>52100</v>
+        <v>77500</v>
       </c>
       <c r="E89" s="3">
-        <v>-120200</v>
+        <v>52500</v>
       </c>
       <c r="F89" s="3">
-        <v>-72100</v>
+        <v>-121100</v>
       </c>
       <c r="G89" s="3">
-        <v>-61600</v>
+        <v>-72700</v>
       </c>
       <c r="H89" s="3">
-        <v>126900</v>
+        <v>-62100</v>
       </c>
       <c r="I89" s="3">
-        <v>-83400</v>
+        <v>127900</v>
       </c>
       <c r="J89" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-92100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-53000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-69600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-64800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-92200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-53600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-39700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-600</v>
       </c>
       <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>102900</v>
+        <v>-91700</v>
       </c>
       <c r="E94" s="3">
-        <v>-112100</v>
+        <v>103700</v>
       </c>
       <c r="F94" s="3">
-        <v>161000</v>
+        <v>-113000</v>
       </c>
       <c r="G94" s="3">
-        <v>288500</v>
+        <v>162200</v>
       </c>
       <c r="H94" s="3">
-        <v>-277000</v>
+        <v>290800</v>
       </c>
       <c r="I94" s="3">
-        <v>-73500</v>
+        <v>-279100</v>
       </c>
       <c r="J94" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="K94" s="3">
         <v>267900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-264300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>40700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>33900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>275700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>202700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-981100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3100</v>
+        <v>-61300</v>
       </c>
       <c r="E100" s="3">
-        <v>9600</v>
+        <v>-3200</v>
       </c>
       <c r="F100" s="3">
-        <v>-198000</v>
+        <v>9700</v>
       </c>
       <c r="G100" s="3">
-        <v>-140500</v>
+        <v>-199500</v>
       </c>
       <c r="H100" s="3">
-        <v>485800</v>
+        <v>-141500</v>
       </c>
       <c r="I100" s="3">
+        <v>489600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-104400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>340800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-265600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>185700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-157100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>566600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>414700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>-18800</v>
-      </c>
       <c r="H101" s="3">
-        <v>-8800</v>
+        <v>-19000</v>
       </c>
       <c r="I101" s="3">
-        <v>-3100</v>
+        <v>-8900</v>
       </c>
       <c r="J101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K101" s="3">
         <v>4500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7000</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>152300</v>
+        <v>-78000</v>
       </c>
       <c r="E102" s="3">
-        <v>-225500</v>
+        <v>153500</v>
       </c>
       <c r="F102" s="3">
-        <v>-108700</v>
+        <v>-227200</v>
       </c>
       <c r="G102" s="3">
-        <v>67600</v>
+        <v>-109500</v>
       </c>
       <c r="H102" s="3">
-        <v>326900</v>
+        <v>68200</v>
       </c>
       <c r="I102" s="3">
-        <v>-160900</v>
+        <v>329400</v>
       </c>
       <c r="J102" s="3">
+        <v>-162100</v>
+      </c>
+      <c r="K102" s="3">
         <v>75900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-294200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>368100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-54700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>81500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-448700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>384400</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>202000</v>
+        <v>188700</v>
       </c>
       <c r="E8" s="3">
-        <v>168000</v>
+        <v>156900</v>
       </c>
       <c r="F8" s="3">
-        <v>152700</v>
+        <v>142600</v>
       </c>
       <c r="G8" s="3">
-        <v>129300</v>
+        <v>120800</v>
       </c>
       <c r="H8" s="3">
-        <v>169700</v>
+        <v>158500</v>
       </c>
       <c r="I8" s="3">
-        <v>139000</v>
+        <v>129900</v>
       </c>
       <c r="J8" s="3">
-        <v>122200</v>
+        <v>114100</v>
       </c>
       <c r="K8" s="3">
         <v>90900</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>131000</v>
+        <v>122300</v>
       </c>
       <c r="E9" s="3">
-        <v>108300</v>
+        <v>101100</v>
       </c>
       <c r="F9" s="3">
-        <v>100700</v>
+        <v>94000</v>
       </c>
       <c r="G9" s="3">
-        <v>85400</v>
+        <v>79800</v>
       </c>
       <c r="H9" s="3">
-        <v>111600</v>
+        <v>104200</v>
       </c>
       <c r="I9" s="3">
-        <v>79700</v>
+        <v>74500</v>
       </c>
       <c r="J9" s="3">
-        <v>75300</v>
+        <v>70300</v>
       </c>
       <c r="K9" s="3">
         <v>59300</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>71000</v>
+        <v>66300</v>
       </c>
       <c r="E10" s="3">
-        <v>59700</v>
+        <v>55800</v>
       </c>
       <c r="F10" s="3">
-        <v>52000</v>
+        <v>48600</v>
       </c>
       <c r="G10" s="3">
-        <v>44000</v>
+        <v>41100</v>
       </c>
       <c r="H10" s="3">
-        <v>58100</v>
+        <v>54300</v>
       </c>
       <c r="I10" s="3">
-        <v>59300</v>
+        <v>55400</v>
       </c>
       <c r="J10" s="3">
-        <v>46900</v>
+        <v>43800</v>
       </c>
       <c r="K10" s="3">
         <v>31600</v>
@@ -942,25 +942,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>61500</v>
+        <v>57400</v>
       </c>
       <c r="E12" s="3">
-        <v>51000</v>
+        <v>47600</v>
       </c>
       <c r="F12" s="3">
-        <v>56600</v>
+        <v>52900</v>
       </c>
       <c r="G12" s="3">
-        <v>44400</v>
+        <v>41500</v>
       </c>
       <c r="H12" s="3">
-        <v>55100</v>
+        <v>51500</v>
       </c>
       <c r="I12" s="3">
-        <v>46600</v>
+        <v>43600</v>
       </c>
       <c r="J12" s="3">
-        <v>45600</v>
+        <v>42600</v>
       </c>
       <c r="K12" s="3">
         <v>37500</v>
@@ -1054,25 +1054,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="F14" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="G14" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="3">
-        <v>10000</v>
+        <v>9300</v>
       </c>
       <c r="I14" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J14" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="K14" s="3">
         <v>3200</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>262000</v>
+        <v>244700</v>
       </c>
       <c r="E17" s="3">
-        <v>212600</v>
+        <v>198600</v>
       </c>
       <c r="F17" s="3">
-        <v>215000</v>
+        <v>200900</v>
       </c>
       <c r="G17" s="3">
-        <v>183900</v>
+        <v>171800</v>
       </c>
       <c r="H17" s="3">
-        <v>235000</v>
+        <v>219500</v>
       </c>
       <c r="I17" s="3">
-        <v>178600</v>
+        <v>166800</v>
       </c>
       <c r="J17" s="3">
-        <v>179000</v>
+        <v>167200</v>
       </c>
       <c r="K17" s="3">
         <v>160700</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-60000</v>
+        <v>-56000</v>
       </c>
       <c r="E18" s="3">
-        <v>-44700</v>
+        <v>-41700</v>
       </c>
       <c r="F18" s="3">
-        <v>-62400</v>
+        <v>-58300</v>
       </c>
       <c r="G18" s="3">
-        <v>-54600</v>
+        <v>-51000</v>
       </c>
       <c r="H18" s="3">
-        <v>-65300</v>
+        <v>-61000</v>
       </c>
       <c r="I18" s="3">
-        <v>-39500</v>
+        <v>-36900</v>
       </c>
       <c r="J18" s="3">
-        <v>-56900</v>
+        <v>-53100</v>
       </c>
       <c r="K18" s="3">
         <v>-69700</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2200</v>
       </c>
       <c r="F20" s="3">
         <v>-1200</v>
       </c>
       <c r="G20" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="J20" s="3">
-        <v>-4200</v>
+        <v>-3900</v>
       </c>
       <c r="K20" s="3">
         <v>-3300</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-61800</v>
+        <v>-57700</v>
       </c>
       <c r="E21" s="3">
-        <v>-48300</v>
+        <v>-45100</v>
       </c>
       <c r="F21" s="3">
-        <v>-63100</v>
+        <v>-59000</v>
       </c>
       <c r="G21" s="3">
-        <v>-43000</v>
+        <v>-40100</v>
       </c>
       <c r="H21" s="3">
-        <v>-67700</v>
+        <v>-63300</v>
       </c>
       <c r="I21" s="3">
-        <v>-41900</v>
+        <v>-39200</v>
       </c>
       <c r="J21" s="3">
-        <v>-60200</v>
+        <v>-56200</v>
       </c>
       <c r="K21" s="3">
         <v>-63000</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-62000</v>
+        <v>-57900</v>
       </c>
       <c r="E23" s="3">
-        <v>-46800</v>
+        <v>-43700</v>
       </c>
       <c r="F23" s="3">
-        <v>-63600</v>
+        <v>-59400</v>
       </c>
       <c r="G23" s="3">
-        <v>-55200</v>
+        <v>-51500</v>
       </c>
       <c r="H23" s="3">
-        <v>-67900</v>
+        <v>-63400</v>
       </c>
       <c r="I23" s="3">
-        <v>-42100</v>
+        <v>-39400</v>
       </c>
       <c r="J23" s="3">
-        <v>-61100</v>
+        <v>-57000</v>
       </c>
       <c r="K23" s="3">
         <v>-73000</v>
@@ -1543,25 +1543,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="E24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4200</v>
       </c>
-      <c r="F24" s="3">
-        <v>-4500</v>
-      </c>
       <c r="G24" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="H24" s="3">
-        <v>-6900</v>
+        <v>-6400</v>
       </c>
       <c r="I24" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="J24" s="3">
-        <v>-6600</v>
+        <v>-6200</v>
       </c>
       <c r="K24" s="3">
         <v>-5200</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-57300</v>
+        <v>-53500</v>
       </c>
       <c r="E26" s="3">
-        <v>-42600</v>
+        <v>-39800</v>
       </c>
       <c r="F26" s="3">
-        <v>-59100</v>
+        <v>-55200</v>
       </c>
       <c r="G26" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-50900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-61000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-39300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-54500</v>
       </c>
       <c r="K26" s="3">
         <v>-67800</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-56500</v>
+        <v>-52800</v>
       </c>
       <c r="E27" s="3">
-        <v>-42500</v>
+        <v>-39700</v>
       </c>
       <c r="F27" s="3">
-        <v>-55100</v>
+        <v>-51400</v>
       </c>
       <c r="G27" s="3">
-        <v>-48100</v>
+        <v>-44900</v>
       </c>
       <c r="H27" s="3">
-        <v>-57600</v>
+        <v>-53800</v>
       </c>
       <c r="I27" s="3">
-        <v>-38300</v>
+        <v>-35800</v>
       </c>
       <c r="J27" s="3">
-        <v>-52200</v>
+        <v>-48800</v>
       </c>
       <c r="K27" s="3">
         <v>-64900</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2200</v>
       </c>
       <c r="F32" s="3">
         <v>1200</v>
       </c>
       <c r="G32" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I32" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="J32" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="K32" s="3">
         <v>3300</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-56500</v>
+        <v>-52800</v>
       </c>
       <c r="E33" s="3">
-        <v>-42500</v>
+        <v>-39700</v>
       </c>
       <c r="F33" s="3">
-        <v>-55100</v>
+        <v>-51400</v>
       </c>
       <c r="G33" s="3">
-        <v>-48100</v>
+        <v>-44900</v>
       </c>
       <c r="H33" s="3">
-        <v>-57600</v>
+        <v>-53800</v>
       </c>
       <c r="I33" s="3">
-        <v>-38300</v>
+        <v>-35800</v>
       </c>
       <c r="J33" s="3">
-        <v>-52200</v>
+        <v>-48800</v>
       </c>
       <c r="K33" s="3">
         <v>-64900</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-56500</v>
+        <v>-52800</v>
       </c>
       <c r="E35" s="3">
-        <v>-42500</v>
+        <v>-39700</v>
       </c>
       <c r="F35" s="3">
-        <v>-55100</v>
+        <v>-51400</v>
       </c>
       <c r="G35" s="3">
-        <v>-48100</v>
+        <v>-44900</v>
       </c>
       <c r="H35" s="3">
-        <v>-57600</v>
+        <v>-53800</v>
       </c>
       <c r="I35" s="3">
-        <v>-38300</v>
+        <v>-35800</v>
       </c>
       <c r="J35" s="3">
-        <v>-52200</v>
+        <v>-48800</v>
       </c>
       <c r="K35" s="3">
         <v>-64900</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>220800</v>
+        <v>206200</v>
       </c>
       <c r="E41" s="3">
-        <v>298700</v>
+        <v>279100</v>
       </c>
       <c r="F41" s="3">
-        <v>145300</v>
+        <v>135700</v>
       </c>
       <c r="G41" s="3">
-        <v>372500</v>
+        <v>347900</v>
       </c>
       <c r="H41" s="3">
-        <v>482000</v>
+        <v>450200</v>
       </c>
       <c r="I41" s="3">
-        <v>328200</v>
+        <v>306600</v>
       </c>
       <c r="J41" s="3">
-        <v>84400</v>
+        <v>78900</v>
       </c>
       <c r="K41" s="3">
         <v>244700</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>405500</v>
+        <v>378300</v>
       </c>
       <c r="E42" s="3">
+        <v>285300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>362000</v>
+      </c>
+      <c r="G42" s="3">
         <v>305400</v>
       </c>
-      <c r="F42" s="3">
-        <v>387600</v>
-      </c>
-      <c r="G42" s="3">
-        <v>327000</v>
-      </c>
       <c r="H42" s="3">
-        <v>325600</v>
+        <v>304200</v>
       </c>
       <c r="I42" s="3">
-        <v>433100</v>
+        <v>404600</v>
       </c>
       <c r="J42" s="3">
-        <v>358600</v>
+        <v>334900</v>
       </c>
       <c r="K42" s="3">
         <v>157400</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>176500</v>
+        <v>193300</v>
       </c>
       <c r="E43" s="3">
-        <v>266500</v>
+        <v>248900</v>
       </c>
       <c r="F43" s="3">
-        <v>241000</v>
+        <v>225100</v>
       </c>
       <c r="G43" s="3">
-        <v>191100</v>
+        <v>178500</v>
       </c>
       <c r="H43" s="3">
-        <v>173000</v>
+        <v>161600</v>
       </c>
       <c r="I43" s="3">
-        <v>231300</v>
+        <v>216100</v>
       </c>
       <c r="J43" s="3">
-        <v>194700</v>
+        <v>181900</v>
       </c>
       <c r="K43" s="3">
         <v>169100</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>285500</v>
+        <v>238700</v>
       </c>
       <c r="E45" s="3">
-        <v>322700</v>
+        <v>301400</v>
       </c>
       <c r="F45" s="3">
-        <v>311800</v>
+        <v>291300</v>
       </c>
       <c r="G45" s="3">
-        <v>251300</v>
+        <v>234800</v>
       </c>
       <c r="H45" s="3">
-        <v>429700</v>
+        <v>401400</v>
       </c>
       <c r="I45" s="3">
-        <v>470000</v>
+        <v>439000</v>
       </c>
       <c r="J45" s="3">
-        <v>472000</v>
+        <v>440800</v>
       </c>
       <c r="K45" s="3">
         <v>462700</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1088300</v>
+        <v>1016500</v>
       </c>
       <c r="E46" s="3">
-        <v>1193300</v>
+        <v>1114700</v>
       </c>
       <c r="F46" s="3">
-        <v>1085700</v>
+        <v>1014100</v>
       </c>
       <c r="G46" s="3">
-        <v>1141900</v>
+        <v>1066600</v>
       </c>
       <c r="H46" s="3">
-        <v>1410300</v>
+        <v>1317400</v>
       </c>
       <c r="I46" s="3">
-        <v>1462600</v>
+        <v>1366200</v>
       </c>
       <c r="J46" s="3">
-        <v>1109700</v>
+        <v>1036500</v>
       </c>
       <c r="K46" s="3">
         <v>1033900</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>130500</v>
+        <v>121900</v>
       </c>
       <c r="E47" s="3">
-        <v>100100</v>
+        <v>93500</v>
       </c>
       <c r="F47" s="3">
-        <v>64900</v>
+        <v>60600</v>
       </c>
       <c r="G47" s="3">
-        <v>41500</v>
+        <v>38700</v>
       </c>
       <c r="H47" s="3">
-        <v>37800</v>
+        <v>35300</v>
       </c>
       <c r="I47" s="3">
-        <v>37400</v>
+        <v>35000</v>
       </c>
       <c r="J47" s="3">
-        <v>35800</v>
+        <v>33400</v>
       </c>
       <c r="K47" s="3">
         <v>90600</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38600</v>
+        <v>36000</v>
       </c>
       <c r="E48" s="3">
-        <v>38400</v>
+        <v>35800</v>
       </c>
       <c r="F48" s="3">
-        <v>26700</v>
+        <v>24900</v>
       </c>
       <c r="G48" s="3">
-        <v>30100</v>
+        <v>28100</v>
       </c>
       <c r="H48" s="3">
-        <v>35400</v>
+        <v>33100</v>
       </c>
       <c r="I48" s="3">
-        <v>35600</v>
+        <v>33200</v>
       </c>
       <c r="J48" s="3">
-        <v>39600</v>
+        <v>37000</v>
       </c>
       <c r="K48" s="3">
         <v>43600</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>108400</v>
+        <v>101300</v>
       </c>
       <c r="E49" s="3">
-        <v>117600</v>
+        <v>109900</v>
       </c>
       <c r="F49" s="3">
-        <v>126400</v>
+        <v>118100</v>
       </c>
       <c r="G49" s="3">
-        <v>137600</v>
+        <v>128500</v>
       </c>
       <c r="H49" s="3">
-        <v>144700</v>
+        <v>135100</v>
       </c>
       <c r="I49" s="3">
-        <v>139600</v>
+        <v>130400</v>
       </c>
       <c r="J49" s="3">
-        <v>142900</v>
+        <v>133500</v>
       </c>
       <c r="K49" s="3">
         <v>147600</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>107800</v>
+        <v>100700</v>
       </c>
       <c r="E52" s="3">
-        <v>103500</v>
+        <v>96700</v>
       </c>
       <c r="F52" s="3">
-        <v>98300</v>
+        <v>91800</v>
       </c>
       <c r="G52" s="3">
-        <v>93300</v>
+        <v>87100</v>
       </c>
       <c r="H52" s="3">
-        <v>89100</v>
+        <v>83200</v>
       </c>
       <c r="I52" s="3">
-        <v>81700</v>
+        <v>76300</v>
       </c>
       <c r="J52" s="3">
-        <v>78300</v>
+        <v>73200</v>
       </c>
       <c r="K52" s="3">
         <v>71400</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1473600</v>
+        <v>1376400</v>
       </c>
       <c r="E54" s="3">
-        <v>1553000</v>
+        <v>1450600</v>
       </c>
       <c r="F54" s="3">
-        <v>1402000</v>
+        <v>1309500</v>
       </c>
       <c r="G54" s="3">
-        <v>1444300</v>
+        <v>1349100</v>
       </c>
       <c r="H54" s="3">
-        <v>1717300</v>
+        <v>1604100</v>
       </c>
       <c r="I54" s="3">
-        <v>1756900</v>
+        <v>1641100</v>
       </c>
       <c r="J54" s="3">
-        <v>1406300</v>
+        <v>1313600</v>
       </c>
       <c r="K54" s="3">
         <v>1387100</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>337100</v>
+        <v>162400</v>
       </c>
       <c r="E57" s="3">
-        <v>275300</v>
+        <v>257100</v>
       </c>
       <c r="F57" s="3">
-        <v>260900</v>
+        <v>243700</v>
       </c>
       <c r="G57" s="3">
-        <v>251200</v>
+        <v>234700</v>
       </c>
       <c r="H57" s="3">
-        <v>244200</v>
+        <v>228100</v>
       </c>
       <c r="I57" s="3">
-        <v>226500</v>
+        <v>211600</v>
       </c>
       <c r="J57" s="3">
-        <v>227600</v>
+        <v>212600</v>
       </c>
       <c r="K57" s="3">
         <v>175700</v>
@@ -3207,22 +3207,22 @@
         <v>128600</v>
       </c>
       <c r="E58" s="3">
-        <v>186600</v>
+        <v>174300</v>
       </c>
       <c r="F58" s="3">
-        <v>182800</v>
+        <v>170700</v>
       </c>
       <c r="G58" s="3">
-        <v>167000</v>
+        <v>156000</v>
       </c>
       <c r="H58" s="3">
-        <v>360200</v>
+        <v>336500</v>
       </c>
       <c r="I58" s="3">
-        <v>386800</v>
+        <v>361300</v>
       </c>
       <c r="J58" s="3">
-        <v>384700</v>
+        <v>359400</v>
       </c>
       <c r="K58" s="3">
         <v>372900</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>348700</v>
+        <v>469800</v>
       </c>
       <c r="E59" s="3">
-        <v>352800</v>
+        <v>329500</v>
       </c>
       <c r="F59" s="3">
-        <v>192200</v>
+        <v>179500</v>
       </c>
       <c r="G59" s="3">
-        <v>181700</v>
+        <v>169800</v>
       </c>
       <c r="H59" s="3">
-        <v>210700</v>
+        <v>196800</v>
       </c>
       <c r="I59" s="3">
-        <v>136100</v>
+        <v>127100</v>
       </c>
       <c r="J59" s="3">
-        <v>88900</v>
+        <v>83100</v>
       </c>
       <c r="K59" s="3">
         <v>70400</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>814400</v>
+        <v>760700</v>
       </c>
       <c r="E60" s="3">
-        <v>814600</v>
+        <v>760900</v>
       </c>
       <c r="F60" s="3">
-        <v>635900</v>
+        <v>594000</v>
       </c>
       <c r="G60" s="3">
-        <v>599900</v>
+        <v>560400</v>
       </c>
       <c r="H60" s="3">
-        <v>815100</v>
+        <v>761400</v>
       </c>
       <c r="I60" s="3">
-        <v>749300</v>
+        <v>699900</v>
       </c>
       <c r="J60" s="3">
-        <v>701300</v>
+        <v>655000</v>
       </c>
       <c r="K60" s="3">
         <v>619000</v>
@@ -3372,7 +3372,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54100</v>
+        <v>36200</v>
       </c>
       <c r="E62" s="3">
-        <v>60900</v>
+        <v>56900</v>
       </c>
       <c r="F62" s="3">
-        <v>50800</v>
+        <v>47400</v>
       </c>
       <c r="G62" s="3">
-        <v>51900</v>
+        <v>48500</v>
       </c>
       <c r="H62" s="3">
-        <v>68400</v>
+        <v>63800</v>
       </c>
       <c r="I62" s="3">
-        <v>51400</v>
+        <v>48100</v>
       </c>
       <c r="J62" s="3">
-        <v>54600</v>
+        <v>51000</v>
       </c>
       <c r="K62" s="3">
         <v>70900</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>875000</v>
+        <v>817400</v>
       </c>
       <c r="E66" s="3">
-        <v>882800</v>
+        <v>824600</v>
       </c>
       <c r="F66" s="3">
-        <v>694000</v>
+        <v>648200</v>
       </c>
       <c r="G66" s="3">
-        <v>663100</v>
+        <v>619400</v>
       </c>
       <c r="H66" s="3">
-        <v>897600</v>
+        <v>838500</v>
       </c>
       <c r="I66" s="3">
-        <v>818400</v>
+        <v>764500</v>
       </c>
       <c r="J66" s="3">
-        <v>774500</v>
+        <v>723400</v>
       </c>
       <c r="K66" s="3">
         <v>710700</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>598500</v>
+        <v>559100</v>
       </c>
       <c r="E72" s="3">
-        <v>670100</v>
+        <v>626000</v>
       </c>
       <c r="F72" s="3">
-        <v>708000</v>
+        <v>661300</v>
       </c>
       <c r="G72" s="3">
-        <v>781200</v>
+        <v>729700</v>
       </c>
       <c r="H72" s="3">
-        <v>819600</v>
+        <v>765600</v>
       </c>
       <c r="I72" s="3">
-        <v>938500</v>
+        <v>876600</v>
       </c>
       <c r="J72" s="3">
-        <v>631800</v>
+        <v>590200</v>
       </c>
       <c r="K72" s="3">
         <v>676400</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>598500</v>
+        <v>559100</v>
       </c>
       <c r="E76" s="3">
-        <v>670100</v>
+        <v>626000</v>
       </c>
       <c r="F76" s="3">
-        <v>708000</v>
+        <v>661300</v>
       </c>
       <c r="G76" s="3">
-        <v>781200</v>
+        <v>729700</v>
       </c>
       <c r="H76" s="3">
-        <v>819600</v>
+        <v>765600</v>
       </c>
       <c r="I76" s="3">
-        <v>938500</v>
+        <v>876600</v>
       </c>
       <c r="J76" s="3">
-        <v>631800</v>
+        <v>590200</v>
       </c>
       <c r="K76" s="3">
         <v>676400</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-56500</v>
+        <v>-52800</v>
       </c>
       <c r="E81" s="3">
-        <v>-42500</v>
+        <v>-39700</v>
       </c>
       <c r="F81" s="3">
-        <v>-55100</v>
+        <v>-51400</v>
       </c>
       <c r="G81" s="3">
-        <v>-48100</v>
+        <v>-44900</v>
       </c>
       <c r="H81" s="3">
-        <v>-57600</v>
+        <v>-53800</v>
       </c>
       <c r="I81" s="3">
-        <v>-38300</v>
+        <v>-35800</v>
       </c>
       <c r="J81" s="3">
-        <v>-52200</v>
+        <v>-48800</v>
       </c>
       <c r="K81" s="3">
         <v>-64900</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>77500</v>
+        <v>72400</v>
       </c>
       <c r="E89" s="3">
-        <v>52500</v>
+        <v>49000</v>
       </c>
       <c r="F89" s="3">
-        <v>-121100</v>
+        <v>-113100</v>
       </c>
       <c r="G89" s="3">
-        <v>-72700</v>
+        <v>-67900</v>
       </c>
       <c r="H89" s="3">
-        <v>-62100</v>
+        <v>-58000</v>
       </c>
       <c r="I89" s="3">
-        <v>127900</v>
+        <v>119400</v>
       </c>
       <c r="J89" s="3">
-        <v>-84000</v>
+        <v>-78500</v>
       </c>
       <c r="K89" s="3">
         <v>-92100</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-91700</v>
+        <v>-85600</v>
       </c>
       <c r="E94" s="3">
-        <v>103700</v>
+        <v>96800</v>
       </c>
       <c r="F94" s="3">
-        <v>-113000</v>
+        <v>-105500</v>
       </c>
       <c r="G94" s="3">
-        <v>162200</v>
+        <v>151600</v>
       </c>
       <c r="H94" s="3">
-        <v>290800</v>
+        <v>271600</v>
       </c>
       <c r="I94" s="3">
-        <v>-279100</v>
+        <v>-260700</v>
       </c>
       <c r="J94" s="3">
-        <v>-74100</v>
+        <v>-69200</v>
       </c>
       <c r="K94" s="3">
         <v>267900</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-61300</v>
+        <v>-57200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="F100" s="3">
-        <v>9700</v>
+        <v>9000</v>
       </c>
       <c r="G100" s="3">
-        <v>-199500</v>
+        <v>-186400</v>
       </c>
       <c r="H100" s="3">
-        <v>-141500</v>
+        <v>-132200</v>
       </c>
       <c r="I100" s="3">
-        <v>489600</v>
+        <v>457300</v>
       </c>
       <c r="J100" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K100" s="3">
         <v>-104400</v>
@@ -5369,25 +5369,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="E101" s="3">
         <v>500</v>
       </c>
       <c r="F101" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="G101" s="3">
         <v>400</v>
       </c>
       <c r="H101" s="3">
-        <v>-19000</v>
+        <v>-17700</v>
       </c>
       <c r="I101" s="3">
-        <v>-8900</v>
+        <v>-8300</v>
       </c>
       <c r="J101" s="3">
-        <v>-3200</v>
+        <v>-2900</v>
       </c>
       <c r="K101" s="3">
         <v>4500</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-78000</v>
+        <v>-72800</v>
       </c>
       <c r="E102" s="3">
-        <v>153500</v>
+        <v>143400</v>
       </c>
       <c r="F102" s="3">
-        <v>-227200</v>
+        <v>-212200</v>
       </c>
       <c r="G102" s="3">
-        <v>-109500</v>
+        <v>-102300</v>
       </c>
       <c r="H102" s="3">
-        <v>68200</v>
+        <v>63700</v>
       </c>
       <c r="I102" s="3">
-        <v>329400</v>
+        <v>307700</v>
       </c>
       <c r="J102" s="3">
-        <v>-162100</v>
+        <v>-151400</v>
       </c>
       <c r="K102" s="3">
         <v>75900</v>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>188700</v>
+        <v>165600</v>
       </c>
       <c r="E8" s="3">
-        <v>156900</v>
+        <v>148800</v>
       </c>
       <c r="F8" s="3">
-        <v>142600</v>
+        <v>187000</v>
       </c>
       <c r="G8" s="3">
-        <v>120800</v>
+        <v>155500</v>
       </c>
       <c r="H8" s="3">
-        <v>158500</v>
+        <v>141300</v>
       </c>
       <c r="I8" s="3">
+        <v>119700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>157100</v>
+      </c>
+      <c r="K8" s="3">
         <v>129900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>114100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>90900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>119000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>91200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>79700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>68500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>77700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>55100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>41500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>34100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>122300</v>
+        <v>105700</v>
       </c>
       <c r="E9" s="3">
-        <v>101100</v>
+        <v>97800</v>
       </c>
       <c r="F9" s="3">
-        <v>94000</v>
+        <v>121200</v>
       </c>
       <c r="G9" s="3">
-        <v>79800</v>
+        <v>100200</v>
       </c>
       <c r="H9" s="3">
-        <v>104200</v>
+        <v>93200</v>
       </c>
       <c r="I9" s="3">
+        <v>79000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>103300</v>
+      </c>
+      <c r="K9" s="3">
         <v>74500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>70300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>59300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>79000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>56000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>41900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>34700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>55200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>40200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>23200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>18400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>66300</v>
+        <v>59900</v>
       </c>
       <c r="E10" s="3">
-        <v>55800</v>
+        <v>51000</v>
       </c>
       <c r="F10" s="3">
-        <v>48600</v>
+        <v>65700</v>
       </c>
       <c r="G10" s="3">
-        <v>41100</v>
+        <v>55300</v>
       </c>
       <c r="H10" s="3">
-        <v>54300</v>
+        <v>48100</v>
       </c>
       <c r="I10" s="3">
+        <v>40700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K10" s="3">
         <v>55400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>43800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>31600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>40000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>35200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>37800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>33800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>22500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>14900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>18300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>15700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +962,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>57400</v>
+        <v>55100</v>
       </c>
       <c r="E12" s="3">
-        <v>47600</v>
+        <v>53000</v>
       </c>
       <c r="F12" s="3">
-        <v>52900</v>
+        <v>56900</v>
       </c>
       <c r="G12" s="3">
-        <v>41500</v>
+        <v>47200</v>
       </c>
       <c r="H12" s="3">
-        <v>51500</v>
+        <v>52400</v>
       </c>
       <c r="I12" s="3">
+        <v>41100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K12" s="3">
         <v>43600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>42600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>37500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>47700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>31000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>24200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>38400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>31900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>18600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>6900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>8700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,44 +1082,50 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1095,17 +1135,23 @@
       <c r="Q14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,35 +1179,41 @@
       <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="3">
         <v>5100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="3">
         <v>15400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>15400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="3">
         <v>8300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>8100</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>244700</v>
+        <v>206100</v>
       </c>
       <c r="E17" s="3">
-        <v>198600</v>
+        <v>200600</v>
       </c>
       <c r="F17" s="3">
-        <v>200900</v>
+        <v>242500</v>
       </c>
       <c r="G17" s="3">
-        <v>171800</v>
+        <v>196800</v>
       </c>
       <c r="H17" s="3">
-        <v>219500</v>
+        <v>199100</v>
       </c>
       <c r="I17" s="3">
+        <v>170300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>217500</v>
+      </c>
+      <c r="K17" s="3">
         <v>166800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>167200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>160700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>208500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>138800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>133800</v>
       </c>
       <c r="O17" s="3">
         <v>138800</v>
       </c>
       <c r="P17" s="3">
+        <v>133800</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>138800</v>
+      </c>
+      <c r="R17" s="3">
         <v>159700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>95800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>65500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>53300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-56000</v>
+        <v>-40500</v>
       </c>
       <c r="E18" s="3">
-        <v>-41700</v>
+        <v>-51800</v>
       </c>
       <c r="F18" s="3">
-        <v>-58300</v>
+        <v>-55500</v>
       </c>
       <c r="G18" s="3">
-        <v>-51000</v>
+        <v>-41300</v>
       </c>
       <c r="H18" s="3">
-        <v>-61000</v>
+        <v>-57700</v>
       </c>
       <c r="I18" s="3">
+        <v>-50500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-36900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-53100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-69700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-89500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-47600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-54100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-70300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-81900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-40700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-24000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-19100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1379,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1900</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-57700</v>
+        <v>-40400</v>
       </c>
       <c r="E21" s="3">
-        <v>-45100</v>
+        <v>-44900</v>
       </c>
       <c r="F21" s="3">
-        <v>-59000</v>
+        <v>-57200</v>
       </c>
       <c r="G21" s="3">
-        <v>-40100</v>
+        <v>-44700</v>
       </c>
       <c r="H21" s="3">
-        <v>-63300</v>
+        <v>-58400</v>
       </c>
       <c r="I21" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-39200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-56200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-63000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-85900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-48400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-49800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-46100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-75700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-41400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-24800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-7800</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1454,147 +1534,165 @@
       <c r="K22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="3">
         <v>6500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>6400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>6200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>7500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U22" s="3">
         <v>1700</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-57900</v>
+        <v>-40000</v>
       </c>
       <c r="E23" s="3">
-        <v>-43700</v>
+        <v>-51600</v>
       </c>
       <c r="F23" s="3">
-        <v>-59400</v>
+        <v>-57400</v>
       </c>
       <c r="G23" s="3">
-        <v>-51500</v>
+        <v>-43300</v>
       </c>
       <c r="H23" s="3">
-        <v>-63400</v>
+        <v>-58900</v>
       </c>
       <c r="I23" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-39400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-57000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-73000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-90600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-50700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-56500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-73200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-83600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-43400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-26200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-19900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-37100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P24" s="3">
         <v>-4400</v>
       </c>
-      <c r="E24" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>7700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-9500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>9400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-10100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>9000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-4700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-53500</v>
+        <v>-37700</v>
       </c>
       <c r="E26" s="3">
-        <v>-39800</v>
+        <v>-48500</v>
       </c>
       <c r="F26" s="3">
-        <v>-55200</v>
+        <v>-53000</v>
       </c>
       <c r="G26" s="3">
-        <v>-47600</v>
+        <v>-39400</v>
       </c>
       <c r="H26" s="3">
-        <v>-57000</v>
+        <v>-54700</v>
       </c>
       <c r="I26" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-36700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-50900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-67800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-98300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-45400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-52100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-63700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-33300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-35200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-15200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52800</v>
+        <v>-35700</v>
       </c>
       <c r="E27" s="3">
-        <v>-39700</v>
+        <v>-46400</v>
       </c>
       <c r="F27" s="3">
-        <v>-51400</v>
+        <v>-52300</v>
       </c>
       <c r="G27" s="3">
-        <v>-44900</v>
+        <v>-39400</v>
       </c>
       <c r="H27" s="3">
-        <v>-53800</v>
+        <v>-51000</v>
       </c>
       <c r="I27" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-35800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-48800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-64900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-95400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-44700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-51900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-63400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-94500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-32600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-35200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-15200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1900</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52800</v>
+        <v>-35700</v>
       </c>
       <c r="E33" s="3">
-        <v>-39700</v>
+        <v>-46400</v>
       </c>
       <c r="F33" s="3">
-        <v>-51400</v>
+        <v>-52300</v>
       </c>
       <c r="G33" s="3">
-        <v>-44900</v>
+        <v>-39400</v>
       </c>
       <c r="H33" s="3">
-        <v>-53800</v>
+        <v>-51000</v>
       </c>
       <c r="I33" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-35800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-48800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-64900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-95400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-44700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-51900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-63400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-94500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-32600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-35200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-15200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52800</v>
+        <v>-35700</v>
       </c>
       <c r="E35" s="3">
-        <v>-39700</v>
+        <v>-46400</v>
       </c>
       <c r="F35" s="3">
-        <v>-51400</v>
+        <v>-52300</v>
       </c>
       <c r="G35" s="3">
-        <v>-44900</v>
+        <v>-39400</v>
       </c>
       <c r="H35" s="3">
-        <v>-53800</v>
+        <v>-51000</v>
       </c>
       <c r="I35" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-35800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-48800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-64900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-95400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-44700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-51900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-63400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-94500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-32600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-35200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-15200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2486,55 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>206200</v>
+        <v>211000</v>
       </c>
       <c r="E41" s="3">
-        <v>279100</v>
+        <v>185600</v>
       </c>
       <c r="F41" s="3">
-        <v>135700</v>
+        <v>204400</v>
       </c>
       <c r="G41" s="3">
-        <v>347900</v>
+        <v>276500</v>
       </c>
       <c r="H41" s="3">
-        <v>450200</v>
+        <v>134500</v>
       </c>
       <c r="I41" s="3">
+        <v>344800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>446100</v>
+      </c>
+      <c r="K41" s="3">
         <v>306600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>78900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>244700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>166000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>142800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>160300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>454400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2370,53 +2544,59 @@
       <c r="T41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>378300</v>
+        <v>276900</v>
       </c>
       <c r="E42" s="3">
-        <v>285300</v>
+        <v>249700</v>
       </c>
       <c r="F42" s="3">
-        <v>362000</v>
+        <v>374800</v>
       </c>
       <c r="G42" s="3">
-        <v>305400</v>
+        <v>282700</v>
       </c>
       <c r="H42" s="3">
-        <v>304200</v>
+        <v>358800</v>
       </c>
       <c r="I42" s="3">
+        <v>302700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>301400</v>
+      </c>
+      <c r="K42" s="3">
         <v>404600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>334900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>157400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>260400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>87500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>161000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>100800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2426,53 +2606,59 @@
       <c r="T42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>193300</v>
+        <v>238000</v>
       </c>
       <c r="E43" s="3">
-        <v>248900</v>
+        <v>215200</v>
       </c>
       <c r="F43" s="3">
-        <v>225100</v>
+        <v>191600</v>
       </c>
       <c r="G43" s="3">
-        <v>178500</v>
+        <v>246700</v>
       </c>
       <c r="H43" s="3">
-        <v>161600</v>
+        <v>223100</v>
       </c>
       <c r="I43" s="3">
+        <v>176900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>160100</v>
+      </c>
+      <c r="K43" s="3">
         <v>216100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>181900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>169100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>176300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>175900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>152500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>118900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,53 +2730,59 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>238700</v>
+        <v>208300</v>
       </c>
       <c r="E45" s="3">
-        <v>301400</v>
+        <v>199500</v>
       </c>
       <c r="F45" s="3">
-        <v>291300</v>
+        <v>236600</v>
       </c>
       <c r="G45" s="3">
-        <v>234800</v>
+        <v>298700</v>
       </c>
       <c r="H45" s="3">
-        <v>401400</v>
+        <v>288600</v>
       </c>
       <c r="I45" s="3">
+        <v>232700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>397800</v>
+      </c>
+      <c r="K45" s="3">
         <v>439000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>440800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>462700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>576700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>560000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>526100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>622600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2594,53 +2792,59 @@
       <c r="T45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1016500</v>
+        <v>934200</v>
       </c>
       <c r="E46" s="3">
-        <v>1114700</v>
+        <v>849900</v>
       </c>
       <c r="F46" s="3">
-        <v>1014100</v>
+        <v>1007400</v>
       </c>
       <c r="G46" s="3">
-        <v>1066600</v>
+        <v>1104600</v>
       </c>
       <c r="H46" s="3">
-        <v>1317400</v>
+        <v>1004900</v>
       </c>
       <c r="I46" s="3">
+        <v>1057000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1305500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1366200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1036500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1033900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1179300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>966200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>999800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1296700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2650,53 +2854,59 @@
       <c r="T46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>121900</v>
+        <v>145600</v>
       </c>
       <c r="E47" s="3">
-        <v>93500</v>
+        <v>136200</v>
       </c>
       <c r="F47" s="3">
-        <v>60600</v>
+        <v>120800</v>
       </c>
       <c r="G47" s="3">
-        <v>38700</v>
+        <v>92600</v>
       </c>
       <c r="H47" s="3">
-        <v>35300</v>
+        <v>60100</v>
       </c>
       <c r="I47" s="3">
+        <v>38400</v>
+      </c>
+      <c r="J47" s="3">
         <v>35000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
+        <v>35000</v>
+      </c>
+      <c r="L47" s="3">
         <v>33400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>90600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>85200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>29000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>31100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>32700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2706,53 +2916,59 @@
       <c r="T47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36000</v>
+        <v>36100</v>
       </c>
       <c r="E48" s="3">
-        <v>35800</v>
+        <v>37900</v>
       </c>
       <c r="F48" s="3">
-        <v>24900</v>
+        <v>35700</v>
       </c>
       <c r="G48" s="3">
-        <v>28100</v>
+        <v>35500</v>
       </c>
       <c r="H48" s="3">
-        <v>33100</v>
+        <v>24700</v>
       </c>
       <c r="I48" s="3">
+        <v>27800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K48" s="3">
         <v>33200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>37000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>43600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>48400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>56400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>53300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>45200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2762,53 +2978,59 @@
       <c r="T48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>101300</v>
+        <v>91400</v>
       </c>
       <c r="E49" s="3">
-        <v>109900</v>
+        <v>95400</v>
       </c>
       <c r="F49" s="3">
-        <v>118100</v>
+        <v>100400</v>
       </c>
       <c r="G49" s="3">
-        <v>128500</v>
+        <v>108900</v>
       </c>
       <c r="H49" s="3">
-        <v>135100</v>
+        <v>117000</v>
       </c>
       <c r="I49" s="3">
+        <v>127400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>133900</v>
+      </c>
+      <c r="K49" s="3">
         <v>130400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>133500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>147600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>150400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>148900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>106700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>104400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3164,59 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100700</v>
+        <v>106600</v>
       </c>
       <c r="E52" s="3">
-        <v>96700</v>
+        <v>104600</v>
       </c>
       <c r="F52" s="3">
-        <v>91800</v>
+        <v>99800</v>
       </c>
       <c r="G52" s="3">
-        <v>87100</v>
+        <v>95800</v>
       </c>
       <c r="H52" s="3">
-        <v>83200</v>
+        <v>91000</v>
       </c>
       <c r="I52" s="3">
+        <v>86400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K52" s="3">
         <v>76300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>73200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>71400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>65300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>74000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>67700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>62500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3288,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1376400</v>
+        <v>1313900</v>
       </c>
       <c r="E54" s="3">
-        <v>1450600</v>
+        <v>1224000</v>
       </c>
       <c r="F54" s="3">
-        <v>1309500</v>
+        <v>1364000</v>
       </c>
       <c r="G54" s="3">
-        <v>1349100</v>
+        <v>1437500</v>
       </c>
       <c r="H54" s="3">
-        <v>1604100</v>
+        <v>1297700</v>
       </c>
       <c r="I54" s="3">
+        <v>1336900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1589600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1641100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1313600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1387100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1528600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1274600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1258600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1541600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3402,55 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>162400</v>
+        <v>371500</v>
       </c>
       <c r="E57" s="3">
-        <v>257100</v>
+        <v>307700</v>
       </c>
       <c r="F57" s="3">
-        <v>243700</v>
+        <v>160900</v>
       </c>
       <c r="G57" s="3">
-        <v>234700</v>
+        <v>254800</v>
       </c>
       <c r="H57" s="3">
-        <v>228100</v>
+        <v>241500</v>
       </c>
       <c r="I57" s="3">
+        <v>232600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>226000</v>
+      </c>
+      <c r="K57" s="3">
         <v>211600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>212600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>175700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>53400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>22500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>38300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3198,53 +3460,59 @@
       <c r="T57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>128600</v>
+        <v>38900</v>
       </c>
       <c r="E58" s="3">
-        <v>174300</v>
+        <v>43100</v>
       </c>
       <c r="F58" s="3">
-        <v>170700</v>
+        <v>127400</v>
       </c>
       <c r="G58" s="3">
-        <v>156000</v>
+        <v>172700</v>
       </c>
       <c r="H58" s="3">
-        <v>336500</v>
+        <v>169200</v>
       </c>
       <c r="I58" s="3">
+        <v>154500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>333400</v>
+      </c>
+      <c r="K58" s="3">
         <v>361300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>359400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>372900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>511300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>476000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>449600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>711800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3254,53 +3522,59 @@
       <c r="T58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>469800</v>
+        <v>353200</v>
       </c>
       <c r="E59" s="3">
-        <v>329500</v>
+        <v>310400</v>
       </c>
       <c r="F59" s="3">
-        <v>179500</v>
+        <v>465500</v>
       </c>
       <c r="G59" s="3">
-        <v>169800</v>
+        <v>326600</v>
       </c>
       <c r="H59" s="3">
-        <v>196800</v>
+        <v>177900</v>
       </c>
       <c r="I59" s="3">
+        <v>168200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>195000</v>
+      </c>
+      <c r="K59" s="3">
         <v>127100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>83100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>70400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>195900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>227200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>223600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>207100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3310,53 +3584,59 @@
       <c r="T59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>760700</v>
+        <v>763700</v>
       </c>
       <c r="E60" s="3">
-        <v>760900</v>
+        <v>661200</v>
       </c>
       <c r="F60" s="3">
-        <v>594000</v>
+        <v>753900</v>
       </c>
       <c r="G60" s="3">
-        <v>560400</v>
+        <v>754100</v>
       </c>
       <c r="H60" s="3">
-        <v>761400</v>
+        <v>588600</v>
       </c>
       <c r="I60" s="3">
+        <v>555300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>754500</v>
+      </c>
+      <c r="K60" s="3">
         <v>699900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>655000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>619000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>760600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>714000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>695700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>957100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3366,19 +3646,25 @@
       <c r="T60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>14200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3396,14 +3682,14 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>13500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3422,53 +3708,59 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36200</v>
+        <v>49900</v>
       </c>
       <c r="E62" s="3">
-        <v>56900</v>
+        <v>51200</v>
       </c>
       <c r="F62" s="3">
-        <v>47400</v>
+        <v>35900</v>
       </c>
       <c r="G62" s="3">
-        <v>48500</v>
+        <v>56400</v>
       </c>
       <c r="H62" s="3">
-        <v>63800</v>
+        <v>47000</v>
       </c>
       <c r="I62" s="3">
+        <v>48000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K62" s="3">
         <v>48100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>51000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>70900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>58400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>78500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>71700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>63500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3956,59 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>817400</v>
+        <v>815600</v>
       </c>
       <c r="E66" s="3">
-        <v>824600</v>
+        <v>716300</v>
       </c>
       <c r="F66" s="3">
-        <v>648200</v>
+        <v>810000</v>
       </c>
       <c r="G66" s="3">
-        <v>619400</v>
+        <v>817200</v>
       </c>
       <c r="H66" s="3">
-        <v>838500</v>
+        <v>642400</v>
       </c>
       <c r="I66" s="3">
+        <v>613800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>830900</v>
+      </c>
+      <c r="K66" s="3">
         <v>764500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>723400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>710700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>855700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>819000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>793800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1037300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>11</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4290,59 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>559100</v>
+        <v>498300</v>
       </c>
       <c r="E72" s="3">
-        <v>626000</v>
+        <v>507800</v>
       </c>
       <c r="F72" s="3">
-        <v>661300</v>
+        <v>554000</v>
       </c>
       <c r="G72" s="3">
-        <v>729700</v>
+        <v>620300</v>
       </c>
       <c r="H72" s="3">
-        <v>765600</v>
+        <v>655400</v>
       </c>
       <c r="I72" s="3">
+        <v>723100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>758700</v>
+      </c>
+      <c r="K72" s="3">
         <v>876600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>590200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>676400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>672900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>455700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>464800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>504300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4538,59 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>559100</v>
+        <v>498300</v>
       </c>
       <c r="E76" s="3">
-        <v>626000</v>
+        <v>507800</v>
       </c>
       <c r="F76" s="3">
-        <v>661300</v>
+        <v>554000</v>
       </c>
       <c r="G76" s="3">
-        <v>729700</v>
+        <v>620300</v>
       </c>
       <c r="H76" s="3">
-        <v>765600</v>
+        <v>655400</v>
       </c>
       <c r="I76" s="3">
+        <v>723100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>758700</v>
+      </c>
+      <c r="K76" s="3">
         <v>876600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>590200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>676400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>672900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>455700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>464800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>504300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52800</v>
+        <v>-35700</v>
       </c>
       <c r="E81" s="3">
-        <v>-39700</v>
+        <v>-46400</v>
       </c>
       <c r="F81" s="3">
-        <v>-51400</v>
+        <v>-52300</v>
       </c>
       <c r="G81" s="3">
-        <v>-44900</v>
+        <v>-39400</v>
       </c>
       <c r="H81" s="3">
-        <v>-53800</v>
+        <v>-51000</v>
       </c>
       <c r="I81" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-35800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-48800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-64900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-95400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-44700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-51900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-63400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-94500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-32600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-35200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-15200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>72400</v>
+        <v>47600</v>
       </c>
       <c r="E89" s="3">
-        <v>49000</v>
+        <v>-163400</v>
       </c>
       <c r="F89" s="3">
-        <v>-113100</v>
+        <v>71800</v>
       </c>
       <c r="G89" s="3">
-        <v>-67900</v>
+        <v>48600</v>
       </c>
       <c r="H89" s="3">
-        <v>-58000</v>
+        <v>-112100</v>
       </c>
       <c r="I89" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="K89" s="3">
         <v>119400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-78500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-92100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-53000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-69600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-64800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-92200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-53600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>32400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-39700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-9300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4863,38 +5305,44 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>11</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-7700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-85600</v>
+        <v>-6200</v>
       </c>
       <c r="E94" s="3">
-        <v>96800</v>
+        <v>226400</v>
       </c>
       <c r="F94" s="3">
-        <v>-105500</v>
+        <v>-84900</v>
       </c>
       <c r="G94" s="3">
-        <v>151600</v>
+        <v>96000</v>
       </c>
       <c r="H94" s="3">
-        <v>271600</v>
+        <v>-104600</v>
       </c>
       <c r="I94" s="3">
+        <v>150200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>269100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-260700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-69200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>267900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-264300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>40700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>33900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>275700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>202700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-981100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-14000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5793,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-57200</v>
+        <v>-19700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3000</v>
+        <v>-81300</v>
       </c>
       <c r="F100" s="3">
+        <v>-56700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H100" s="3">
         <v>9000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-186400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-132200</v>
-      </c>
       <c r="I100" s="3">
+        <v>-184700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="K100" s="3">
         <v>457300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-104400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>340800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>10000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-265600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>185700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-157100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>566600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>414700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>4500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>3400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>5500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-7000</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-72800</v>
+        <v>25500</v>
       </c>
       <c r="E102" s="3">
-        <v>143400</v>
+        <v>-18800</v>
       </c>
       <c r="F102" s="3">
-        <v>-212200</v>
+        <v>-72200</v>
       </c>
       <c r="G102" s="3">
-        <v>-102300</v>
+        <v>142100</v>
       </c>
       <c r="H102" s="3">
-        <v>63700</v>
+        <v>-210300</v>
       </c>
       <c r="I102" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K102" s="3">
         <v>307700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-151400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>75900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>25100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-20900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-294200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>368100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-54700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>81500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-448700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>384400</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>165600</v>
+        <v>157800</v>
       </c>
       <c r="E8" s="3">
-        <v>148800</v>
+        <v>141800</v>
       </c>
       <c r="F8" s="3">
-        <v>187000</v>
+        <v>178200</v>
       </c>
       <c r="G8" s="3">
-        <v>155500</v>
+        <v>148200</v>
       </c>
       <c r="H8" s="3">
-        <v>141300</v>
+        <v>134700</v>
       </c>
       <c r="I8" s="3">
-        <v>119700</v>
+        <v>114100</v>
       </c>
       <c r="J8" s="3">
-        <v>157100</v>
+        <v>149700</v>
       </c>
       <c r="K8" s="3">
         <v>129900</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>105700</v>
+        <v>100700</v>
       </c>
       <c r="E9" s="3">
-        <v>97800</v>
+        <v>93300</v>
       </c>
       <c r="F9" s="3">
-        <v>121200</v>
+        <v>115600</v>
       </c>
       <c r="G9" s="3">
-        <v>100200</v>
+        <v>95500</v>
       </c>
       <c r="H9" s="3">
-        <v>93200</v>
+        <v>88800</v>
       </c>
       <c r="I9" s="3">
-        <v>79000</v>
+        <v>75300</v>
       </c>
       <c r="J9" s="3">
-        <v>103300</v>
+        <v>98500</v>
       </c>
       <c r="K9" s="3">
         <v>74500</v>
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>59900</v>
+        <v>57100</v>
       </c>
       <c r="E10" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="F10" s="3">
-        <v>65700</v>
+        <v>62700</v>
       </c>
       <c r="G10" s="3">
-        <v>55300</v>
+        <v>52700</v>
       </c>
       <c r="H10" s="3">
-        <v>48100</v>
+        <v>45900</v>
       </c>
       <c r="I10" s="3">
-        <v>40700</v>
+        <v>38800</v>
       </c>
       <c r="J10" s="3">
-        <v>53800</v>
+        <v>51300</v>
       </c>
       <c r="K10" s="3">
         <v>55400</v>
@@ -970,25 +970,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>55100</v>
+        <v>52500</v>
       </c>
       <c r="E12" s="3">
-        <v>53000</v>
+        <v>50500</v>
       </c>
       <c r="F12" s="3">
-        <v>56900</v>
+        <v>54200</v>
       </c>
       <c r="G12" s="3">
-        <v>47200</v>
+        <v>45000</v>
       </c>
       <c r="H12" s="3">
-        <v>52400</v>
+        <v>49900</v>
       </c>
       <c r="I12" s="3">
-        <v>41100</v>
+        <v>39200</v>
       </c>
       <c r="J12" s="3">
-        <v>51000</v>
+        <v>48600</v>
       </c>
       <c r="K12" s="3">
         <v>43600</v>
@@ -1097,22 +1097,22 @@
         <v>-300</v>
       </c>
       <c r="E14" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F14" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H14" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="I14" s="3">
         <v>1000</v>
       </c>
       <c r="J14" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="K14" s="3">
         <v>2000</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>206100</v>
+        <v>196500</v>
       </c>
       <c r="E17" s="3">
-        <v>200600</v>
+        <v>191200</v>
       </c>
       <c r="F17" s="3">
-        <v>242500</v>
+        <v>231100</v>
       </c>
       <c r="G17" s="3">
-        <v>196800</v>
+        <v>187600</v>
       </c>
       <c r="H17" s="3">
-        <v>199100</v>
+        <v>189700</v>
       </c>
       <c r="I17" s="3">
-        <v>170300</v>
+        <v>162300</v>
       </c>
       <c r="J17" s="3">
-        <v>217500</v>
+        <v>207300</v>
       </c>
       <c r="K17" s="3">
         <v>166800</v>
@@ -1301,25 +1301,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-40500</v>
+        <v>-38600</v>
       </c>
       <c r="E18" s="3">
-        <v>-51800</v>
+        <v>-49400</v>
       </c>
       <c r="F18" s="3">
-        <v>-55500</v>
+        <v>-52900</v>
       </c>
       <c r="G18" s="3">
-        <v>-41300</v>
+        <v>-39400</v>
       </c>
       <c r="H18" s="3">
-        <v>-57700</v>
+        <v>-55000</v>
       </c>
       <c r="I18" s="3">
-        <v>-50500</v>
+        <v>-48200</v>
       </c>
       <c r="J18" s="3">
-        <v>-60400</v>
+        <v>-57600</v>
       </c>
       <c r="K18" s="3">
         <v>-36900</v>
@@ -1396,16 +1396,16 @@
         <v>-1800</v>
       </c>
       <c r="G20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I20" s="3">
         <v>-500</v>
       </c>
       <c r="J20" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K20" s="3">
         <v>-2400</v>
@@ -1449,25 +1449,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-40400</v>
+        <v>-38500</v>
       </c>
       <c r="E21" s="3">
-        <v>-44900</v>
+        <v>-42800</v>
       </c>
       <c r="F21" s="3">
-        <v>-57200</v>
+        <v>-54500</v>
       </c>
       <c r="G21" s="3">
-        <v>-44700</v>
+        <v>-42600</v>
       </c>
       <c r="H21" s="3">
-        <v>-58400</v>
+        <v>-55700</v>
       </c>
       <c r="I21" s="3">
-        <v>-39800</v>
+        <v>-37900</v>
       </c>
       <c r="J21" s="3">
-        <v>-62700</v>
+        <v>-59800</v>
       </c>
       <c r="K21" s="3">
         <v>-39200</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-40000</v>
+        <v>-38100</v>
       </c>
       <c r="E23" s="3">
-        <v>-51600</v>
+        <v>-49100</v>
       </c>
       <c r="F23" s="3">
-        <v>-57400</v>
+        <v>-54700</v>
       </c>
       <c r="G23" s="3">
-        <v>-43300</v>
+        <v>-41300</v>
       </c>
       <c r="H23" s="3">
-        <v>-58900</v>
+        <v>-56100</v>
       </c>
       <c r="I23" s="3">
-        <v>-51100</v>
+        <v>-48700</v>
       </c>
       <c r="J23" s="3">
-        <v>-62900</v>
+        <v>-59900</v>
       </c>
       <c r="K23" s="3">
         <v>-39400</v>
@@ -1635,25 +1635,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E24" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="F24" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="G24" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="H24" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="I24" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="J24" s="3">
-        <v>-6400</v>
+        <v>-6100</v>
       </c>
       <c r="K24" s="3">
         <v>-2700</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-37700</v>
+        <v>-35900</v>
       </c>
       <c r="E26" s="3">
-        <v>-48500</v>
+        <v>-46300</v>
       </c>
       <c r="F26" s="3">
-        <v>-53000</v>
+        <v>-50600</v>
       </c>
       <c r="G26" s="3">
-        <v>-39400</v>
+        <v>-37600</v>
       </c>
       <c r="H26" s="3">
-        <v>-54700</v>
+        <v>-52100</v>
       </c>
       <c r="I26" s="3">
-        <v>-47100</v>
+        <v>-44900</v>
       </c>
       <c r="J26" s="3">
-        <v>-56500</v>
+        <v>-53900</v>
       </c>
       <c r="K26" s="3">
         <v>-36700</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35700</v>
+        <v>-34100</v>
       </c>
       <c r="E27" s="3">
-        <v>-46400</v>
+        <v>-44200</v>
       </c>
       <c r="F27" s="3">
-        <v>-52300</v>
+        <v>-49900</v>
       </c>
       <c r="G27" s="3">
-        <v>-39400</v>
+        <v>-37500</v>
       </c>
       <c r="H27" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="I27" s="3">
-        <v>-44500</v>
+        <v>-42400</v>
       </c>
       <c r="J27" s="3">
-        <v>-53300</v>
+        <v>-50800</v>
       </c>
       <c r="K27" s="3">
         <v>-35800</v>
@@ -2140,16 +2140,16 @@
         <v>1800</v>
       </c>
       <c r="G32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H32" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I32" s="3">
         <v>500</v>
       </c>
       <c r="J32" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K32" s="3">
         <v>2400</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35700</v>
+        <v>-34100</v>
       </c>
       <c r="E33" s="3">
-        <v>-46400</v>
+        <v>-44200</v>
       </c>
       <c r="F33" s="3">
-        <v>-52300</v>
+        <v>-49900</v>
       </c>
       <c r="G33" s="3">
-        <v>-39400</v>
+        <v>-37500</v>
       </c>
       <c r="H33" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="I33" s="3">
-        <v>-44500</v>
+        <v>-42400</v>
       </c>
       <c r="J33" s="3">
-        <v>-53300</v>
+        <v>-50800</v>
       </c>
       <c r="K33" s="3">
         <v>-35800</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35700</v>
+        <v>-34100</v>
       </c>
       <c r="E35" s="3">
-        <v>-46400</v>
+        <v>-44200</v>
       </c>
       <c r="F35" s="3">
-        <v>-52300</v>
+        <v>-49900</v>
       </c>
       <c r="G35" s="3">
-        <v>-39400</v>
+        <v>-37500</v>
       </c>
       <c r="H35" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="I35" s="3">
-        <v>-44500</v>
+        <v>-42400</v>
       </c>
       <c r="J35" s="3">
-        <v>-53300</v>
+        <v>-50800</v>
       </c>
       <c r="K35" s="3">
         <v>-35800</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>211000</v>
+        <v>201200</v>
       </c>
       <c r="E41" s="3">
-        <v>185600</v>
+        <v>176900</v>
       </c>
       <c r="F41" s="3">
-        <v>204400</v>
+        <v>194800</v>
       </c>
       <c r="G41" s="3">
-        <v>276500</v>
+        <v>263600</v>
       </c>
       <c r="H41" s="3">
-        <v>134500</v>
+        <v>128200</v>
       </c>
       <c r="I41" s="3">
-        <v>344800</v>
+        <v>328600</v>
       </c>
       <c r="J41" s="3">
-        <v>446100</v>
+        <v>425300</v>
       </c>
       <c r="K41" s="3">
         <v>306600</v>
@@ -2556,25 +2556,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>276900</v>
+        <v>263900</v>
       </c>
       <c r="E42" s="3">
-        <v>249700</v>
+        <v>238000</v>
       </c>
       <c r="F42" s="3">
-        <v>374800</v>
+        <v>357300</v>
       </c>
       <c r="G42" s="3">
-        <v>282700</v>
+        <v>269500</v>
       </c>
       <c r="H42" s="3">
-        <v>358800</v>
+        <v>342000</v>
       </c>
       <c r="I42" s="3">
-        <v>302700</v>
+        <v>288500</v>
       </c>
       <c r="J42" s="3">
-        <v>301400</v>
+        <v>287300</v>
       </c>
       <c r="K42" s="3">
         <v>404600</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>238000</v>
+        <v>226900</v>
       </c>
       <c r="E43" s="3">
-        <v>215200</v>
+        <v>205200</v>
       </c>
       <c r="F43" s="3">
-        <v>191600</v>
+        <v>182600</v>
       </c>
       <c r="G43" s="3">
-        <v>246700</v>
+        <v>235100</v>
       </c>
       <c r="H43" s="3">
-        <v>223100</v>
+        <v>212600</v>
       </c>
       <c r="I43" s="3">
-        <v>176900</v>
+        <v>168600</v>
       </c>
       <c r="J43" s="3">
-        <v>160100</v>
+        <v>152600</v>
       </c>
       <c r="K43" s="3">
         <v>216100</v>
@@ -2742,25 +2742,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>208300</v>
+        <v>198500</v>
       </c>
       <c r="E45" s="3">
-        <v>199500</v>
+        <v>190100</v>
       </c>
       <c r="F45" s="3">
-        <v>236600</v>
+        <v>225500</v>
       </c>
       <c r="G45" s="3">
-        <v>298700</v>
+        <v>284700</v>
       </c>
       <c r="H45" s="3">
-        <v>288600</v>
+        <v>275100</v>
       </c>
       <c r="I45" s="3">
-        <v>232700</v>
+        <v>221800</v>
       </c>
       <c r="J45" s="3">
-        <v>397800</v>
+        <v>379200</v>
       </c>
       <c r="K45" s="3">
         <v>439000</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>934200</v>
+        <v>890500</v>
       </c>
       <c r="E46" s="3">
-        <v>849900</v>
+        <v>810200</v>
       </c>
       <c r="F46" s="3">
-        <v>1007400</v>
+        <v>960300</v>
       </c>
       <c r="G46" s="3">
-        <v>1104600</v>
+        <v>1053000</v>
       </c>
       <c r="H46" s="3">
-        <v>1004900</v>
+        <v>957900</v>
       </c>
       <c r="I46" s="3">
-        <v>1057000</v>
+        <v>1007500</v>
       </c>
       <c r="J46" s="3">
-        <v>1305500</v>
+        <v>1244400</v>
       </c>
       <c r="K46" s="3">
         <v>1366200</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>145600</v>
+        <v>138800</v>
       </c>
       <c r="E47" s="3">
-        <v>136200</v>
+        <v>129900</v>
       </c>
       <c r="F47" s="3">
-        <v>120800</v>
+        <v>115200</v>
       </c>
       <c r="G47" s="3">
-        <v>92600</v>
+        <v>88300</v>
       </c>
       <c r="H47" s="3">
-        <v>60100</v>
+        <v>57300</v>
       </c>
       <c r="I47" s="3">
-        <v>38400</v>
+        <v>36600</v>
       </c>
       <c r="J47" s="3">
-        <v>35000</v>
+        <v>33400</v>
       </c>
       <c r="K47" s="3">
         <v>35000</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E48" s="3">
         <v>36100</v>
       </c>
-      <c r="E48" s="3">
-        <v>37900</v>
-      </c>
       <c r="F48" s="3">
-        <v>35700</v>
+        <v>34000</v>
       </c>
       <c r="G48" s="3">
-        <v>35500</v>
+        <v>33900</v>
       </c>
       <c r="H48" s="3">
-        <v>24700</v>
+        <v>23500</v>
       </c>
       <c r="I48" s="3">
-        <v>27800</v>
+        <v>26500</v>
       </c>
       <c r="J48" s="3">
-        <v>32800</v>
+        <v>31200</v>
       </c>
       <c r="K48" s="3">
         <v>33200</v>
@@ -2990,25 +2990,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>91400</v>
+        <v>87100</v>
       </c>
       <c r="E49" s="3">
-        <v>95400</v>
+        <v>90900</v>
       </c>
       <c r="F49" s="3">
-        <v>100400</v>
+        <v>95700</v>
       </c>
       <c r="G49" s="3">
-        <v>108900</v>
+        <v>103800</v>
       </c>
       <c r="H49" s="3">
-        <v>117000</v>
+        <v>111600</v>
       </c>
       <c r="I49" s="3">
-        <v>127400</v>
+        <v>121400</v>
       </c>
       <c r="J49" s="3">
-        <v>133900</v>
+        <v>127700</v>
       </c>
       <c r="K49" s="3">
         <v>130400</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>106600</v>
+        <v>101600</v>
       </c>
       <c r="E52" s="3">
-        <v>104600</v>
+        <v>99700</v>
       </c>
       <c r="F52" s="3">
-        <v>99800</v>
+        <v>95100</v>
       </c>
       <c r="G52" s="3">
-        <v>95800</v>
+        <v>91300</v>
       </c>
       <c r="H52" s="3">
-        <v>91000</v>
+        <v>86800</v>
       </c>
       <c r="I52" s="3">
-        <v>86400</v>
+        <v>82300</v>
       </c>
       <c r="J52" s="3">
-        <v>82400</v>
+        <v>78600</v>
       </c>
       <c r="K52" s="3">
         <v>76300</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1313900</v>
+        <v>1252400</v>
       </c>
       <c r="E54" s="3">
-        <v>1224000</v>
+        <v>1166800</v>
       </c>
       <c r="F54" s="3">
-        <v>1364000</v>
+        <v>1300200</v>
       </c>
       <c r="G54" s="3">
-        <v>1437500</v>
+        <v>1370300</v>
       </c>
       <c r="H54" s="3">
-        <v>1297700</v>
+        <v>1237000</v>
       </c>
       <c r="I54" s="3">
-        <v>1336900</v>
+        <v>1274400</v>
       </c>
       <c r="J54" s="3">
-        <v>1589600</v>
+        <v>1515200</v>
       </c>
       <c r="K54" s="3">
         <v>1641100</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>371500</v>
+        <v>354200</v>
       </c>
       <c r="E57" s="3">
-        <v>307700</v>
+        <v>293300</v>
       </c>
       <c r="F57" s="3">
-        <v>160900</v>
+        <v>153400</v>
       </c>
       <c r="G57" s="3">
-        <v>254800</v>
+        <v>242900</v>
       </c>
       <c r="H57" s="3">
-        <v>241500</v>
+        <v>230200</v>
       </c>
       <c r="I57" s="3">
-        <v>232600</v>
+        <v>221700</v>
       </c>
       <c r="J57" s="3">
-        <v>226000</v>
+        <v>215500</v>
       </c>
       <c r="K57" s="3">
         <v>211600</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38900</v>
+        <v>37100</v>
       </c>
       <c r="E58" s="3">
-        <v>43100</v>
+        <v>41000</v>
       </c>
       <c r="F58" s="3">
-        <v>127400</v>
+        <v>121500</v>
       </c>
       <c r="G58" s="3">
-        <v>172700</v>
+        <v>164600</v>
       </c>
       <c r="H58" s="3">
-        <v>169200</v>
+        <v>161300</v>
       </c>
       <c r="I58" s="3">
-        <v>154500</v>
+        <v>147300</v>
       </c>
       <c r="J58" s="3">
-        <v>333400</v>
+        <v>317800</v>
       </c>
       <c r="K58" s="3">
         <v>361300</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>353200</v>
+        <v>336700</v>
       </c>
       <c r="E59" s="3">
-        <v>310400</v>
+        <v>295900</v>
       </c>
       <c r="F59" s="3">
-        <v>465500</v>
+        <v>443800</v>
       </c>
       <c r="G59" s="3">
-        <v>326600</v>
+        <v>311300</v>
       </c>
       <c r="H59" s="3">
-        <v>177900</v>
+        <v>169600</v>
       </c>
       <c r="I59" s="3">
-        <v>168200</v>
+        <v>160400</v>
       </c>
       <c r="J59" s="3">
-        <v>195000</v>
+        <v>185900</v>
       </c>
       <c r="K59" s="3">
         <v>127100</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>763700</v>
+        <v>728000</v>
       </c>
       <c r="E60" s="3">
-        <v>661200</v>
+        <v>630300</v>
       </c>
       <c r="F60" s="3">
-        <v>753900</v>
+        <v>718600</v>
       </c>
       <c r="G60" s="3">
-        <v>754100</v>
+        <v>718800</v>
       </c>
       <c r="H60" s="3">
-        <v>588600</v>
+        <v>561100</v>
       </c>
       <c r="I60" s="3">
-        <v>555300</v>
+        <v>529300</v>
       </c>
       <c r="J60" s="3">
-        <v>754500</v>
+        <v>719200</v>
       </c>
       <c r="K60" s="3">
         <v>699900</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49900</v>
+        <v>47600</v>
       </c>
       <c r="E62" s="3">
-        <v>51200</v>
+        <v>48800</v>
       </c>
       <c r="F62" s="3">
-        <v>35900</v>
+        <v>34200</v>
       </c>
       <c r="G62" s="3">
-        <v>56400</v>
+        <v>53800</v>
       </c>
       <c r="H62" s="3">
-        <v>47000</v>
+        <v>44800</v>
       </c>
       <c r="I62" s="3">
-        <v>48000</v>
+        <v>45800</v>
       </c>
       <c r="J62" s="3">
-        <v>63300</v>
+        <v>60300</v>
       </c>
       <c r="K62" s="3">
         <v>48100</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>815600</v>
+        <v>777400</v>
       </c>
       <c r="E66" s="3">
-        <v>716300</v>
+        <v>682800</v>
       </c>
       <c r="F66" s="3">
-        <v>810000</v>
+        <v>772100</v>
       </c>
       <c r="G66" s="3">
-        <v>817200</v>
+        <v>779000</v>
       </c>
       <c r="H66" s="3">
-        <v>642400</v>
+        <v>612300</v>
       </c>
       <c r="I66" s="3">
-        <v>613800</v>
+        <v>585100</v>
       </c>
       <c r="J66" s="3">
-        <v>830900</v>
+        <v>792000</v>
       </c>
       <c r="K66" s="3">
         <v>764500</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>498300</v>
+        <v>475000</v>
       </c>
       <c r="E72" s="3">
-        <v>507800</v>
+        <v>484000</v>
       </c>
       <c r="F72" s="3">
-        <v>554000</v>
+        <v>528100</v>
       </c>
       <c r="G72" s="3">
-        <v>620300</v>
+        <v>591300</v>
       </c>
       <c r="H72" s="3">
-        <v>655400</v>
+        <v>624700</v>
       </c>
       <c r="I72" s="3">
-        <v>723100</v>
+        <v>689300</v>
       </c>
       <c r="J72" s="3">
-        <v>758700</v>
+        <v>723200</v>
       </c>
       <c r="K72" s="3">
         <v>876600</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>498300</v>
+        <v>475000</v>
       </c>
       <c r="E76" s="3">
-        <v>507800</v>
+        <v>484000</v>
       </c>
       <c r="F76" s="3">
-        <v>554000</v>
+        <v>528100</v>
       </c>
       <c r="G76" s="3">
-        <v>620300</v>
+        <v>591300</v>
       </c>
       <c r="H76" s="3">
-        <v>655400</v>
+        <v>624700</v>
       </c>
       <c r="I76" s="3">
-        <v>723100</v>
+        <v>689300</v>
       </c>
       <c r="J76" s="3">
-        <v>758700</v>
+        <v>723200</v>
       </c>
       <c r="K76" s="3">
         <v>876600</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35700</v>
+        <v>-34100</v>
       </c>
       <c r="E81" s="3">
-        <v>-46400</v>
+        <v>-44200</v>
       </c>
       <c r="F81" s="3">
-        <v>-52300</v>
+        <v>-49900</v>
       </c>
       <c r="G81" s="3">
-        <v>-39400</v>
+        <v>-37500</v>
       </c>
       <c r="H81" s="3">
-        <v>-51000</v>
+        <v>-48600</v>
       </c>
       <c r="I81" s="3">
-        <v>-44500</v>
+        <v>-42400</v>
       </c>
       <c r="J81" s="3">
-        <v>-53300</v>
+        <v>-50800</v>
       </c>
       <c r="K81" s="3">
         <v>-35800</v>
@@ -5199,25 +5199,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47600</v>
+        <v>45300</v>
       </c>
       <c r="E89" s="3">
-        <v>-163400</v>
+        <v>-155700</v>
       </c>
       <c r="F89" s="3">
-        <v>71800</v>
+        <v>68400</v>
       </c>
       <c r="G89" s="3">
-        <v>48600</v>
+        <v>46300</v>
       </c>
       <c r="H89" s="3">
-        <v>-112100</v>
+        <v>-106900</v>
       </c>
       <c r="I89" s="3">
-        <v>-67300</v>
+        <v>-64100</v>
       </c>
       <c r="J89" s="3">
-        <v>-57500</v>
+        <v>-54800</v>
       </c>
       <c r="K89" s="3">
         <v>119400</v>
@@ -5471,25 +5471,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="E94" s="3">
-        <v>226400</v>
+        <v>215800</v>
       </c>
       <c r="F94" s="3">
-        <v>-84900</v>
+        <v>-80900</v>
       </c>
       <c r="G94" s="3">
-        <v>96000</v>
+        <v>91500</v>
       </c>
       <c r="H94" s="3">
-        <v>-104600</v>
+        <v>-99700</v>
       </c>
       <c r="I94" s="3">
-        <v>150200</v>
+        <v>143200</v>
       </c>
       <c r="J94" s="3">
-        <v>269100</v>
+        <v>256600</v>
       </c>
       <c r="K94" s="3">
         <v>-260700</v>
@@ -5805,25 +5805,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19700</v>
+        <v>-18800</v>
       </c>
       <c r="E100" s="3">
-        <v>-81300</v>
+        <v>-77500</v>
       </c>
       <c r="F100" s="3">
-        <v>-56700</v>
+        <v>-54100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="H100" s="3">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="I100" s="3">
-        <v>-184700</v>
+        <v>-176000</v>
       </c>
       <c r="J100" s="3">
-        <v>-131000</v>
+        <v>-124900</v>
       </c>
       <c r="K100" s="3">
         <v>457300</v>
@@ -5867,25 +5867,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E101" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F101" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H101" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="I101" s="3">
         <v>400</v>
       </c>
       <c r="J101" s="3">
-        <v>-17600</v>
+        <v>-16700</v>
       </c>
       <c r="K101" s="3">
         <v>-8300</v>
@@ -5929,25 +5929,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25500</v>
+        <v>24300</v>
       </c>
       <c r="E102" s="3">
-        <v>-18800</v>
+        <v>-17900</v>
       </c>
       <c r="F102" s="3">
-        <v>-72200</v>
+        <v>-68800</v>
       </c>
       <c r="G102" s="3">
-        <v>142100</v>
+        <v>135400</v>
       </c>
       <c r="H102" s="3">
-        <v>-210300</v>
+        <v>-200500</v>
       </c>
       <c r="I102" s="3">
-        <v>-101400</v>
+        <v>-96600</v>
       </c>
       <c r="J102" s="3">
-        <v>63100</v>
+        <v>60100</v>
       </c>
       <c r="K102" s="3">
         <v>307700</v>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>157800</v>
+        <v>153500</v>
       </c>
       <c r="E8" s="3">
-        <v>141800</v>
+        <v>162800</v>
       </c>
       <c r="F8" s="3">
-        <v>178200</v>
+        <v>146300</v>
       </c>
       <c r="G8" s="3">
-        <v>148200</v>
+        <v>183900</v>
       </c>
       <c r="H8" s="3">
-        <v>134700</v>
+        <v>152900</v>
       </c>
       <c r="I8" s="3">
+        <v>139000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>117700</v>
+      </c>
+      <c r="K8" s="3">
+        <v>149700</v>
+      </c>
+      <c r="L8" s="3">
+        <v>129900</v>
+      </c>
+      <c r="M8" s="3">
         <v>114100</v>
       </c>
-      <c r="J8" s="3">
-        <v>149700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>129900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>114100</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>90900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>119000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>91200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>79700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>68500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>77700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>55100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>41500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>34100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100700</v>
+        <v>99700</v>
       </c>
       <c r="E9" s="3">
-        <v>93300</v>
+        <v>103900</v>
       </c>
       <c r="F9" s="3">
-        <v>115600</v>
+        <v>96200</v>
       </c>
       <c r="G9" s="3">
-        <v>95500</v>
+        <v>119200</v>
       </c>
       <c r="H9" s="3">
-        <v>88800</v>
+        <v>98600</v>
       </c>
       <c r="I9" s="3">
-        <v>75300</v>
+        <v>91700</v>
       </c>
       <c r="J9" s="3">
+        <v>77700</v>
+      </c>
+      <c r="K9" s="3">
         <v>98500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>70300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>59300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>79000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>56000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>41900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>34700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>55200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>23200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>18400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>57100</v>
+        <v>53800</v>
       </c>
       <c r="E10" s="3">
-        <v>48600</v>
+        <v>58900</v>
       </c>
       <c r="F10" s="3">
-        <v>62700</v>
+        <v>50100</v>
       </c>
       <c r="G10" s="3">
-        <v>52700</v>
+        <v>64700</v>
       </c>
       <c r="H10" s="3">
-        <v>45900</v>
+        <v>54300</v>
       </c>
       <c r="I10" s="3">
-        <v>38800</v>
+        <v>47300</v>
       </c>
       <c r="J10" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K10" s="3">
         <v>51300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>40000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>15700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>52500</v>
+        <v>41300</v>
       </c>
       <c r="E12" s="3">
-        <v>50500</v>
+        <v>54200</v>
       </c>
       <c r="F12" s="3">
-        <v>54200</v>
+        <v>52100</v>
       </c>
       <c r="G12" s="3">
-        <v>45000</v>
+        <v>56000</v>
       </c>
       <c r="H12" s="3">
-        <v>49900</v>
+        <v>46400</v>
       </c>
       <c r="I12" s="3">
-        <v>39200</v>
+        <v>51500</v>
       </c>
       <c r="J12" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K12" s="3">
         <v>48600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>43600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>42600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>37500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>47700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>38400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>31900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>18600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,47 +1105,50 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
-        <v>2400</v>
-      </c>
       <c r="F14" s="3">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H14" s="3">
         <v>2600</v>
       </c>
-      <c r="H14" s="3">
-        <v>5300</v>
-      </c>
       <c r="I14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1141,8 +1161,8 @@
       <c r="S14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,35 +1208,38 @@
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="3">
         <v>5100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="3">
-        <v>15400</v>
+      <c r="P15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q15" s="3">
         <v>15400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>11</v>
+      <c r="R15" s="3">
+        <v>15400</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="3">
         <v>8300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>8100</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>196500</v>
+        <v>175800</v>
       </c>
       <c r="E17" s="3">
-        <v>191200</v>
+        <v>202700</v>
       </c>
       <c r="F17" s="3">
-        <v>231100</v>
+        <v>197300</v>
       </c>
       <c r="G17" s="3">
-        <v>187600</v>
+        <v>238500</v>
       </c>
       <c r="H17" s="3">
-        <v>189700</v>
+        <v>193600</v>
       </c>
       <c r="I17" s="3">
-        <v>162300</v>
+        <v>195800</v>
       </c>
       <c r="J17" s="3">
+        <v>167400</v>
+      </c>
+      <c r="K17" s="3">
         <v>207300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>166800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>167200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>160700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>208500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>138800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>133800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>138800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>159700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>95800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>65500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>53300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-38600</v>
+        <v>-22200</v>
       </c>
       <c r="E18" s="3">
-        <v>-49400</v>
+        <v>-39900</v>
       </c>
       <c r="F18" s="3">
-        <v>-52900</v>
+        <v>-51000</v>
       </c>
       <c r="G18" s="3">
-        <v>-39400</v>
+        <v>-54600</v>
       </c>
       <c r="H18" s="3">
-        <v>-55000</v>
+        <v>-40700</v>
       </c>
       <c r="I18" s="3">
-        <v>-48200</v>
+        <v>-56800</v>
       </c>
       <c r="J18" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-57600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-53100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-69700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-89500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-47600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-54100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-70300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-81900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-40700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-24000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-19100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1414,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-38500</v>
+        <v>-22900</v>
       </c>
       <c r="E21" s="3">
-        <v>-42800</v>
+        <v>-39700</v>
       </c>
       <c r="F21" s="3">
-        <v>-54500</v>
+        <v>-44200</v>
       </c>
       <c r="G21" s="3">
-        <v>-42600</v>
+        <v>-56300</v>
       </c>
       <c r="H21" s="3">
-        <v>-55700</v>
+        <v>-44000</v>
       </c>
       <c r="I21" s="3">
-        <v>-37900</v>
+        <v>-57500</v>
       </c>
       <c r="J21" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-59800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-39200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-56200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-63000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-85900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-48400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-49800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-46100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-75700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-41400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-24800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7800</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1540,159 +1580,168 @@
       <c r="M22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="3">
         <v>6500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7400</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="3">
         <v>1700</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38100</v>
+        <v>-22000</v>
       </c>
       <c r="E23" s="3">
-        <v>-49100</v>
+        <v>-39300</v>
       </c>
       <c r="F23" s="3">
-        <v>-54700</v>
+        <v>-50700</v>
       </c>
       <c r="G23" s="3">
-        <v>-41300</v>
+        <v>-56400</v>
       </c>
       <c r="H23" s="3">
-        <v>-56100</v>
+        <v>-42600</v>
       </c>
       <c r="I23" s="3">
-        <v>-48700</v>
+        <v>-57900</v>
       </c>
       <c r="J23" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-59900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-39400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-57000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-73000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-90600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-50700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-73200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-83600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-43400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-26200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-19900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-37100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2200</v>
+        <v>-1800</v>
       </c>
       <c r="E24" s="3">
-        <v>-2900</v>
+        <v>-2300</v>
       </c>
       <c r="F24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I24" s="3">
         <v>-4100</v>
       </c>
-      <c r="G24" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-3700</v>
-      </c>
       <c r="J24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-10100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35900</v>
+        <v>-20200</v>
       </c>
       <c r="E26" s="3">
-        <v>-46300</v>
+        <v>-37000</v>
       </c>
       <c r="F26" s="3">
-        <v>-50600</v>
+        <v>-47700</v>
       </c>
       <c r="G26" s="3">
-        <v>-37600</v>
+        <v>-52200</v>
       </c>
       <c r="H26" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-52100</v>
       </c>
-      <c r="I26" s="3">
-        <v>-44900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-53900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-50900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-67800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-98300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-45400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-52100</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-63700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-93000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-33300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-35200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34100</v>
+        <v>-19000</v>
       </c>
       <c r="E27" s="3">
-        <v>-44200</v>
+        <v>-35200</v>
       </c>
       <c r="F27" s="3">
-        <v>-49900</v>
+        <v>-45600</v>
       </c>
       <c r="G27" s="3">
-        <v>-37500</v>
+        <v>-51500</v>
       </c>
       <c r="H27" s="3">
-        <v>-48600</v>
+        <v>-38700</v>
       </c>
       <c r="I27" s="3">
-        <v>-42400</v>
+        <v>-50100</v>
       </c>
       <c r="J27" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-50800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-35800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-48800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-64900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-95400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-44700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-51900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-63400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-94500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-32600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-35200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
-        <v>1900</v>
-      </c>
       <c r="H32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34100</v>
+        <v>-19000</v>
       </c>
       <c r="E33" s="3">
-        <v>-44200</v>
+        <v>-35200</v>
       </c>
       <c r="F33" s="3">
-        <v>-49900</v>
+        <v>-45600</v>
       </c>
       <c r="G33" s="3">
-        <v>-37500</v>
+        <v>-51500</v>
       </c>
       <c r="H33" s="3">
-        <v>-48600</v>
+        <v>-38700</v>
       </c>
       <c r="I33" s="3">
-        <v>-42400</v>
+        <v>-50100</v>
       </c>
       <c r="J33" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-50800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-35800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-48800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-64900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-95400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-44700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-51900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-63400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-94500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-32600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-35200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34100</v>
+        <v>-19000</v>
       </c>
       <c r="E35" s="3">
-        <v>-44200</v>
+        <v>-35200</v>
       </c>
       <c r="F35" s="3">
-        <v>-49900</v>
+        <v>-45600</v>
       </c>
       <c r="G35" s="3">
-        <v>-37500</v>
+        <v>-51500</v>
       </c>
       <c r="H35" s="3">
-        <v>-48600</v>
+        <v>-38700</v>
       </c>
       <c r="I35" s="3">
-        <v>-42400</v>
+        <v>-50100</v>
       </c>
       <c r="J35" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-50800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-35800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-48800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-64900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-95400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-44700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-51900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-63400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-94500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-32600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-35200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2574,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>201200</v>
+        <v>209100</v>
       </c>
       <c r="E41" s="3">
-        <v>176900</v>
+        <v>207500</v>
       </c>
       <c r="F41" s="3">
-        <v>194800</v>
+        <v>182500</v>
       </c>
       <c r="G41" s="3">
-        <v>263600</v>
+        <v>201000</v>
       </c>
       <c r="H41" s="3">
-        <v>128200</v>
+        <v>272000</v>
       </c>
       <c r="I41" s="3">
-        <v>328600</v>
+        <v>132200</v>
       </c>
       <c r="J41" s="3">
+        <v>339100</v>
+      </c>
+      <c r="K41" s="3">
         <v>425300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>306600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>78900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>244700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>166000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>142800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>160300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>454400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2550,56 +2637,59 @@
       <c r="V41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>263900</v>
+        <v>292700</v>
       </c>
       <c r="E42" s="3">
-        <v>238000</v>
+        <v>272300</v>
       </c>
       <c r="F42" s="3">
-        <v>357300</v>
+        <v>245500</v>
       </c>
       <c r="G42" s="3">
-        <v>269500</v>
+        <v>368700</v>
       </c>
       <c r="H42" s="3">
-        <v>342000</v>
+        <v>278000</v>
       </c>
       <c r="I42" s="3">
-        <v>288500</v>
+        <v>352800</v>
       </c>
       <c r="J42" s="3">
+        <v>297700</v>
+      </c>
+      <c r="K42" s="3">
         <v>287300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>404600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>334900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>157400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>260400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>87500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>161000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>100800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2612,56 +2702,59 @@
       <c r="V42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>226900</v>
+        <v>200200</v>
       </c>
       <c r="E43" s="3">
-        <v>205200</v>
+        <v>234100</v>
       </c>
       <c r="F43" s="3">
-        <v>182600</v>
+        <v>211700</v>
       </c>
       <c r="G43" s="3">
-        <v>235100</v>
+        <v>188400</v>
       </c>
       <c r="H43" s="3">
-        <v>212600</v>
+        <v>242600</v>
       </c>
       <c r="I43" s="3">
-        <v>168600</v>
+        <v>219400</v>
       </c>
       <c r="J43" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K43" s="3">
         <v>152600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>216100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>181900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>169100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>176300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>175900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>152500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>118900</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,56 +2832,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>198500</v>
+        <v>208300</v>
       </c>
       <c r="E45" s="3">
-        <v>190100</v>
+        <v>204800</v>
       </c>
       <c r="F45" s="3">
-        <v>225500</v>
+        <v>196200</v>
       </c>
       <c r="G45" s="3">
-        <v>284700</v>
+        <v>232700</v>
       </c>
       <c r="H45" s="3">
-        <v>275100</v>
+        <v>293800</v>
       </c>
       <c r="I45" s="3">
-        <v>221800</v>
+        <v>283900</v>
       </c>
       <c r="J45" s="3">
+        <v>228800</v>
+      </c>
+      <c r="K45" s="3">
         <v>379200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>439000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>440800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>462700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>576700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>560000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>526100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>622600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2798,56 +2897,59 @@
       <c r="V45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>890500</v>
+        <v>910200</v>
       </c>
       <c r="E46" s="3">
-        <v>810200</v>
+        <v>918800</v>
       </c>
       <c r="F46" s="3">
-        <v>960300</v>
+        <v>835900</v>
       </c>
       <c r="G46" s="3">
-        <v>1053000</v>
+        <v>990700</v>
       </c>
       <c r="H46" s="3">
-        <v>957900</v>
+        <v>1086400</v>
       </c>
       <c r="I46" s="3">
-        <v>1007500</v>
+        <v>988400</v>
       </c>
       <c r="J46" s="3">
+        <v>1039500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1244400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1366200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1036500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1033900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1179300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>966200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>999800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1296700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2860,56 +2962,59 @@
       <c r="V46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>138800</v>
+        <v>150700</v>
       </c>
       <c r="E47" s="3">
-        <v>129900</v>
+        <v>143200</v>
       </c>
       <c r="F47" s="3">
-        <v>115200</v>
+        <v>134000</v>
       </c>
       <c r="G47" s="3">
-        <v>88300</v>
+        <v>118800</v>
       </c>
       <c r="H47" s="3">
-        <v>57300</v>
+        <v>91100</v>
       </c>
       <c r="I47" s="3">
-        <v>36600</v>
+        <v>59100</v>
       </c>
       <c r="J47" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K47" s="3">
         <v>33400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>35000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>33400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>90600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>85200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>31100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>32700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>11</v>
       </c>
@@ -2922,56 +3027,59 @@
       <c r="V47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34400</v>
+        <v>31900</v>
       </c>
       <c r="E48" s="3">
-        <v>36100</v>
+        <v>35500</v>
       </c>
       <c r="F48" s="3">
-        <v>34000</v>
+        <v>37300</v>
       </c>
       <c r="G48" s="3">
-        <v>33900</v>
+        <v>35100</v>
       </c>
       <c r="H48" s="3">
-        <v>23500</v>
+        <v>34900</v>
       </c>
       <c r="I48" s="3">
-        <v>26500</v>
+        <v>24300</v>
       </c>
       <c r="J48" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K48" s="3">
         <v>31200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>48400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>56400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>53300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>45200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>11</v>
       </c>
@@ -2984,56 +3092,59 @@
       <c r="V48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>87100</v>
+        <v>87000</v>
       </c>
       <c r="E49" s="3">
-        <v>90900</v>
+        <v>89900</v>
       </c>
       <c r="F49" s="3">
-        <v>95700</v>
+        <v>93800</v>
       </c>
       <c r="G49" s="3">
-        <v>103800</v>
+        <v>98700</v>
       </c>
       <c r="H49" s="3">
-        <v>111600</v>
+        <v>107100</v>
       </c>
       <c r="I49" s="3">
-        <v>121400</v>
+        <v>115100</v>
       </c>
       <c r="J49" s="3">
+        <v>125300</v>
+      </c>
+      <c r="K49" s="3">
         <v>127700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>130400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>133500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>147600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>150400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>148900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>106700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>104400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,56 +3287,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>101600</v>
+        <v>107600</v>
       </c>
       <c r="E52" s="3">
-        <v>99700</v>
+        <v>104900</v>
       </c>
       <c r="F52" s="3">
-        <v>95100</v>
+        <v>102900</v>
       </c>
       <c r="G52" s="3">
-        <v>91300</v>
+        <v>98100</v>
       </c>
       <c r="H52" s="3">
-        <v>86800</v>
+        <v>94200</v>
       </c>
       <c r="I52" s="3">
-        <v>82300</v>
+        <v>89500</v>
       </c>
       <c r="J52" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K52" s="3">
         <v>78600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>71400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>74000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>62500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1252400</v>
+        <v>1287400</v>
       </c>
       <c r="E54" s="3">
-        <v>1166800</v>
+        <v>1292200</v>
       </c>
       <c r="F54" s="3">
-        <v>1300200</v>
+        <v>1203800</v>
       </c>
       <c r="G54" s="3">
-        <v>1370300</v>
+        <v>1341500</v>
       </c>
       <c r="H54" s="3">
-        <v>1237000</v>
+        <v>1413800</v>
       </c>
       <c r="I54" s="3">
-        <v>1274400</v>
+        <v>1276300</v>
       </c>
       <c r="J54" s="3">
+        <v>1314900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1515200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1641100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1313600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1387100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1528600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1274600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1258600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1541600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,56 +3534,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>354200</v>
+        <v>350800</v>
       </c>
       <c r="E57" s="3">
-        <v>293300</v>
+        <v>365400</v>
       </c>
       <c r="F57" s="3">
-        <v>153400</v>
+        <v>302600</v>
       </c>
       <c r="G57" s="3">
-        <v>242900</v>
+        <v>158200</v>
       </c>
       <c r="H57" s="3">
-        <v>230200</v>
+        <v>250600</v>
       </c>
       <c r="I57" s="3">
-        <v>221700</v>
+        <v>237500</v>
       </c>
       <c r="J57" s="3">
+        <v>228700</v>
+      </c>
+      <c r="K57" s="3">
         <v>215500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>211600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>212600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>175700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3466,56 +3597,59 @@
       <c r="V57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37100</v>
+        <v>47200</v>
       </c>
       <c r="E58" s="3">
-        <v>41000</v>
+        <v>38300</v>
       </c>
       <c r="F58" s="3">
-        <v>121500</v>
+        <v>42300</v>
       </c>
       <c r="G58" s="3">
-        <v>164600</v>
+        <v>125300</v>
       </c>
       <c r="H58" s="3">
-        <v>161300</v>
+        <v>169800</v>
       </c>
       <c r="I58" s="3">
-        <v>147300</v>
+        <v>166400</v>
       </c>
       <c r="J58" s="3">
+        <v>152000</v>
+      </c>
+      <c r="K58" s="3">
         <v>317800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>361300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>359400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>372900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>511300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>476000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>449600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>711800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3528,56 +3662,59 @@
       <c r="V58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>336700</v>
+        <v>335400</v>
       </c>
       <c r="E59" s="3">
-        <v>295900</v>
+        <v>347400</v>
       </c>
       <c r="F59" s="3">
-        <v>443800</v>
+        <v>305300</v>
       </c>
       <c r="G59" s="3">
-        <v>311300</v>
+        <v>457900</v>
       </c>
       <c r="H59" s="3">
-        <v>169600</v>
+        <v>321200</v>
       </c>
       <c r="I59" s="3">
-        <v>160400</v>
+        <v>175000</v>
       </c>
       <c r="J59" s="3">
+        <v>165400</v>
+      </c>
+      <c r="K59" s="3">
         <v>185900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>127100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>83100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>70400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>195900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>227200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>223600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>207100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3590,56 +3727,59 @@
       <c r="V59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>728000</v>
+        <v>733400</v>
       </c>
       <c r="E60" s="3">
-        <v>630300</v>
+        <v>751100</v>
       </c>
       <c r="F60" s="3">
-        <v>718600</v>
+        <v>650300</v>
       </c>
       <c r="G60" s="3">
-        <v>718800</v>
+        <v>741400</v>
       </c>
       <c r="H60" s="3">
-        <v>561100</v>
+        <v>741600</v>
       </c>
       <c r="I60" s="3">
-        <v>529300</v>
+        <v>578900</v>
       </c>
       <c r="J60" s="3">
+        <v>546200</v>
+      </c>
+      <c r="K60" s="3">
         <v>719200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>699900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>655000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>619000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>760600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>714000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>695700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>957100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3664,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>13600</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3688,11 +3831,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>13500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3714,56 +3857,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>47600</v>
+        <v>46500</v>
       </c>
       <c r="E62" s="3">
-        <v>48800</v>
+        <v>49100</v>
       </c>
       <c r="F62" s="3">
-        <v>34200</v>
+        <v>50400</v>
       </c>
       <c r="G62" s="3">
-        <v>53800</v>
+        <v>35300</v>
       </c>
       <c r="H62" s="3">
-        <v>44800</v>
+        <v>55500</v>
       </c>
       <c r="I62" s="3">
-        <v>45800</v>
+        <v>46200</v>
       </c>
       <c r="J62" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K62" s="3">
         <v>60300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>48100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>51000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>70900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>58400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>78500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>71700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>63500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4117,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>777400</v>
+        <v>780700</v>
       </c>
       <c r="E66" s="3">
-        <v>682800</v>
+        <v>802100</v>
       </c>
       <c r="F66" s="3">
-        <v>772100</v>
+        <v>704400</v>
       </c>
       <c r="G66" s="3">
-        <v>779000</v>
+        <v>796600</v>
       </c>
       <c r="H66" s="3">
-        <v>612300</v>
+        <v>803700</v>
       </c>
       <c r="I66" s="3">
-        <v>585100</v>
+        <v>631800</v>
       </c>
       <c r="J66" s="3">
+        <v>603700</v>
+      </c>
+      <c r="K66" s="3">
         <v>792000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>764500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>723400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>710700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>855700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>819000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>793800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1037300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4467,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>475000</v>
+        <v>506700</v>
       </c>
       <c r="E72" s="3">
-        <v>484000</v>
+        <v>490100</v>
       </c>
       <c r="F72" s="3">
-        <v>528100</v>
+        <v>499400</v>
       </c>
       <c r="G72" s="3">
-        <v>591300</v>
+        <v>544900</v>
       </c>
       <c r="H72" s="3">
-        <v>624700</v>
+        <v>610100</v>
       </c>
       <c r="I72" s="3">
-        <v>689300</v>
+        <v>644500</v>
       </c>
       <c r="J72" s="3">
+        <v>711200</v>
+      </c>
+      <c r="K72" s="3">
         <v>723200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>876600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>590200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>676400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>672900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>455700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>464800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>504300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4727,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>475000</v>
+        <v>506700</v>
       </c>
       <c r="E76" s="3">
-        <v>484000</v>
+        <v>490100</v>
       </c>
       <c r="F76" s="3">
-        <v>528100</v>
+        <v>499400</v>
       </c>
       <c r="G76" s="3">
-        <v>591300</v>
+        <v>544900</v>
       </c>
       <c r="H76" s="3">
-        <v>624700</v>
+        <v>610100</v>
       </c>
       <c r="I76" s="3">
-        <v>689300</v>
+        <v>644600</v>
       </c>
       <c r="J76" s="3">
+        <v>711200</v>
+      </c>
+      <c r="K76" s="3">
         <v>723200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>876600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>590200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>676400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>672900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>455700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>464800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>504300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34100</v>
+        <v>-19000</v>
       </c>
       <c r="E81" s="3">
-        <v>-44200</v>
+        <v>-35200</v>
       </c>
       <c r="F81" s="3">
-        <v>-49900</v>
+        <v>-45600</v>
       </c>
       <c r="G81" s="3">
-        <v>-37500</v>
+        <v>-51500</v>
       </c>
       <c r="H81" s="3">
-        <v>-48600</v>
+        <v>-38700</v>
       </c>
       <c r="I81" s="3">
-        <v>-42400</v>
+        <v>-50100</v>
       </c>
       <c r="J81" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-50800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-35800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-48800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-64900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-95400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-44700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-51900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-63400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-94500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-32600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-35200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45300</v>
+        <v>-18400</v>
       </c>
       <c r="E89" s="3">
-        <v>-155700</v>
+        <v>46800</v>
       </c>
       <c r="F89" s="3">
-        <v>68400</v>
+        <v>-160700</v>
       </c>
       <c r="G89" s="3">
-        <v>46300</v>
+        <v>70600</v>
       </c>
       <c r="H89" s="3">
-        <v>-106900</v>
+        <v>47800</v>
       </c>
       <c r="I89" s="3">
-        <v>-64100</v>
+        <v>-110300</v>
       </c>
       <c r="J89" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-54800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>119400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-78500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-92100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-53000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-69600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-64800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-92200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-53600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>32400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-39700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9300</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5311,38 +5532,41 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3400</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-600</v>
       </c>
       <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5900</v>
+        <v>3600</v>
       </c>
       <c r="E94" s="3">
-        <v>215800</v>
+        <v>-6100</v>
       </c>
       <c r="F94" s="3">
-        <v>-80900</v>
+        <v>222600</v>
       </c>
       <c r="G94" s="3">
-        <v>91500</v>
+        <v>-83500</v>
       </c>
       <c r="H94" s="3">
-        <v>-99700</v>
+        <v>94400</v>
       </c>
       <c r="I94" s="3">
-        <v>143200</v>
+        <v>-102800</v>
       </c>
       <c r="J94" s="3">
+        <v>147700</v>
+      </c>
+      <c r="K94" s="3">
         <v>256600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-260700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-69200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>267900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-264300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>40700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>33900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>275700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>202700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-981100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14000</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18800</v>
+        <v>8800</v>
       </c>
       <c r="E100" s="3">
-        <v>-77500</v>
+        <v>-19400</v>
       </c>
       <c r="F100" s="3">
-        <v>-54100</v>
+        <v>-80000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2800</v>
+        <v>-55800</v>
       </c>
       <c r="H100" s="3">
-        <v>8500</v>
+        <v>-2900</v>
       </c>
       <c r="I100" s="3">
-        <v>-176000</v>
+        <v>8800</v>
       </c>
       <c r="J100" s="3">
+        <v>-181600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-124900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>457300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-104400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>340800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-265600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>185700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-157100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>566600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>414700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3700</v>
+        <v>7500</v>
       </c>
       <c r="E101" s="3">
-        <v>-400</v>
+        <v>3800</v>
       </c>
       <c r="F101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-16700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7000</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24300</v>
+        <v>1500</v>
       </c>
       <c r="E102" s="3">
-        <v>-17900</v>
+        <v>25000</v>
       </c>
       <c r="F102" s="3">
-        <v>-68800</v>
+        <v>-18500</v>
       </c>
       <c r="G102" s="3">
-        <v>135400</v>
+        <v>-71000</v>
       </c>
       <c r="H102" s="3">
-        <v>-200500</v>
+        <v>139700</v>
       </c>
       <c r="I102" s="3">
-        <v>-96600</v>
+        <v>-206800</v>
       </c>
       <c r="J102" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="K102" s="3">
         <v>60100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>307700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-151400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>75900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-294200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>368100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-54700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>81500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-448700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>384400</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>153500</v>
+        <v>176600</v>
       </c>
       <c r="E8" s="3">
-        <v>162800</v>
+        <v>151900</v>
       </c>
       <c r="F8" s="3">
-        <v>146300</v>
+        <v>161200</v>
       </c>
       <c r="G8" s="3">
-        <v>183900</v>
+        <v>144800</v>
       </c>
       <c r="H8" s="3">
-        <v>152900</v>
+        <v>182000</v>
       </c>
       <c r="I8" s="3">
-        <v>139000</v>
+        <v>151300</v>
       </c>
       <c r="J8" s="3">
+        <v>137600</v>
+      </c>
+      <c r="K8" s="3">
         <v>117700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>149700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>129900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>114100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>90900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>119000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>91200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>79700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>68500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>77700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>55100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>41500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>34100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>99700</v>
+        <v>105400</v>
       </c>
       <c r="E9" s="3">
-        <v>103900</v>
+        <v>98700</v>
       </c>
       <c r="F9" s="3">
-        <v>96200</v>
+        <v>102800</v>
       </c>
       <c r="G9" s="3">
-        <v>119200</v>
+        <v>95200</v>
       </c>
       <c r="H9" s="3">
-        <v>98600</v>
+        <v>118000</v>
       </c>
       <c r="I9" s="3">
-        <v>91700</v>
+        <v>97500</v>
       </c>
       <c r="J9" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K9" s="3">
         <v>77700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>98500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>74500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>70300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>79000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>56000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>41900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>34700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>55200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>23200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>18400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>53300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>58300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>49600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>64000</v>
+      </c>
+      <c r="I10" s="3">
         <v>53800</v>
       </c>
-      <c r="E10" s="3">
-        <v>58900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>50100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>64700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>54300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>47300</v>
-      </c>
       <c r="J10" s="3">
+        <v>46800</v>
+      </c>
+      <c r="K10" s="3">
         <v>40000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>55400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>40000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>37800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>14900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>15700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>41300</v>
+        <v>55400</v>
       </c>
       <c r="E12" s="3">
-        <v>54200</v>
+        <v>40800</v>
       </c>
       <c r="F12" s="3">
-        <v>52100</v>
+        <v>53700</v>
       </c>
       <c r="G12" s="3">
-        <v>56000</v>
+        <v>51600</v>
       </c>
       <c r="H12" s="3">
-        <v>46400</v>
+        <v>55400</v>
       </c>
       <c r="I12" s="3">
-        <v>51500</v>
+        <v>46000</v>
       </c>
       <c r="J12" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K12" s="3">
         <v>40400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>48600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>43600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>42600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>37500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>47700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>31000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>38400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>31900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>18600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,50 +1124,53 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
-        <v>2500</v>
-      </c>
       <c r="G14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1183,8 @@
       <c r="T14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,35 +1233,38 @@
       <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="3">
         <v>5100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>15400</v>
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R15" s="3">
         <v>15400</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
+      <c r="S15" s="3">
+        <v>15400</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" s="3">
         <v>8300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>8100</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>175800</v>
+        <v>205800</v>
       </c>
       <c r="E17" s="3">
-        <v>202700</v>
+        <v>174000</v>
       </c>
       <c r="F17" s="3">
-        <v>197300</v>
+        <v>200600</v>
       </c>
       <c r="G17" s="3">
-        <v>238500</v>
+        <v>195300</v>
       </c>
       <c r="H17" s="3">
-        <v>193600</v>
+        <v>236000</v>
       </c>
       <c r="I17" s="3">
-        <v>195800</v>
+        <v>191600</v>
       </c>
       <c r="J17" s="3">
+        <v>193800</v>
+      </c>
+      <c r="K17" s="3">
         <v>167400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>207300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>166800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>167200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>160700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>208500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>138800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>133800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>138800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>159700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>95800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>65500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>53300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-22200</v>
+        <v>-29200</v>
       </c>
       <c r="E18" s="3">
-        <v>-39900</v>
+        <v>-22000</v>
       </c>
       <c r="F18" s="3">
-        <v>-51000</v>
+        <v>-39500</v>
       </c>
       <c r="G18" s="3">
-        <v>-54600</v>
+        <v>-50500</v>
       </c>
       <c r="H18" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-89500</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="U18" s="3">
         <v>-40700</v>
       </c>
-      <c r="I18" s="3">
-        <v>-56800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-49700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-57600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-36900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-53100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-69700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-89500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-70300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-81900</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-24000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-19100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-22900</v>
+        <v>-31200</v>
       </c>
       <c r="E21" s="3">
-        <v>-39700</v>
+        <v>-22700</v>
       </c>
       <c r="F21" s="3">
-        <v>-44200</v>
+        <v>-39300</v>
       </c>
       <c r="G21" s="3">
-        <v>-56300</v>
+        <v>-43800</v>
       </c>
       <c r="H21" s="3">
-        <v>-44000</v>
+        <v>-55700</v>
       </c>
       <c r="I21" s="3">
-        <v>-57500</v>
+        <v>-43500</v>
       </c>
       <c r="J21" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-39100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-59800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-39200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-56200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-63000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-85900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-48400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-49800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-46100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-75700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-41400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-24800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7800</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1583,165 +1622,174 @@
       <c r="N22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="3">
         <v>6500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>7400</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W22" s="3">
         <v>1700</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-22000</v>
+        <v>-29900</v>
       </c>
       <c r="E23" s="3">
-        <v>-39300</v>
+        <v>-21700</v>
       </c>
       <c r="F23" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-50700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-56400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-57900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-59900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-39400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-57000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-73000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-90600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-56500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-73200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-83600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-43400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-26200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-19900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-37100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E24" s="3">
-        <v>-2300</v>
+        <v>-1700</v>
       </c>
       <c r="F24" s="3">
-        <v>-3000</v>
+        <v>-2200</v>
       </c>
       <c r="G24" s="3">
-        <v>-4300</v>
+        <v>-2900</v>
       </c>
       <c r="H24" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3900</v>
       </c>
-      <c r="I24" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-10100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20200</v>
+        <v>-28000</v>
       </c>
       <c r="E26" s="3">
-        <v>-37000</v>
+        <v>-20000</v>
       </c>
       <c r="F26" s="3">
-        <v>-47700</v>
+        <v>-36700</v>
       </c>
       <c r="G26" s="3">
-        <v>-52200</v>
+        <v>-47200</v>
       </c>
       <c r="H26" s="3">
-        <v>-38800</v>
+        <v>-51600</v>
       </c>
       <c r="I26" s="3">
-        <v>-53800</v>
+        <v>-38400</v>
       </c>
       <c r="J26" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-46400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-53900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-50900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-67800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-98300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-52100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-63700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-93000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-33300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-35200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19000</v>
+        <v>-25200</v>
       </c>
       <c r="E27" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="V27" s="3">
         <v>-35200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-45600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-38700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-50100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-50800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-64900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-95400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-63400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-94500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-32600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-35200</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19000</v>
+        <v>-25200</v>
       </c>
       <c r="E33" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="V33" s="3">
         <v>-35200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-45600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-38700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-50100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-50800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-64900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-95400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-63400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-94500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-32600</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-35200</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-15200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19000</v>
+        <v>-25200</v>
       </c>
       <c r="E35" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="V35" s="3">
         <v>-35200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-45600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-38700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-50100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-50800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-64900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-95400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-63400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-94500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-32600</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-35200</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-15200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>209100</v>
+        <v>271200</v>
       </c>
       <c r="E41" s="3">
-        <v>207500</v>
+        <v>206900</v>
       </c>
       <c r="F41" s="3">
-        <v>182500</v>
+        <v>205400</v>
       </c>
       <c r="G41" s="3">
-        <v>201000</v>
+        <v>180600</v>
       </c>
       <c r="H41" s="3">
-        <v>272000</v>
+        <v>198900</v>
       </c>
       <c r="I41" s="3">
-        <v>132200</v>
+        <v>269200</v>
       </c>
       <c r="J41" s="3">
+        <v>130900</v>
+      </c>
+      <c r="K41" s="3">
         <v>339100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>425300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>306600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>78900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>244700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>166000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>142800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>160300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>454400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2640,59 +2726,62 @@
       <c r="W41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>292700</v>
+        <v>273500</v>
       </c>
       <c r="E42" s="3">
-        <v>272300</v>
+        <v>289700</v>
       </c>
       <c r="F42" s="3">
-        <v>245500</v>
+        <v>269500</v>
       </c>
       <c r="G42" s="3">
-        <v>368700</v>
+        <v>243000</v>
       </c>
       <c r="H42" s="3">
-        <v>278000</v>
+        <v>364900</v>
       </c>
       <c r="I42" s="3">
-        <v>352800</v>
+        <v>275200</v>
       </c>
       <c r="J42" s="3">
+        <v>349200</v>
+      </c>
+      <c r="K42" s="3">
         <v>297700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>287300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>404600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>334900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>157400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>260400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>87500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>161000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>100800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2705,59 +2794,62 @@
       <c r="W42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200200</v>
+        <v>151200</v>
       </c>
       <c r="E43" s="3">
-        <v>234100</v>
+        <v>198100</v>
       </c>
       <c r="F43" s="3">
-        <v>211700</v>
+        <v>231700</v>
       </c>
       <c r="G43" s="3">
-        <v>188400</v>
+        <v>209500</v>
       </c>
       <c r="H43" s="3">
-        <v>242600</v>
+        <v>186500</v>
       </c>
       <c r="I43" s="3">
-        <v>219400</v>
+        <v>240100</v>
       </c>
       <c r="J43" s="3">
+        <v>217100</v>
+      </c>
+      <c r="K43" s="3">
         <v>173900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>152600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>216100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>181900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>169100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>176300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>175900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>152500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>118900</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,59 +2930,62 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>208300</v>
+        <v>210200</v>
       </c>
       <c r="E45" s="3">
-        <v>204800</v>
+        <v>206200</v>
       </c>
       <c r="F45" s="3">
-        <v>196200</v>
+        <v>202800</v>
       </c>
       <c r="G45" s="3">
-        <v>232700</v>
+        <v>194200</v>
       </c>
       <c r="H45" s="3">
-        <v>293800</v>
+        <v>230300</v>
       </c>
       <c r="I45" s="3">
-        <v>283900</v>
+        <v>290800</v>
       </c>
       <c r="J45" s="3">
+        <v>281000</v>
+      </c>
+      <c r="K45" s="3">
         <v>228800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>379200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>439000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>440800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>462700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>576700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>560000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>526100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>622600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>11</v>
       </c>
@@ -2900,59 +2998,62 @@
       <c r="W45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>910200</v>
+        <v>906100</v>
       </c>
       <c r="E46" s="3">
-        <v>918800</v>
+        <v>900900</v>
       </c>
       <c r="F46" s="3">
-        <v>835900</v>
+        <v>909400</v>
       </c>
       <c r="G46" s="3">
-        <v>990700</v>
+        <v>827300</v>
       </c>
       <c r="H46" s="3">
-        <v>1086400</v>
+        <v>980600</v>
       </c>
       <c r="I46" s="3">
-        <v>988400</v>
+        <v>1075300</v>
       </c>
       <c r="J46" s="3">
+        <v>978200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1039500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1244400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1366200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1036500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1033900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1179300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>966200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>999800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1296700</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>11</v>
       </c>
@@ -2965,59 +3066,62 @@
       <c r="W46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>150700</v>
+        <v>145000</v>
       </c>
       <c r="E47" s="3">
-        <v>143200</v>
+        <v>149200</v>
       </c>
       <c r="F47" s="3">
-        <v>134000</v>
+        <v>141700</v>
       </c>
       <c r="G47" s="3">
-        <v>118800</v>
+        <v>132600</v>
       </c>
       <c r="H47" s="3">
-        <v>91100</v>
+        <v>117600</v>
       </c>
       <c r="I47" s="3">
-        <v>59100</v>
+        <v>90200</v>
       </c>
       <c r="J47" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K47" s="3">
         <v>37800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>33400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>35000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>33400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>90600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>85200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>32700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3030,59 +3134,62 @@
       <c r="W47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31900</v>
+        <v>21500</v>
       </c>
       <c r="E48" s="3">
-        <v>35500</v>
+        <v>31500</v>
       </c>
       <c r="F48" s="3">
-        <v>37300</v>
+        <v>35100</v>
       </c>
       <c r="G48" s="3">
-        <v>35100</v>
+        <v>36900</v>
       </c>
       <c r="H48" s="3">
-        <v>34900</v>
+        <v>34700</v>
       </c>
       <c r="I48" s="3">
-        <v>24300</v>
+        <v>34600</v>
       </c>
       <c r="J48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K48" s="3">
         <v>27400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>48400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>56400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>53300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>45200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>11</v>
       </c>
@@ -3095,59 +3202,62 @@
       <c r="W48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>87000</v>
+        <v>81100</v>
       </c>
       <c r="E49" s="3">
-        <v>89900</v>
+        <v>86100</v>
       </c>
       <c r="F49" s="3">
-        <v>93800</v>
+        <v>88900</v>
       </c>
       <c r="G49" s="3">
-        <v>98700</v>
+        <v>92900</v>
       </c>
       <c r="H49" s="3">
-        <v>107100</v>
+        <v>97700</v>
       </c>
       <c r="I49" s="3">
-        <v>115100</v>
+        <v>106000</v>
       </c>
       <c r="J49" s="3">
+        <v>113900</v>
+      </c>
+      <c r="K49" s="3">
         <v>125300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>127700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>130400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>133500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>147600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>150400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>148900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>106700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>104400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,59 +3406,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>107600</v>
+        <v>108900</v>
       </c>
       <c r="E52" s="3">
-        <v>104900</v>
+        <v>106500</v>
       </c>
       <c r="F52" s="3">
-        <v>102900</v>
+        <v>103800</v>
       </c>
       <c r="G52" s="3">
-        <v>98100</v>
+        <v>101800</v>
       </c>
       <c r="H52" s="3">
-        <v>94200</v>
+        <v>97100</v>
       </c>
       <c r="I52" s="3">
-        <v>89500</v>
+        <v>93300</v>
       </c>
       <c r="J52" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K52" s="3">
         <v>84900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>71400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>74000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>62500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1287400</v>
+        <v>1262600</v>
       </c>
       <c r="E54" s="3">
-        <v>1292200</v>
+        <v>1274200</v>
       </c>
       <c r="F54" s="3">
-        <v>1203800</v>
+        <v>1279000</v>
       </c>
       <c r="G54" s="3">
-        <v>1341500</v>
+        <v>1191500</v>
       </c>
       <c r="H54" s="3">
-        <v>1413800</v>
+        <v>1327800</v>
       </c>
       <c r="I54" s="3">
-        <v>1276300</v>
+        <v>1399300</v>
       </c>
       <c r="J54" s="3">
+        <v>1263200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1314900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1515200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1641100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1313600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1387100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1528600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1274600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1258600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1541600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,59 +3664,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>350800</v>
+        <v>107100</v>
       </c>
       <c r="E57" s="3">
-        <v>365400</v>
+        <v>347300</v>
       </c>
       <c r="F57" s="3">
-        <v>302600</v>
+        <v>361700</v>
       </c>
       <c r="G57" s="3">
-        <v>158200</v>
+        <v>299500</v>
       </c>
       <c r="H57" s="3">
-        <v>250600</v>
+        <v>156600</v>
       </c>
       <c r="I57" s="3">
-        <v>237500</v>
+        <v>248000</v>
       </c>
       <c r="J57" s="3">
+        <v>235100</v>
+      </c>
+      <c r="K57" s="3">
         <v>228700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>215500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>211600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>212600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>175700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>53400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3600,59 +3730,62 @@
       <c r="W57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47200</v>
+        <v>47800</v>
       </c>
       <c r="E58" s="3">
-        <v>38300</v>
+        <v>46700</v>
       </c>
       <c r="F58" s="3">
-        <v>42300</v>
+        <v>37900</v>
       </c>
       <c r="G58" s="3">
-        <v>125300</v>
+        <v>41900</v>
       </c>
       <c r="H58" s="3">
-        <v>169800</v>
+        <v>124100</v>
       </c>
       <c r="I58" s="3">
-        <v>166400</v>
+        <v>168100</v>
       </c>
       <c r="J58" s="3">
+        <v>164700</v>
+      </c>
+      <c r="K58" s="3">
         <v>152000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>317800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>361300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>359400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>372900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>511300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>476000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>449600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>711800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3665,59 +3798,62 @@
       <c r="W58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>335400</v>
+        <v>619300</v>
       </c>
       <c r="E59" s="3">
-        <v>347400</v>
+        <v>331900</v>
       </c>
       <c r="F59" s="3">
-        <v>305300</v>
+        <v>343800</v>
       </c>
       <c r="G59" s="3">
-        <v>457900</v>
+        <v>302200</v>
       </c>
       <c r="H59" s="3">
-        <v>321200</v>
+        <v>453200</v>
       </c>
       <c r="I59" s="3">
-        <v>175000</v>
+        <v>317900</v>
       </c>
       <c r="J59" s="3">
+        <v>173200</v>
+      </c>
+      <c r="K59" s="3">
         <v>165400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>185900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>127100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>70400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>195900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>227200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>223600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>207100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3730,59 +3866,62 @@
       <c r="W59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>733400</v>
+        <v>774200</v>
       </c>
       <c r="E60" s="3">
-        <v>751100</v>
+        <v>725900</v>
       </c>
       <c r="F60" s="3">
-        <v>650300</v>
+        <v>743400</v>
       </c>
       <c r="G60" s="3">
-        <v>741400</v>
+        <v>643600</v>
       </c>
       <c r="H60" s="3">
-        <v>741600</v>
+        <v>733800</v>
       </c>
       <c r="I60" s="3">
-        <v>578900</v>
+        <v>734000</v>
       </c>
       <c r="J60" s="3">
+        <v>573000</v>
+      </c>
+      <c r="K60" s="3">
         <v>546200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>719200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>699900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>655000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>619000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>760600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>714000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>695700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>957100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3795,13 +3934,16 @@
       <c r="W60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3810,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3834,11 +3976,11 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>13500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3860,59 +4002,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>46500</v>
+        <v>16100</v>
       </c>
       <c r="E62" s="3">
-        <v>49100</v>
+        <v>46000</v>
       </c>
       <c r="F62" s="3">
-        <v>50400</v>
+        <v>48600</v>
       </c>
       <c r="G62" s="3">
-        <v>35300</v>
+        <v>49900</v>
       </c>
       <c r="H62" s="3">
-        <v>55500</v>
+        <v>34900</v>
       </c>
       <c r="I62" s="3">
-        <v>46200</v>
+        <v>54900</v>
       </c>
       <c r="J62" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K62" s="3">
         <v>47200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>60300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>48100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>51000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>70900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>58400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>78500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>71700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>63500</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>11</v>
       </c>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>780700</v>
+        <v>794600</v>
       </c>
       <c r="E66" s="3">
-        <v>802100</v>
+        <v>772700</v>
       </c>
       <c r="F66" s="3">
-        <v>704400</v>
+        <v>793900</v>
       </c>
       <c r="G66" s="3">
-        <v>796600</v>
+        <v>697200</v>
       </c>
       <c r="H66" s="3">
-        <v>803700</v>
+        <v>788500</v>
       </c>
       <c r="I66" s="3">
-        <v>631800</v>
+        <v>795500</v>
       </c>
       <c r="J66" s="3">
+        <v>625300</v>
+      </c>
+      <c r="K66" s="3">
         <v>603700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>792000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>764500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>723400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>710700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>855700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>819000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>793800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1037300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4185,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,59 +4640,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>506700</v>
+        <v>468000</v>
       </c>
       <c r="E72" s="3">
-        <v>490100</v>
+        <v>501500</v>
       </c>
       <c r="F72" s="3">
-        <v>499400</v>
+        <v>485100</v>
       </c>
       <c r="G72" s="3">
-        <v>544900</v>
+        <v>494300</v>
       </c>
       <c r="H72" s="3">
-        <v>610100</v>
+        <v>539300</v>
       </c>
       <c r="I72" s="3">
-        <v>644500</v>
+        <v>603800</v>
       </c>
       <c r="J72" s="3">
+        <v>637900</v>
+      </c>
+      <c r="K72" s="3">
         <v>711200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>723200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>876600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>590200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>676400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>672900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>455700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>464800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>504300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>506700</v>
+        <v>468100</v>
       </c>
       <c r="E76" s="3">
-        <v>490100</v>
+        <v>501500</v>
       </c>
       <c r="F76" s="3">
-        <v>499400</v>
+        <v>485100</v>
       </c>
       <c r="G76" s="3">
-        <v>544900</v>
+        <v>494300</v>
       </c>
       <c r="H76" s="3">
-        <v>610100</v>
+        <v>539300</v>
       </c>
       <c r="I76" s="3">
-        <v>644600</v>
+        <v>603800</v>
       </c>
       <c r="J76" s="3">
+        <v>638000</v>
+      </c>
+      <c r="K76" s="3">
         <v>711200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>723200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>876600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>590200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>676400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>672900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>455700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>464800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>504300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19000</v>
+        <v>-25200</v>
       </c>
       <c r="E81" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="V81" s="3">
         <v>-35200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-45600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-38700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-50100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-50800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-35800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-64900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-95400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-51900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-63400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-94500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-32600</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-35200</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-15200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18400</v>
+        <v>24900</v>
       </c>
       <c r="E89" s="3">
-        <v>46800</v>
+        <v>-18200</v>
       </c>
       <c r="F89" s="3">
-        <v>-160700</v>
+        <v>46300</v>
       </c>
       <c r="G89" s="3">
-        <v>70600</v>
+        <v>-159000</v>
       </c>
       <c r="H89" s="3">
-        <v>47800</v>
+        <v>69900</v>
       </c>
       <c r="I89" s="3">
-        <v>-110300</v>
+        <v>47300</v>
       </c>
       <c r="J89" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-66200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-54800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>119400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-78500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-92100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-53000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-69600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-64800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-92200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-53600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>32400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-39700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9300</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,19 +5719,20 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-265200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-101800</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-96300</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5535,38 +5755,41 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3400</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-600</v>
       </c>
       <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3600</v>
+        <v>48400</v>
       </c>
       <c r="E94" s="3">
-        <v>-6100</v>
+        <v>3500</v>
       </c>
       <c r="F94" s="3">
-        <v>222600</v>
+        <v>-6000</v>
       </c>
       <c r="G94" s="3">
-        <v>-83500</v>
+        <v>220400</v>
       </c>
       <c r="H94" s="3">
-        <v>94400</v>
+        <v>-82600</v>
       </c>
       <c r="I94" s="3">
-        <v>-102800</v>
+        <v>93400</v>
       </c>
       <c r="J94" s="3">
+        <v>-101800</v>
+      </c>
+      <c r="K94" s="3">
         <v>147700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>256600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-260700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-69200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>267900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-264300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>40700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>33900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>275700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>202700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-981100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14000</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8800</v>
       </c>
-      <c r="E100" s="3">
-        <v>-19400</v>
-      </c>
       <c r="F100" s="3">
-        <v>-80000</v>
+        <v>-19200</v>
       </c>
       <c r="G100" s="3">
-        <v>-55800</v>
+        <v>-79200</v>
       </c>
       <c r="H100" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2900</v>
       </c>
-      <c r="I100" s="3">
-        <v>8800</v>
-      </c>
       <c r="J100" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-181600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-124900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>457300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-104400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>340800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-265600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>185700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-157100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>566600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>414700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>3800</v>
+        <v>7400</v>
       </c>
       <c r="F101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7000</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
-        <v>25000</v>
-      </c>
       <c r="F102" s="3">
-        <v>-18500</v>
+        <v>24800</v>
       </c>
       <c r="G102" s="3">
-        <v>-71000</v>
+        <v>-18300</v>
       </c>
       <c r="H102" s="3">
-        <v>139700</v>
+        <v>-70300</v>
       </c>
       <c r="I102" s="3">
-        <v>-206800</v>
+        <v>138300</v>
       </c>
       <c r="J102" s="3">
+        <v>-204700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-99700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>60100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>307700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-151400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>75900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-294200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>368100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-54700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>81500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-448700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>384400</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>OCFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,334 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>176600</v>
+        <v>134100</v>
       </c>
       <c r="E8" s="3">
-        <v>151900</v>
+        <v>127600</v>
       </c>
       <c r="F8" s="3">
-        <v>161200</v>
+        <v>171200</v>
       </c>
       <c r="G8" s="3">
-        <v>144800</v>
+        <v>147300</v>
       </c>
       <c r="H8" s="3">
-        <v>182000</v>
+        <v>156200</v>
       </c>
       <c r="I8" s="3">
+        <v>140400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>176400</v>
+      </c>
+      <c r="K8" s="3">
         <v>151300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>137600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>117700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>149700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>129900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>114100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>90900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>119000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>91200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>79700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>68500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>77700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>55100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>41500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>34100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>105400</v>
+        <v>85500</v>
       </c>
       <c r="E9" s="3">
-        <v>98700</v>
+        <v>80300</v>
       </c>
       <c r="F9" s="3">
-        <v>102800</v>
+        <v>102100</v>
       </c>
       <c r="G9" s="3">
-        <v>95200</v>
+        <v>95600</v>
       </c>
       <c r="H9" s="3">
-        <v>118000</v>
+        <v>99700</v>
       </c>
       <c r="I9" s="3">
+        <v>92300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>114400</v>
+      </c>
+      <c r="K9" s="3">
         <v>97500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>90700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>77700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>98500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>74500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>70300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>59300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>79000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>56000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>41900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>34700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>55200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>40200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>23200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>18400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>71200</v>
+        <v>48600</v>
       </c>
       <c r="E10" s="3">
-        <v>53300</v>
+        <v>47300</v>
       </c>
       <c r="F10" s="3">
-        <v>58300</v>
+        <v>69000</v>
       </c>
       <c r="G10" s="3">
-        <v>49600</v>
+        <v>51600</v>
       </c>
       <c r="H10" s="3">
-        <v>64000</v>
+        <v>56500</v>
       </c>
       <c r="I10" s="3">
+        <v>48100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K10" s="3">
         <v>53800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>46800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>40000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>51300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>55400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>43800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>31600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>40000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>35200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>37800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>33800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>22500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>14900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>18300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>15700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1017,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>55400</v>
+        <v>33100</v>
       </c>
       <c r="E12" s="3">
-        <v>40800</v>
+        <v>39600</v>
       </c>
       <c r="F12" s="3">
         <v>53700</v>
       </c>
       <c r="G12" s="3">
-        <v>51600</v>
+        <v>39600</v>
       </c>
       <c r="H12" s="3">
-        <v>55400</v>
+        <v>52000</v>
       </c>
       <c r="I12" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K12" s="3">
         <v>46000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>51000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>40400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>48600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>43600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>42600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>37500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>47700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>31000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>24200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>38400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>31900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>18600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>6900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>8700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,56 +1161,62 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>4200</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="F14" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K14" s="3">
         <v>2600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>5400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>8800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>5500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1186,40 +1226,46 @@
       <c r="U14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>11</v>
@@ -1236,35 +1282,41 @@
       <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="3">
         <v>5100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="3">
         <v>15400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>15400</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" s="3">
         <v>8300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>8100</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>205800</v>
+        <v>144900</v>
       </c>
       <c r="E17" s="3">
-        <v>174000</v>
+        <v>144300</v>
       </c>
       <c r="F17" s="3">
-        <v>200600</v>
+        <v>199500</v>
       </c>
       <c r="G17" s="3">
-        <v>195300</v>
+        <v>168600</v>
       </c>
       <c r="H17" s="3">
-        <v>236000</v>
+        <v>194500</v>
       </c>
       <c r="I17" s="3">
+        <v>189300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>228800</v>
+      </c>
+      <c r="K17" s="3">
         <v>191600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>193800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>167400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>207300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>166800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>167200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>160700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>208500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>138800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>133800</v>
       </c>
       <c r="S17" s="3">
         <v>138800</v>
       </c>
       <c r="T17" s="3">
+        <v>133800</v>
+      </c>
+      <c r="U17" s="3">
+        <v>138800</v>
+      </c>
+      <c r="V17" s="3">
         <v>159700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>95800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>65500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>53300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-29200</v>
+        <v>-10800</v>
       </c>
       <c r="E18" s="3">
-        <v>-22000</v>
+        <v>-16800</v>
       </c>
       <c r="F18" s="3">
-        <v>-39500</v>
+        <v>-28300</v>
       </c>
       <c r="G18" s="3">
-        <v>-50500</v>
+        <v>-21300</v>
       </c>
       <c r="H18" s="3">
-        <v>-54000</v>
+        <v>-38200</v>
       </c>
       <c r="I18" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-40200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-56200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-49700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-57600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-36900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-53100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-69700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-89500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-47600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-54100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-70300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-81900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-40700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-24000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-19100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,167 +1514,181 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F20" s="3">
-        <v>600</v>
+        <v>-700</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1800</v>
+        <v>500</v>
       </c>
       <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>4600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-31200</v>
+        <v>-11100</v>
       </c>
       <c r="E21" s="3">
-        <v>-22700</v>
+        <v>-11700</v>
       </c>
       <c r="F21" s="3">
-        <v>-39300</v>
+        <v>-30300</v>
       </c>
       <c r="G21" s="3">
-        <v>-43800</v>
+        <v>-22000</v>
       </c>
       <c r="H21" s="3">
-        <v>-55700</v>
+        <v>-38100</v>
       </c>
       <c r="I21" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-43500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-56900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-39100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-59800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-39200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-56200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-63000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-85900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-48400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-49800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-46100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-75700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-41400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-24800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-7800</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>11</v>
@@ -1625,171 +1705,189 @@
       <c r="O22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="3">
         <v>6500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>6400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>6200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>7500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>7400</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y22" s="3">
         <v>1700</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29900</v>
+        <v>-10800</v>
       </c>
       <c r="E23" s="3">
-        <v>-21700</v>
+        <v>-15800</v>
       </c>
       <c r="F23" s="3">
-        <v>-38900</v>
+        <v>-29000</v>
       </c>
       <c r="G23" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-50200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-55800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-42200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-57300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-59900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-39400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-57000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-73000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-90600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-50700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-56500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-73200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-83600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-43400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-26200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-19900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-37100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-3800</v>
       </c>
       <c r="J24" s="3">
         <v>-4100</v>
       </c>
       <c r="K24" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-6100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-6200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-5300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-4400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-9500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>9400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-10100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>9000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-4700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-28000</v>
+        <v>-11800</v>
       </c>
       <c r="E26" s="3">
-        <v>-20000</v>
+        <v>-15600</v>
       </c>
       <c r="F26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="O26" s="3">
         <v>-36700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-47200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-51600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-38400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-53200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-46400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-53900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-50900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-67800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-98300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-45400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-52100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-63700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-93000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-33300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-35200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-15200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25200</v>
+        <v>-11200</v>
       </c>
       <c r="E27" s="3">
-        <v>-18800</v>
+        <v>-15000</v>
       </c>
       <c r="F27" s="3">
-        <v>-34800</v>
+        <v>-24400</v>
       </c>
       <c r="G27" s="3">
-        <v>-45100</v>
+        <v>-18300</v>
       </c>
       <c r="H27" s="3">
-        <v>-50900</v>
+        <v>-33700</v>
       </c>
       <c r="I27" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-38300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-49600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-43800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-50800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-35800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-48800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-64900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-44700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-51900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-63400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-94500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-32600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-35200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-15200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="F32" s="3">
-        <v>-600</v>
+        <v>700</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
       </c>
       <c r="H32" s="3">
-        <v>1800</v>
+        <v>-500</v>
       </c>
       <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-4600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25200</v>
+        <v>-11200</v>
       </c>
       <c r="E33" s="3">
-        <v>-18800</v>
+        <v>-15000</v>
       </c>
       <c r="F33" s="3">
-        <v>-34800</v>
+        <v>-24400</v>
       </c>
       <c r="G33" s="3">
-        <v>-45100</v>
+        <v>-18300</v>
       </c>
       <c r="H33" s="3">
-        <v>-50900</v>
+        <v>-33700</v>
       </c>
       <c r="I33" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-38300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-49600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-43800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-50800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-35800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-48800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-64900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-44700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-51900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-63400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-94500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-32600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-35200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-15200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25200</v>
+        <v>-11200</v>
       </c>
       <c r="E35" s="3">
-        <v>-18800</v>
+        <v>-15000</v>
       </c>
       <c r="F35" s="3">
-        <v>-34800</v>
+        <v>-24400</v>
       </c>
       <c r="G35" s="3">
-        <v>-45100</v>
+        <v>-18300</v>
       </c>
       <c r="H35" s="3">
-        <v>-50900</v>
+        <v>-33700</v>
       </c>
       <c r="I35" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-38300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-49600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-43800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-50800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-35800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-48800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-64900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-44700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-51900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-63400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-94500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-32600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-35200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-15200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2833,67 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>271200</v>
+        <v>209400</v>
       </c>
       <c r="E41" s="3">
-        <v>206900</v>
+        <v>226800</v>
       </c>
       <c r="F41" s="3">
-        <v>205400</v>
+        <v>262900</v>
       </c>
       <c r="G41" s="3">
-        <v>180600</v>
+        <v>200600</v>
       </c>
       <c r="H41" s="3">
-        <v>198900</v>
+        <v>199100</v>
       </c>
       <c r="I41" s="3">
+        <v>175100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>192800</v>
+      </c>
+      <c r="K41" s="3">
         <v>269200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>130900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>339100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>425300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>306600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>78900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>244700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>166000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>142800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>160300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>454400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2729,65 +2903,71 @@
       <c r="X41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>273500</v>
+        <v>287200</v>
       </c>
       <c r="E42" s="3">
-        <v>289700</v>
+        <v>216000</v>
       </c>
       <c r="F42" s="3">
-        <v>269500</v>
+        <v>265100</v>
       </c>
       <c r="G42" s="3">
-        <v>243000</v>
+        <v>280800</v>
       </c>
       <c r="H42" s="3">
-        <v>364900</v>
+        <v>261200</v>
       </c>
       <c r="I42" s="3">
+        <v>235500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>353700</v>
+      </c>
+      <c r="K42" s="3">
         <v>275200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>349200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>297700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>287300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>404600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>334900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>157400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>260400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>87500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>161000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>100800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2797,65 +2977,71 @@
       <c r="X42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>151200</v>
+        <v>177900</v>
       </c>
       <c r="E43" s="3">
-        <v>198100</v>
+        <v>180300</v>
       </c>
       <c r="F43" s="3">
-        <v>231700</v>
+        <v>146500</v>
       </c>
       <c r="G43" s="3">
-        <v>209500</v>
+        <v>192000</v>
       </c>
       <c r="H43" s="3">
-        <v>186500</v>
+        <v>224600</v>
       </c>
       <c r="I43" s="3">
+        <v>203100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>180800</v>
+      </c>
+      <c r="K43" s="3">
         <v>240100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>217100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>173900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>152600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>216100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>181900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>169100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>176300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>175900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>152500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>118900</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>11</v>
       </c>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,65 +3125,71 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>210200</v>
+        <v>187300</v>
       </c>
       <c r="E45" s="3">
-        <v>206200</v>
+        <v>201600</v>
       </c>
       <c r="F45" s="3">
-        <v>202800</v>
+        <v>203700</v>
       </c>
       <c r="G45" s="3">
-        <v>194200</v>
+        <v>199900</v>
       </c>
       <c r="H45" s="3">
-        <v>230300</v>
+        <v>196500</v>
       </c>
       <c r="I45" s="3">
+        <v>188200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>223200</v>
+      </c>
+      <c r="K45" s="3">
         <v>290800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>281000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>228800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>379200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>439000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>440800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>462700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>576700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>560000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>526100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>622600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>11</v>
       </c>
@@ -3001,65 +3199,71 @@
       <c r="X45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>906100</v>
+        <v>861800</v>
       </c>
       <c r="E46" s="3">
-        <v>900900</v>
+        <v>824800</v>
       </c>
       <c r="F46" s="3">
-        <v>909400</v>
+        <v>878200</v>
       </c>
       <c r="G46" s="3">
-        <v>827300</v>
+        <v>873200</v>
       </c>
       <c r="H46" s="3">
-        <v>980600</v>
+        <v>881400</v>
       </c>
       <c r="I46" s="3">
+        <v>801900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>950500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1075300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>978200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1039500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1244400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1366200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1036500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1033900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1179300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>966200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>999800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1296700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>11</v>
       </c>
@@ -3069,65 +3273,71 @@
       <c r="X46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>145000</v>
+        <v>112500</v>
       </c>
       <c r="E47" s="3">
-        <v>149200</v>
+        <v>133100</v>
       </c>
       <c r="F47" s="3">
-        <v>141700</v>
+        <v>140600</v>
       </c>
       <c r="G47" s="3">
-        <v>132600</v>
+        <v>144600</v>
       </c>
       <c r="H47" s="3">
-        <v>117600</v>
+        <v>137400</v>
       </c>
       <c r="I47" s="3">
+        <v>128500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>114000</v>
+      </c>
+      <c r="K47" s="3">
         <v>90200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>58500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>37800</v>
-      </c>
-      <c r="L47" s="3">
-        <v>33400</v>
-      </c>
-      <c r="M47" s="3">
-        <v>35000</v>
       </c>
       <c r="N47" s="3">
         <v>33400</v>
       </c>
       <c r="O47" s="3">
+        <v>35000</v>
+      </c>
+      <c r="P47" s="3">
+        <v>33400</v>
+      </c>
+      <c r="Q47" s="3">
         <v>90600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>85200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>29000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>31100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>32700</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3137,65 +3347,71 @@
       <c r="X47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21500</v>
+        <v>16100</v>
       </c>
       <c r="E48" s="3">
-        <v>31500</v>
+        <v>19700</v>
       </c>
       <c r="F48" s="3">
-        <v>35100</v>
+        <v>20900</v>
       </c>
       <c r="G48" s="3">
-        <v>36900</v>
+        <v>30600</v>
       </c>
       <c r="H48" s="3">
-        <v>34700</v>
+        <v>34000</v>
       </c>
       <c r="I48" s="3">
+        <v>35800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K48" s="3">
         <v>34600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>24000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>27400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>31200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>33200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>37000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>43600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>48400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>56400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>53300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>45200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>11</v>
       </c>
@@ -3205,65 +3421,71 @@
       <c r="X48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>81100</v>
+        <v>72500</v>
       </c>
       <c r="E49" s="3">
-        <v>86100</v>
+        <v>74600</v>
       </c>
       <c r="F49" s="3">
-        <v>88900</v>
+        <v>78600</v>
       </c>
       <c r="G49" s="3">
-        <v>92900</v>
+        <v>83500</v>
       </c>
       <c r="H49" s="3">
-        <v>97700</v>
+        <v>86200</v>
       </c>
       <c r="I49" s="3">
+        <v>90000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>94700</v>
+      </c>
+      <c r="K49" s="3">
         <v>106000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>113900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>125300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>127700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>130400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>133500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>147600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>150400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>148900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>106700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>104400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,65 +3643,71 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>108900</v>
+        <v>105900</v>
       </c>
       <c r="E52" s="3">
-        <v>106500</v>
+        <v>106000</v>
       </c>
       <c r="F52" s="3">
-        <v>103800</v>
+        <v>105500</v>
       </c>
       <c r="G52" s="3">
-        <v>101800</v>
+        <v>103200</v>
       </c>
       <c r="H52" s="3">
-        <v>97100</v>
+        <v>100600</v>
       </c>
       <c r="I52" s="3">
+        <v>98700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>94100</v>
+      </c>
+      <c r="K52" s="3">
         <v>93300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>88600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>84900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>78600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>76300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>73200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>71400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>65300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>74000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>67700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>62500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3791,71 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1262600</v>
+        <v>1168800</v>
       </c>
       <c r="E54" s="3">
-        <v>1274200</v>
+        <v>1158200</v>
       </c>
       <c r="F54" s="3">
-        <v>1279000</v>
+        <v>1223800</v>
       </c>
       <c r="G54" s="3">
-        <v>1191500</v>
+        <v>1235000</v>
       </c>
       <c r="H54" s="3">
-        <v>1327800</v>
+        <v>1239700</v>
       </c>
       <c r="I54" s="3">
+        <v>1154900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1286900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1399300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1263200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1314900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1515200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1641100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1313600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1387100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1528600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1274600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1258600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1541600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,65 +3925,67 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>107100</v>
+        <v>332000</v>
       </c>
       <c r="E57" s="3">
-        <v>347300</v>
+        <v>360400</v>
       </c>
       <c r="F57" s="3">
-        <v>361700</v>
+        <v>103800</v>
       </c>
       <c r="G57" s="3">
-        <v>299500</v>
+        <v>336600</v>
       </c>
       <c r="H57" s="3">
-        <v>156600</v>
+        <v>350600</v>
       </c>
       <c r="I57" s="3">
+        <v>290300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>151800</v>
+      </c>
+      <c r="K57" s="3">
         <v>248000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>235100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>228700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>215500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>211600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>212600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>175700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>53400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>10800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>22500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>38300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>11</v>
       </c>
@@ -3733,65 +3995,71 @@
       <c r="X57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47800</v>
+        <v>48000</v>
       </c>
       <c r="E58" s="3">
-        <v>46700</v>
+        <v>38800</v>
       </c>
       <c r="F58" s="3">
-        <v>37900</v>
+        <v>46300</v>
       </c>
       <c r="G58" s="3">
-        <v>41900</v>
+        <v>45300</v>
       </c>
       <c r="H58" s="3">
-        <v>124100</v>
+        <v>36700</v>
       </c>
       <c r="I58" s="3">
+        <v>40600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K58" s="3">
         <v>168100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>164700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>152000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>317800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>361300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>359400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>372900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>511300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>476000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>449600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>711800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>11</v>
       </c>
@@ -3801,65 +4069,71 @@
       <c r="X58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>619300</v>
+        <v>334800</v>
       </c>
       <c r="E59" s="3">
-        <v>331900</v>
+        <v>308400</v>
       </c>
       <c r="F59" s="3">
-        <v>343800</v>
+        <v>600300</v>
       </c>
       <c r="G59" s="3">
-        <v>302200</v>
+        <v>321700</v>
       </c>
       <c r="H59" s="3">
-        <v>453200</v>
+        <v>333300</v>
       </c>
       <c r="I59" s="3">
+        <v>292900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>439200</v>
+      </c>
+      <c r="K59" s="3">
         <v>317900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>173200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>165400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>185900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>127100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>83100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>70400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>195900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>227200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>223600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>207100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3869,65 +4143,71 @@
       <c r="X59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>774200</v>
+        <v>714800</v>
       </c>
       <c r="E60" s="3">
-        <v>725900</v>
+        <v>707500</v>
       </c>
       <c r="F60" s="3">
-        <v>743400</v>
+        <v>750400</v>
       </c>
       <c r="G60" s="3">
-        <v>643600</v>
+        <v>703600</v>
       </c>
       <c r="H60" s="3">
-        <v>733800</v>
+        <v>720500</v>
       </c>
       <c r="I60" s="3">
+        <v>623800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>711300</v>
+      </c>
+      <c r="K60" s="3">
         <v>734000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>573000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>546200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>719200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>699900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>655000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>619000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>760600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>714000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>695700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>957100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>11</v>
       </c>
@@ -3937,31 +4217,37 @@
       <c r="X60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>13900</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3979,14 +4265,14 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>13500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4005,65 +4291,71 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16100</v>
+        <v>20100</v>
       </c>
       <c r="E62" s="3">
-        <v>46000</v>
+        <v>21100</v>
       </c>
       <c r="F62" s="3">
-        <v>48600</v>
+        <v>15600</v>
       </c>
       <c r="G62" s="3">
-        <v>49900</v>
+        <v>44600</v>
       </c>
       <c r="H62" s="3">
-        <v>34900</v>
+        <v>47100</v>
       </c>
       <c r="I62" s="3">
+        <v>48300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K62" s="3">
         <v>54900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>45700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>47200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>60300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>48100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>51000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>70900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>58400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>78500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>71700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>63500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>11</v>
       </c>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4587,71 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>794600</v>
+        <v>732400</v>
       </c>
       <c r="E66" s="3">
-        <v>772700</v>
+        <v>726700</v>
       </c>
       <c r="F66" s="3">
-        <v>793900</v>
+        <v>770100</v>
       </c>
       <c r="G66" s="3">
-        <v>697200</v>
+        <v>749000</v>
       </c>
       <c r="H66" s="3">
-        <v>788500</v>
+        <v>769500</v>
       </c>
       <c r="I66" s="3">
+        <v>675800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>764200</v>
+      </c>
+      <c r="K66" s="3">
         <v>795500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>625300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>603700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>792000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>764500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>723400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>710700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>855700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>819000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>793800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1037300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4985,71 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>468000</v>
+        <v>436400</v>
       </c>
       <c r="E72" s="3">
-        <v>501500</v>
+        <v>431600</v>
       </c>
       <c r="F72" s="3">
-        <v>485100</v>
+        <v>453700</v>
       </c>
       <c r="G72" s="3">
-        <v>494300</v>
+        <v>486100</v>
       </c>
       <c r="H72" s="3">
-        <v>539300</v>
+        <v>470200</v>
       </c>
       <c r="I72" s="3">
+        <v>479100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>522700</v>
+      </c>
+      <c r="K72" s="3">
         <v>603800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>637900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>711200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>723200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>876600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>590200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>676400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>672900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>455700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>464800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>504300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>11</v>
       </c>
@@ -4711,8 +5059,14 @@
       <c r="X72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5281,71 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>468100</v>
+        <v>436400</v>
       </c>
       <c r="E76" s="3">
-        <v>501500</v>
+        <v>431600</v>
       </c>
       <c r="F76" s="3">
-        <v>485100</v>
+        <v>453700</v>
       </c>
       <c r="G76" s="3">
-        <v>494300</v>
+        <v>486100</v>
       </c>
       <c r="H76" s="3">
-        <v>539300</v>
+        <v>470200</v>
       </c>
       <c r="I76" s="3">
+        <v>479100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>522700</v>
+      </c>
+      <c r="K76" s="3">
         <v>603800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>638000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>711200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>723200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>876600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>590200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>676400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>672900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>455700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>464800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>504300</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>11</v>
       </c>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25200</v>
+        <v>-11200</v>
       </c>
       <c r="E81" s="3">
-        <v>-18800</v>
+        <v>-15000</v>
       </c>
       <c r="F81" s="3">
-        <v>-34800</v>
+        <v>-24400</v>
       </c>
       <c r="G81" s="3">
-        <v>-45100</v>
+        <v>-18300</v>
       </c>
       <c r="H81" s="3">
-        <v>-50900</v>
+        <v>-33700</v>
       </c>
       <c r="I81" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-38300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-49600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-43800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-50800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-35800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-48800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-64900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-44700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-51900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-63400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-94500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-32600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-35200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-15200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24900</v>
+        <v>-2700</v>
       </c>
       <c r="E89" s="3">
-        <v>-18200</v>
+        <v>-84500</v>
       </c>
       <c r="F89" s="3">
-        <v>46300</v>
+        <v>24100</v>
       </c>
       <c r="G89" s="3">
-        <v>-159000</v>
+        <v>-17600</v>
       </c>
       <c r="H89" s="3">
-        <v>69900</v>
+        <v>44900</v>
       </c>
       <c r="I89" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K89" s="3">
         <v>47300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-109100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-66200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-54800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>119400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-78500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-92100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-69600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-64800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-92200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-53600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>32400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-39700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-9300</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,10 +6171,10 @@
         <v>-265200</v>
       </c>
       <c r="E91" s="3">
-        <v>-101800</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-96300</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5758,38 +6200,44 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>11</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-7700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-8100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-3400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>48400</v>
+        <v>-15000</v>
       </c>
       <c r="E94" s="3">
-        <v>3500</v>
+        <v>56100</v>
       </c>
       <c r="F94" s="3">
-        <v>-6000</v>
+        <v>46900</v>
       </c>
       <c r="G94" s="3">
-        <v>220400</v>
+        <v>3400</v>
       </c>
       <c r="H94" s="3">
-        <v>-82600</v>
+        <v>-5800</v>
       </c>
       <c r="I94" s="3">
+        <v>213600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="K94" s="3">
         <v>93400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-101800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>147700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>256600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-260700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-69200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>267900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-264300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>40700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>33900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>275700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-4200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>202700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-981100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-14000</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6776,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9000</v>
+        <v>-6100</v>
       </c>
       <c r="E100" s="3">
-        <v>8800</v>
+        <v>-6100</v>
       </c>
       <c r="F100" s="3">
-        <v>-19200</v>
+        <v>-8700</v>
       </c>
       <c r="G100" s="3">
-        <v>-79200</v>
+        <v>8500</v>
       </c>
       <c r="H100" s="3">
-        <v>-55200</v>
+        <v>-18600</v>
       </c>
       <c r="I100" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>8700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-181600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-124900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>457300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-104400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>340800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>10000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-265600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>185700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>3100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-157100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>566600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>414700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="E101" s="3">
-        <v>7400</v>
+        <v>-1500</v>
       </c>
       <c r="F101" s="3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-500</v>
+        <v>7200</v>
       </c>
       <c r="H101" s="3">
-        <v>-2300</v>
+        <v>3600</v>
       </c>
       <c r="I101" s="3">
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="J101" s="3">
-        <v>-2500</v>
+        <v>-2200</v>
       </c>
       <c r="K101" s="3">
         <v>400</v>
       </c>
       <c r="L101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>400</v>
+      </c>
+      <c r="N101" s="3">
         <v>-16700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-8300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>4500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>3400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>5500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-7000</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64300</v>
+        <v>-17500</v>
       </c>
       <c r="E102" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>62300</v>
+      </c>
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
-        <v>24800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-18300</v>
-      </c>
       <c r="H102" s="3">
-        <v>-70300</v>
+        <v>24000</v>
       </c>
       <c r="I102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="K102" s="3">
         <v>138300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-204700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-99700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>60100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>307700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-151400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>75900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>25100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-20900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-294200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>368100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-54700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>81500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-448700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>384400</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCFT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>134100</v>
+        <v>116500</v>
       </c>
       <c r="E8" s="3">
-        <v>127600</v>
+        <v>134400</v>
       </c>
       <c r="F8" s="3">
-        <v>171200</v>
+        <v>127800</v>
       </c>
       <c r="G8" s="3">
-        <v>147300</v>
+        <v>171600</v>
       </c>
       <c r="H8" s="3">
-        <v>156200</v>
+        <v>147600</v>
       </c>
       <c r="I8" s="3">
-        <v>140400</v>
+        <v>156600</v>
       </c>
       <c r="J8" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K8" s="3">
         <v>176400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>151300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>137600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>117700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>149700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>129900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>114100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>90900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>119000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>91200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>79700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>68500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>77700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>55100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>41500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>34100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>29200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>85500</v>
+        <v>75700</v>
       </c>
       <c r="E9" s="3">
-        <v>80300</v>
+        <v>85700</v>
       </c>
       <c r="F9" s="3">
-        <v>102100</v>
+        <v>80400</v>
       </c>
       <c r="G9" s="3">
-        <v>95600</v>
+        <v>102400</v>
       </c>
       <c r="H9" s="3">
-        <v>99700</v>
+        <v>95900</v>
       </c>
       <c r="I9" s="3">
-        <v>92300</v>
+        <v>99900</v>
       </c>
       <c r="J9" s="3">
+        <v>92500</v>
+      </c>
+      <c r="K9" s="3">
         <v>114400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>97500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>90700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>77700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>98500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>74500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>70300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>59300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>79000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>56000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>41900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>34700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>55200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>40200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>23200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>18400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>48600</v>
+        <v>40700</v>
       </c>
       <c r="E10" s="3">
-        <v>47300</v>
+        <v>48700</v>
       </c>
       <c r="F10" s="3">
-        <v>69000</v>
+        <v>47400</v>
       </c>
       <c r="G10" s="3">
-        <v>51600</v>
+        <v>69200</v>
       </c>
       <c r="H10" s="3">
-        <v>56500</v>
+        <v>51700</v>
       </c>
       <c r="I10" s="3">
-        <v>48100</v>
+        <v>56700</v>
       </c>
       <c r="J10" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K10" s="3">
         <v>62000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>53800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>46800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>40000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>51300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>55400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>43800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>31600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>40000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>33800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>22500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>14900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>15700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1032,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>33100</v>
+        <v>31800</v>
       </c>
       <c r="E12" s="3">
-        <v>39600</v>
+        <v>33200</v>
       </c>
       <c r="F12" s="3">
+        <v>39700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>53800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>39700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>52100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K12" s="3">
         <v>53700</v>
       </c>
-      <c r="G12" s="3">
-        <v>39600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>52000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>50000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>53700</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>46000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>51000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>40400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>48600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>43600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>42600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>37500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>47700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>31000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>24200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>38400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>31900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>18600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,59 +1184,62 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1232,8 +1252,8 @@
       <c r="W14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1267,8 +1290,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>11</v>
@@ -1288,35 +1311,38 @@
       <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="3">
         <v>5100</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" s="3">
-        <v>15400</v>
+      <c r="T15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U15" s="3">
         <v>15400</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>11</v>
+      <c r="V15" s="3">
+        <v>15400</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y15" s="3">
         <v>8300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>8100</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>144900</v>
+        <v>129700</v>
       </c>
       <c r="E17" s="3">
-        <v>144300</v>
+        <v>145300</v>
       </c>
       <c r="F17" s="3">
-        <v>199500</v>
+        <v>144600</v>
       </c>
       <c r="G17" s="3">
-        <v>168600</v>
+        <v>199900</v>
       </c>
       <c r="H17" s="3">
-        <v>194500</v>
+        <v>169000</v>
       </c>
       <c r="I17" s="3">
-        <v>189300</v>
+        <v>194900</v>
       </c>
       <c r="J17" s="3">
+        <v>189700</v>
+      </c>
+      <c r="K17" s="3">
         <v>228800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>191600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>193800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>167400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>207300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>166800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>167200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>160700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>208500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>138800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>133800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>138800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>159700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>95800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>65500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>53300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-21300</v>
-      </c>
       <c r="H18" s="3">
-        <v>-38200</v>
+        <v>-21400</v>
       </c>
       <c r="I18" s="3">
-        <v>-48900</v>
+        <v>-38300</v>
       </c>
       <c r="J18" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-52400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-40200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-56200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-49700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-57600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-36900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-53100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-69700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-89500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-47600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-54100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-70300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-81900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-40700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-19100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1549,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-30300</v>
-      </c>
       <c r="G21" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-22000</v>
       </c>
-      <c r="H21" s="3">
-        <v>-38100</v>
-      </c>
       <c r="I21" s="3">
-        <v>-42400</v>
+        <v>-38200</v>
       </c>
       <c r="J21" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-54000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-43500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-56900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-39100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-59800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-39200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-63000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-85900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-48400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-49800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-46100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-75700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-41400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-24800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1690,8 +1730,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>11</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>11</v>
@@ -1711,183 +1751,192 @@
       <c r="Q22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="3">
         <v>6500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>7400</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z22" s="3">
         <v>1700</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-15800</v>
-      </c>
       <c r="F23" s="3">
-        <v>-29000</v>
+        <v>-15900</v>
       </c>
       <c r="G23" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-21100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-37700</v>
-      </c>
       <c r="I23" s="3">
-        <v>-48600</v>
+        <v>-37800</v>
       </c>
       <c r="J23" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-54100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-42200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-57300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-50200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-59900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-39400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-73000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-90600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-50700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-56500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-73200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-83600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-43400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-26200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-19900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-37100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-9500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-10100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-35500</v>
-      </c>
       <c r="I26" s="3">
-        <v>-45800</v>
+        <v>-35600</v>
       </c>
       <c r="J26" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-50000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-38400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-53200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-46400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-53900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-36700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-50900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-67800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-98300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-45400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-52100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-63700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-93000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-33300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-15200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11200</v>
+        <v>-12600</v>
       </c>
       <c r="E27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-15000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-24400</v>
-      </c>
       <c r="G27" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-18300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-33700</v>
-      </c>
       <c r="I27" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="N27" s="3">
         <v>-43800</v>
       </c>
-      <c r="J27" s="3">
-        <v>-49400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-38300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-49600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-50800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-35800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-64900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-95400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-44700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-51900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-63400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-94500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-32600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-15200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11200</v>
+        <v>-12600</v>
       </c>
       <c r="E33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-15000</v>
       </c>
-      <c r="F33" s="3">
-        <v>-24400</v>
-      </c>
       <c r="G33" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-18300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-33700</v>
-      </c>
       <c r="I33" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="N33" s="3">
         <v>-43800</v>
       </c>
-      <c r="J33" s="3">
-        <v>-49400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-38300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-49600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-50800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-35800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-64900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-95400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-44700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-51900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-63400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-94500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-32600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-15200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11200</v>
+        <v>-12600</v>
       </c>
       <c r="E35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-15000</v>
       </c>
-      <c r="F35" s="3">
-        <v>-24400</v>
-      </c>
       <c r="G35" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-18300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-33700</v>
-      </c>
       <c r="I35" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="N35" s="3">
         <v>-43800</v>
       </c>
-      <c r="J35" s="3">
-        <v>-49400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-38300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-49600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-50800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-35800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-64900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-95400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-44700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-51900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-63400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-94500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-32600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-15200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,68 +2921,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>209400</v>
+        <v>200400</v>
       </c>
       <c r="E41" s="3">
-        <v>226800</v>
+        <v>209800</v>
       </c>
       <c r="F41" s="3">
-        <v>262900</v>
+        <v>227300</v>
       </c>
       <c r="G41" s="3">
-        <v>200600</v>
+        <v>263400</v>
       </c>
       <c r="H41" s="3">
-        <v>199100</v>
+        <v>201000</v>
       </c>
       <c r="I41" s="3">
-        <v>175100</v>
+        <v>199500</v>
       </c>
       <c r="J41" s="3">
+        <v>175500</v>
+      </c>
+      <c r="K41" s="3">
         <v>192800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>269200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>130900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>339100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>425300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>306600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>78900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>244700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>166000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>142800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>160300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>454400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>11</v>
       </c>
@@ -2909,68 +2996,71 @@
       <c r="Z41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>287200</v>
+        <v>266500</v>
       </c>
       <c r="E42" s="3">
-        <v>216000</v>
+        <v>287800</v>
       </c>
       <c r="F42" s="3">
-        <v>265100</v>
+        <v>216500</v>
       </c>
       <c r="G42" s="3">
-        <v>280800</v>
+        <v>265700</v>
       </c>
       <c r="H42" s="3">
-        <v>261200</v>
+        <v>281400</v>
       </c>
       <c r="I42" s="3">
-        <v>235500</v>
+        <v>261800</v>
       </c>
       <c r="J42" s="3">
+        <v>236100</v>
+      </c>
+      <c r="K42" s="3">
         <v>353700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>275200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>349200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>297700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>287300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>404600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>334900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>157400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>260400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>87500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>161000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>100800</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>11</v>
       </c>
@@ -2983,68 +3073,71 @@
       <c r="Z42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>177900</v>
+        <v>172100</v>
       </c>
       <c r="E43" s="3">
-        <v>180300</v>
+        <v>178300</v>
       </c>
       <c r="F43" s="3">
-        <v>146500</v>
+        <v>180700</v>
       </c>
       <c r="G43" s="3">
-        <v>192000</v>
+        <v>146900</v>
       </c>
       <c r="H43" s="3">
-        <v>224600</v>
+        <v>192400</v>
       </c>
       <c r="I43" s="3">
-        <v>203100</v>
+        <v>225100</v>
       </c>
       <c r="J43" s="3">
+        <v>203500</v>
+      </c>
+      <c r="K43" s="3">
         <v>180800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>240100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>217100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>173900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>152600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>216100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>181900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>169100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>176300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>175900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>152500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>118900</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>11</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,68 +3227,71 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>187300</v>
+        <v>212700</v>
       </c>
       <c r="E45" s="3">
-        <v>201600</v>
+        <v>187700</v>
       </c>
       <c r="F45" s="3">
-        <v>203700</v>
+        <v>202100</v>
       </c>
       <c r="G45" s="3">
-        <v>199900</v>
+        <v>204200</v>
       </c>
       <c r="H45" s="3">
-        <v>196500</v>
+        <v>200300</v>
       </c>
       <c r="I45" s="3">
-        <v>188200</v>
+        <v>196900</v>
       </c>
       <c r="J45" s="3">
+        <v>188600</v>
+      </c>
+      <c r="K45" s="3">
         <v>223200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>290800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>281000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>228800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>379200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>439000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>440800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>462700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>576700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>560000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>526100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>622600</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>11</v>
       </c>
@@ -3205,68 +3304,71 @@
       <c r="Z45" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>861800</v>
+        <v>851800</v>
       </c>
       <c r="E46" s="3">
-        <v>824800</v>
+        <v>863700</v>
       </c>
       <c r="F46" s="3">
-        <v>878200</v>
+        <v>826600</v>
       </c>
       <c r="G46" s="3">
-        <v>873200</v>
+        <v>880200</v>
       </c>
       <c r="H46" s="3">
-        <v>881400</v>
+        <v>875100</v>
       </c>
       <c r="I46" s="3">
-        <v>801900</v>
+        <v>883300</v>
       </c>
       <c r="J46" s="3">
+        <v>803600</v>
+      </c>
+      <c r="K46" s="3">
         <v>950500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1075300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>978200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1039500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1244400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1366200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1036500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1033900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1179300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>966200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>999800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1296700</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>11</v>
       </c>
@@ -3279,68 +3381,71 @@
       <c r="Z46" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>112500</v>
+        <v>124800</v>
       </c>
       <c r="E47" s="3">
-        <v>133100</v>
+        <v>112800</v>
       </c>
       <c r="F47" s="3">
-        <v>140600</v>
+        <v>133400</v>
       </c>
       <c r="G47" s="3">
-        <v>144600</v>
+        <v>140900</v>
       </c>
       <c r="H47" s="3">
-        <v>137400</v>
+        <v>144900</v>
       </c>
       <c r="I47" s="3">
-        <v>128500</v>
+        <v>137700</v>
       </c>
       <c r="J47" s="3">
+        <v>128800</v>
+      </c>
+      <c r="K47" s="3">
         <v>114000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>90200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>58500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>37800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>33400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>35000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>33400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>90600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>85200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>31100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>32700</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>11</v>
       </c>
@@ -3353,68 +3458,71 @@
       <c r="Z47" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E48" s="3">
         <v>16100</v>
       </c>
-      <c r="E48" s="3">
-        <v>19700</v>
-      </c>
       <c r="F48" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G48" s="3">
         <v>20900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>30600</v>
       </c>
-      <c r="H48" s="3">
-        <v>34000</v>
-      </c>
       <c r="I48" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J48" s="3">
         <v>35800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>33700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>37000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>43600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>48400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>56400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>53300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>45200</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>11</v>
       </c>
@@ -3427,68 +3535,71 @@
       <c r="Z48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72500</v>
+        <v>68100</v>
       </c>
       <c r="E49" s="3">
-        <v>74600</v>
+        <v>72700</v>
       </c>
       <c r="F49" s="3">
-        <v>78600</v>
+        <v>74800</v>
       </c>
       <c r="G49" s="3">
-        <v>83500</v>
+        <v>78800</v>
       </c>
       <c r="H49" s="3">
-        <v>86200</v>
+        <v>83600</v>
       </c>
       <c r="I49" s="3">
-        <v>90000</v>
+        <v>86400</v>
       </c>
       <c r="J49" s="3">
+        <v>90200</v>
+      </c>
+      <c r="K49" s="3">
         <v>94700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>106000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>113900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>125300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>127700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>130400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>133500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>147600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>150400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>148900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>106700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>104400</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>11</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,68 +3766,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>105900</v>
+        <v>106000</v>
       </c>
       <c r="E52" s="3">
-        <v>106000</v>
+        <v>106100</v>
       </c>
       <c r="F52" s="3">
-        <v>105500</v>
+        <v>106200</v>
       </c>
       <c r="G52" s="3">
-        <v>103200</v>
+        <v>105800</v>
       </c>
       <c r="H52" s="3">
-        <v>100600</v>
+        <v>103400</v>
       </c>
       <c r="I52" s="3">
-        <v>98700</v>
+        <v>100800</v>
       </c>
       <c r="J52" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K52" s="3">
         <v>94100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>93300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>88600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>84900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>78600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>73200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>65300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>74000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>67700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>62500</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>11</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3920,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1168800</v>
+        <v>1164500</v>
       </c>
       <c r="E54" s="3">
-        <v>1158200</v>
+        <v>1171300</v>
       </c>
       <c r="F54" s="3">
-        <v>1223800</v>
+        <v>1160800</v>
       </c>
       <c r="G54" s="3">
-        <v>1235000</v>
+        <v>1226500</v>
       </c>
       <c r="H54" s="3">
-        <v>1239700</v>
+        <v>1237700</v>
       </c>
       <c r="I54" s="3">
-        <v>1154900</v>
+        <v>1242400</v>
       </c>
       <c r="J54" s="3">
+        <v>1157400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1286900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1399300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1263200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1314900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1515200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1641100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1313600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1387100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1528600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1274600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1258600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1541600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>11</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,68 +4057,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>332000</v>
+        <v>320900</v>
       </c>
       <c r="E57" s="3">
-        <v>360400</v>
+        <v>332700</v>
       </c>
       <c r="F57" s="3">
-        <v>103800</v>
+        <v>361200</v>
       </c>
       <c r="G57" s="3">
-        <v>336600</v>
+        <v>104100</v>
       </c>
       <c r="H57" s="3">
-        <v>350600</v>
+        <v>337300</v>
       </c>
       <c r="I57" s="3">
-        <v>290300</v>
+        <v>351300</v>
       </c>
       <c r="J57" s="3">
+        <v>291000</v>
+      </c>
+      <c r="K57" s="3">
         <v>151800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>248000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>235100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>228700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>215500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>211600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>212600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>175700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>53400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>22500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>11</v>
       </c>
@@ -4001,68 +4132,71 @@
       <c r="Z57" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>48000</v>
+        <v>35800</v>
       </c>
       <c r="E58" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F58" s="3">
         <v>38800</v>
       </c>
-      <c r="F58" s="3">
-        <v>46300</v>
-      </c>
       <c r="G58" s="3">
-        <v>45300</v>
+        <v>46400</v>
       </c>
       <c r="H58" s="3">
-        <v>36700</v>
+        <v>45400</v>
       </c>
       <c r="I58" s="3">
-        <v>40600</v>
+        <v>36800</v>
       </c>
       <c r="J58" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K58" s="3">
         <v>120200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>168100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>164700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>152000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>317800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>361300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>359400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>372900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>511300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>476000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>449600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>711800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>11</v>
       </c>
@@ -4075,68 +4209,71 @@
       <c r="Z58" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>334800</v>
+        <v>368300</v>
       </c>
       <c r="E59" s="3">
-        <v>308400</v>
+        <v>335500</v>
       </c>
       <c r="F59" s="3">
-        <v>600300</v>
+        <v>309000</v>
       </c>
       <c r="G59" s="3">
-        <v>321700</v>
+        <v>601600</v>
       </c>
       <c r="H59" s="3">
-        <v>333300</v>
+        <v>322400</v>
       </c>
       <c r="I59" s="3">
-        <v>292900</v>
+        <v>334000</v>
       </c>
       <c r="J59" s="3">
+        <v>293500</v>
+      </c>
+      <c r="K59" s="3">
         <v>439200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>317900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>173200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>165400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>185900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>127100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>83100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>70400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>195900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>227200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>223600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>207100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>11</v>
       </c>
@@ -4149,68 +4286,71 @@
       <c r="Z59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>714800</v>
+        <v>725000</v>
       </c>
       <c r="E60" s="3">
-        <v>707500</v>
+        <v>716300</v>
       </c>
       <c r="F60" s="3">
-        <v>750400</v>
+        <v>709000</v>
       </c>
       <c r="G60" s="3">
-        <v>703600</v>
+        <v>752000</v>
       </c>
       <c r="H60" s="3">
-        <v>720500</v>
+        <v>705100</v>
       </c>
       <c r="I60" s="3">
-        <v>623800</v>
+        <v>722100</v>
       </c>
       <c r="J60" s="3">
+        <v>625200</v>
+      </c>
+      <c r="K60" s="3">
         <v>711300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>734000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>573000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>546200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>719200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>699900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>655000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>619000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>760600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>714000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>695700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>957100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>11</v>
       </c>
@@ -4223,8 +4363,11 @@
       <c r="Z60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4235,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>6100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4247,11 +4390,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>13400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4271,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>13500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4297,68 +4440,71 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20100</v>
+        <v>18100</v>
       </c>
       <c r="E62" s="3">
-        <v>21100</v>
+        <v>20200</v>
       </c>
       <c r="F62" s="3">
-        <v>15600</v>
+        <v>21200</v>
       </c>
       <c r="G62" s="3">
-        <v>44600</v>
+        <v>15700</v>
       </c>
       <c r="H62" s="3">
-        <v>47100</v>
+        <v>44700</v>
       </c>
       <c r="I62" s="3">
-        <v>48300</v>
+        <v>47200</v>
       </c>
       <c r="J62" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K62" s="3">
         <v>33800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>60300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>48100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>51000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>70900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>58400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>78500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>71700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>63500</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>11</v>
       </c>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4748,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>732400</v>
+        <v>740100</v>
       </c>
       <c r="E66" s="3">
-        <v>726700</v>
+        <v>734000</v>
       </c>
       <c r="F66" s="3">
-        <v>770100</v>
+        <v>728200</v>
       </c>
       <c r="G66" s="3">
-        <v>749000</v>
+        <v>771800</v>
       </c>
       <c r="H66" s="3">
-        <v>769500</v>
+        <v>750600</v>
       </c>
       <c r="I66" s="3">
-        <v>675800</v>
+        <v>771200</v>
       </c>
       <c r="J66" s="3">
+        <v>677300</v>
+      </c>
+      <c r="K66" s="3">
         <v>764200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>795500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>625300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>603700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>792000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>764500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>723400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>710700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>855700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>819000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>793800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1037300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>11</v>
       </c>
@@ -4667,8 +4825,11 @@
       <c r="Z66" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,68 +5162,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>436400</v>
+        <v>424300</v>
       </c>
       <c r="E72" s="3">
-        <v>431600</v>
+        <v>437300</v>
       </c>
       <c r="F72" s="3">
-        <v>453700</v>
+        <v>432500</v>
       </c>
       <c r="G72" s="3">
-        <v>486100</v>
+        <v>454600</v>
       </c>
       <c r="H72" s="3">
-        <v>470200</v>
+        <v>487100</v>
       </c>
       <c r="I72" s="3">
-        <v>479100</v>
+        <v>471200</v>
       </c>
       <c r="J72" s="3">
+        <v>480100</v>
+      </c>
+      <c r="K72" s="3">
         <v>522700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>603800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>637900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>711200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>723200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>876600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>590200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>676400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>672900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>455700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>464800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>504300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>11</v>
       </c>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5470,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>436400</v>
+        <v>424300</v>
       </c>
       <c r="E76" s="3">
-        <v>431600</v>
+        <v>437300</v>
       </c>
       <c r="F76" s="3">
-        <v>453700</v>
+        <v>432500</v>
       </c>
       <c r="G76" s="3">
-        <v>486100</v>
+        <v>454700</v>
       </c>
       <c r="H76" s="3">
-        <v>470200</v>
+        <v>487200</v>
       </c>
       <c r="I76" s="3">
-        <v>479100</v>
+        <v>471200</v>
       </c>
       <c r="J76" s="3">
+        <v>480100</v>
+      </c>
+      <c r="K76" s="3">
         <v>522700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>603800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>638000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>711200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>723200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>876600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>590200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>676400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>672900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>455700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>464800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>504300</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>11</v>
       </c>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11200</v>
+        <v>-12600</v>
       </c>
       <c r="E81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-15000</v>
       </c>
-      <c r="F81" s="3">
-        <v>-24400</v>
-      </c>
       <c r="G81" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-18300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-33700</v>
-      </c>
       <c r="I81" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="N81" s="3">
         <v>-43800</v>
       </c>
-      <c r="J81" s="3">
-        <v>-49400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-38300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-49600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-50800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-35800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-64900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-95400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-44700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-51900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-63400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-94500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-32600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-35200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-15200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
-        <v>-84500</v>
-      </c>
       <c r="F89" s="3">
-        <v>24100</v>
+        <v>-84700</v>
       </c>
       <c r="G89" s="3">
-        <v>-17600</v>
+        <v>24200</v>
       </c>
       <c r="H89" s="3">
-        <v>44900</v>
+        <v>-17700</v>
       </c>
       <c r="I89" s="3">
-        <v>-154100</v>
+        <v>45000</v>
       </c>
       <c r="J89" s="3">
+        <v>-154500</v>
+      </c>
+      <c r="K89" s="3">
         <v>67700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>47300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-109100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-66200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-54800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>119400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-78500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-92100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-53000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-69600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-64800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-92200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-53600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>32400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-39700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,13 +6382,14 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-265200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6206,38 +6427,41 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S91" s="3">
         <v>-2800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3400</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-600</v>
       </c>
       <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15000</v>
       </c>
-      <c r="E94" s="3">
-        <v>56100</v>
-      </c>
       <c r="F94" s="3">
-        <v>46900</v>
+        <v>56200</v>
       </c>
       <c r="G94" s="3">
+        <v>47000</v>
+      </c>
+      <c r="H94" s="3">
         <v>3400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-5800</v>
-      </c>
       <c r="I94" s="3">
-        <v>213600</v>
+        <v>-5900</v>
       </c>
       <c r="J94" s="3">
+        <v>214100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-80100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>93400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-101800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>147700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>256600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-260700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-69200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>267900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-264300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>40700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>33900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>275700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>202700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-981100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6100</v>
+        <v>-12700</v>
       </c>
       <c r="E100" s="3">
         <v>-6100</v>
       </c>
       <c r="F100" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-8700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8500</v>
       </c>
-      <c r="H100" s="3">
-        <v>-18600</v>
-      </c>
       <c r="I100" s="3">
-        <v>-76700</v>
+        <v>-18700</v>
       </c>
       <c r="J100" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-53500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-181600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-124900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>457300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-104400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>340800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-265600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>185700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-157100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>566600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>414700</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>6400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>7200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17500</v>
       </c>
-      <c r="E102" s="3">
-        <v>-36000</v>
-      </c>
       <c r="F102" s="3">
-        <v>62300</v>
+        <v>-36100</v>
       </c>
       <c r="G102" s="3">
+        <v>62400</v>
+      </c>
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
-        <v>24000</v>
-      </c>
       <c r="I102" s="3">
-        <v>-17700</v>
+        <v>24100</v>
       </c>
       <c r="J102" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-68100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>138300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-204700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-99700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>60100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>307700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-151400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>75900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>25100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-20900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-294200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>368100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-54700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>81500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-448700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>384400</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>11</v>
       </c>
     </row>
